--- a/June2012/ISWRPQAQ_stats.xlsx
+++ b/June2012/ISWRPQAQ_stats.xlsx
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.0255799779856115</v>
+        <v>-0.02557928762589929</v>
       </c>
       <c r="AZ4">
-        <v>0.05543466966305301</v>
+        <v>0.05543475645346182</v>
       </c>
       <c r="BA4">
         <v>-0.368</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-0.6005228776978417</v>
+        <v>-0.600493956834532</v>
       </c>
       <c r="BH4">
-        <v>1.717087456823463</v>
+        <v>1.717096853231592</v>
       </c>
       <c r="BI4">
         <v>-11</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>7.36195402298852</v>
+        <v>7.362112068965533</v>
       </c>
       <c r="T5">
-        <v>2.374747042198355</v>
+        <v>2.374929122837481</v>
       </c>
       <c r="U5">
         <v>3.44</v>
@@ -1012,10 +1012,10 @@
         <v>696</v>
       </c>
       <c r="AI5">
-        <v>160.6488505747126</v>
+        <v>160.6502873563218</v>
       </c>
       <c r="AJ5">
-        <v>79.00662770741773</v>
+        <v>79.00888320826074</v>
       </c>
       <c r="AK5">
         <v>64</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>-0.006318772557471265</v>
+        <v>-0.006318128448275866</v>
       </c>
       <c r="AZ5">
-        <v>0.02145520653042392</v>
+        <v>0.02145538210719786</v>
       </c>
       <c r="BA5">
         <v>-0.173</v>
@@ -1084,19 +1084,19 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>-0.0591088505747127</v>
+        <v>-0.05906897988505747</v>
       </c>
       <c r="BH5">
-        <v>0.2860527957771333</v>
+        <v>0.286061205637207</v>
       </c>
       <c r="BI5">
-        <v>-0.71</v>
+        <v>-0.709</v>
       </c>
       <c r="BJ5">
         <v>-0.201</v>
       </c>
       <c r="BK5">
-        <v>-0.06615</v>
+        <v>-0.06605</v>
       </c>
       <c r="BL5">
         <v>0.15825</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.005336380747126434</v>
+        <v>-0.005335297557471259</v>
       </c>
       <c r="AZ6">
-        <v>0.02041817961763459</v>
+        <v>0.02041879027327193</v>
       </c>
       <c r="BA6">
         <v>-0.16</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.03272867816091956</v>
+        <v>-0.03268410919540232</v>
       </c>
       <c r="BH6">
-        <v>0.2883649471343634</v>
+        <v>0.2883794628296875</v>
       </c>
       <c r="BI6">
         <v>-0.671</v>
@@ -1293,7 +1293,7 @@
         <v>-0.18125</v>
       </c>
       <c r="BK6">
-        <v>-0.05845</v>
+        <v>-0.0584</v>
       </c>
       <c r="BL6">
         <v>0.19125</v>
@@ -1454,16 +1454,16 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.004089325574712646</v>
+        <v>-0.004088530172413796</v>
       </c>
       <c r="AZ7">
-        <v>0.01949811950774876</v>
+        <v>0.01949778769603305</v>
       </c>
       <c r="BA7">
         <v>-0.149</v>
       </c>
       <c r="BB7">
-        <v>-0.00545</v>
+        <v>-0.0054425</v>
       </c>
       <c r="BC7">
         <v>-0.00142</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.005335732758620685</v>
+        <v>0.005369123563218388</v>
       </c>
       <c r="BH7">
-        <v>0.2924340050378613</v>
+        <v>0.2924427862784121</v>
       </c>
       <c r="BI7">
         <v>-0.5649999999999999</v>
@@ -1490,7 +1490,7 @@
         <v>-0.14525</v>
       </c>
       <c r="BK7">
-        <v>-0.03785</v>
+        <v>-0.0378</v>
       </c>
       <c r="BL7">
         <v>0.23625</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>7.075790229885059</v>
+        <v>7.075804597701151</v>
       </c>
       <c r="T8">
-        <v>2.368472526429463</v>
+        <v>2.368475012337085</v>
       </c>
       <c r="U8">
         <v>3.19</v>
@@ -1579,10 +1579,10 @@
         <v>696</v>
       </c>
       <c r="AA8">
-        <v>41.20100574712637</v>
+        <v>41.20129310344822</v>
       </c>
       <c r="AB8">
-        <v>0.2062662105319502</v>
+        <v>0.2060552283544997</v>
       </c>
       <c r="AC8">
         <v>41</v>
@@ -1603,10 +1603,10 @@
         <v>696</v>
       </c>
       <c r="AI8">
-        <v>157.4135057471265</v>
+        <v>157.4149425287357</v>
       </c>
       <c r="AJ8">
-        <v>77.00300183858083</v>
+        <v>77.00272315653434</v>
       </c>
       <c r="AK8">
         <v>61.6</v>
@@ -1627,10 +1627,10 @@
         <v>696</v>
       </c>
       <c r="AQ8">
-        <v>41.8294109195402</v>
+        <v>41.82958333333331</v>
       </c>
       <c r="AR8">
-        <v>29.22892329386547</v>
+        <v>29.2291457375265</v>
       </c>
       <c r="AS8">
         <v>1.77</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.00332377396551724</v>
+        <v>-0.003323389396551725</v>
       </c>
       <c r="AZ8">
-        <v>0.01880871035075106</v>
+        <v>0.01880827435089136</v>
       </c>
       <c r="BA8">
         <v>-0.141</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.02614169827586206</v>
+        <v>0.02615980459770113</v>
       </c>
       <c r="BH8">
-        <v>0.2964713834657499</v>
+        <v>0.2964759185096784</v>
       </c>
       <c r="BI8">
         <v>-0.542</v>
@@ -1752,10 +1752,10 @@
         <v>696</v>
       </c>
       <c r="S9">
-        <v>7.018534482758619</v>
+        <v>7.018548850574711</v>
       </c>
       <c r="T9">
-        <v>2.366636719050964</v>
+        <v>2.366639372594047</v>
       </c>
       <c r="U9">
         <v>3.15</v>
@@ -1776,10 +1776,10 @@
         <v>696</v>
       </c>
       <c r="AA9">
-        <v>41.14813218390798</v>
+        <v>41.14827586206889</v>
       </c>
       <c r="AB9">
-        <v>0.2044736068141052</v>
+        <v>0.2044044904914497</v>
       </c>
       <c r="AC9">
         <v>40.9</v>
@@ -1824,10 +1824,10 @@
         <v>696</v>
       </c>
       <c r="AQ9">
-        <v>41.6272557471265</v>
+        <v>41.62739942528742</v>
       </c>
       <c r="AR9">
-        <v>29.07046231769826</v>
+        <v>29.07059804650117</v>
       </c>
       <c r="AS9">
         <v>1.77</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.002341592097701148</v>
+        <v>-0.002341037931034482</v>
       </c>
       <c r="AZ9">
-        <v>0.01807811441519795</v>
+        <v>0.01807828010100799</v>
       </c>
       <c r="BA9">
         <v>-0.132</v>
@@ -1863,7 +1863,7 @@
         <v>-0.0008625</v>
       </c>
       <c r="BD9">
-        <v>0.005595</v>
+        <v>0.0055975</v>
       </c>
       <c r="BE9">
         <v>0.0326</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.0552188505747127</v>
+        <v>0.05524000000000005</v>
       </c>
       <c r="BH9">
-        <v>0.3011175315915206</v>
+        <v>0.3011249404659924</v>
       </c>
       <c r="BI9">
         <v>-0.468</v>
@@ -1925,10 +1925,10 @@
         <v>696</v>
       </c>
       <c r="K10">
-        <v>41.10158045977034</v>
+        <v>41.10172413793126</v>
       </c>
       <c r="L10">
-        <v>0.1931498150940545</v>
+        <v>0.1930368102760668</v>
       </c>
       <c r="M10">
         <v>40.9</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>6.9764224137931</v>
+        <v>6.976580459770111</v>
       </c>
       <c r="T10">
-        <v>2.366873781807488</v>
+        <v>2.367119568697304</v>
       </c>
       <c r="U10">
         <v>3.11</v>
@@ -1973,10 +1973,10 @@
         <v>696</v>
       </c>
       <c r="AA10">
-        <v>41.08649425287386</v>
+        <v>41.08663793103477</v>
       </c>
       <c r="AB10">
-        <v>0.2116500640378152</v>
+        <v>0.2115572026956402</v>
       </c>
       <c r="AC10">
         <v>40.9</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>156.0195402298851</v>
+        <v>156.0196839080459</v>
       </c>
       <c r="AJ10">
-        <v>76.17593791290406</v>
+        <v>76.17582218373212</v>
       </c>
       <c r="AK10">
         <v>61</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.001898476724137934</v>
+        <v>-0.001897865373563221</v>
       </c>
       <c r="AZ10">
-        <v>0.01755933530371499</v>
+        <v>0.01755946171788814</v>
       </c>
       <c r="BA10">
         <v>-0.126</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.06469317528735631</v>
+        <v>0.06471157040229884</v>
       </c>
       <c r="BH10">
-        <v>0.3032925589816607</v>
+        <v>0.303297623821058</v>
       </c>
       <c r="BI10">
         <v>-0.473</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>6.907887931034487</v>
+        <v>6.90791666666667</v>
       </c>
       <c r="T11">
-        <v>2.363819064293508</v>
+        <v>2.363836072408201</v>
       </c>
       <c r="U11">
         <v>2.93</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>155.285775862069</v>
+        <v>155.2872126436782</v>
       </c>
       <c r="AJ11">
-        <v>75.69548734618886</v>
+        <v>75.6953013205155</v>
       </c>
       <c r="AK11">
         <v>60.3</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>-0.001107305323275863</v>
+        <v>-0.001107420689655173</v>
       </c>
       <c r="AZ11">
-        <v>0.01700894436820445</v>
+        <v>0.01700895841268714</v>
       </c>
       <c r="BA11">
         <v>-0.132</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.08512320445402306</v>
+        <v>0.08511892543103455</v>
       </c>
       <c r="BH11">
-        <v>0.3094948425281069</v>
+        <v>0.3094962142397945</v>
       </c>
       <c r="BI11">
         <v>-0.609</v>
@@ -2278,7 +2278,7 @@
         <v>-0.1085</v>
       </c>
       <c r="BK11">
-        <v>0.00466</v>
+        <v>0.004654999999999999</v>
       </c>
       <c r="BL11">
         <v>0.333</v>
@@ -2343,10 +2343,10 @@
         <v>696</v>
       </c>
       <c r="S12">
-        <v>6.921178160919534</v>
+        <v>6.921206896551719</v>
       </c>
       <c r="T12">
-        <v>2.354383217863721</v>
+        <v>2.354374341795477</v>
       </c>
       <c r="U12">
         <v>3.1</v>
@@ -2415,10 +2415,10 @@
         <v>696</v>
       </c>
       <c r="AQ12">
-        <v>41.26209770114941</v>
+        <v>41.26238505747125</v>
       </c>
       <c r="AR12">
-        <v>28.76460338123313</v>
+        <v>28.76469529819983</v>
       </c>
       <c r="AS12">
         <v>1.75</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>8.843968534482746E-05</v>
+        <v>8.834350431034493E-05</v>
       </c>
       <c r="AZ12">
-        <v>0.01627621745879122</v>
+        <v>0.01627621445094614</v>
       </c>
       <c r="BA12">
         <v>-0.111</v>
@@ -2451,7 +2451,7 @@
         <v>-0.0022225</v>
       </c>
       <c r="BC12">
-        <v>-5.295E-07</v>
+        <v>-6.005E-07</v>
       </c>
       <c r="BD12">
         <v>0.0073425</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.1250300109195403</v>
+        <v>0.1250293459770116</v>
       </c>
       <c r="BH12">
-        <v>0.3168643767570392</v>
+        <v>0.3168646580396798</v>
       </c>
       <c r="BI12">
         <v>-0.356</v>
@@ -2475,7 +2475,7 @@
         <v>-0.056925</v>
       </c>
       <c r="BK12">
-        <v>-1.775E-05</v>
+        <v>-1.97E-05</v>
       </c>
       <c r="BL12">
         <v>0.378</v>
@@ -2516,10 +2516,10 @@
         <v>696</v>
       </c>
       <c r="K13">
-        <v>41.04698275862101</v>
+        <v>41.04712643678193</v>
       </c>
       <c r="L13">
-        <v>0.2081562217469058</v>
+        <v>0.2081582577024778</v>
       </c>
       <c r="M13">
         <v>40.9</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.0005130128735632187</v>
+        <v>0.0005129886781609199</v>
       </c>
       <c r="AZ13">
-        <v>0.01568031226998492</v>
+        <v>0.01568031596871931</v>
       </c>
       <c r="BA13">
         <v>-0.104</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.1320761538793104</v>
+        <v>0.132074292816092</v>
       </c>
       <c r="BH13">
-        <v>0.3160428513858063</v>
+        <v>0.316041519148802</v>
       </c>
       <c r="BI13">
         <v>-0.338</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.000924224425287356</v>
+        <v>0.0009242084770114938</v>
       </c>
       <c r="AZ14">
-        <v>0.01519058690272324</v>
+        <v>0.01519059305374226</v>
       </c>
       <c r="BA14">
         <v>-0.0982</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.1399136781609196</v>
+        <v>0.1399134195402299</v>
       </c>
       <c r="BH14">
-        <v>0.3157627519391845</v>
+        <v>0.3157628892225313</v>
       </c>
       <c r="BI14">
         <v>-0.321</v>
@@ -3033,7 +3033,7 @@
         <v>0.001322489942528736</v>
       </c>
       <c r="AZ15">
-        <v>0.01477718050520301</v>
+        <v>0.01477718046089982</v>
       </c>
       <c r="BA15">
         <v>-0.0929</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.148095445402299</v>
+        <v>0.1480937931034484</v>
       </c>
       <c r="BH15">
-        <v>0.3158766237054307</v>
+        <v>0.3158757860571877</v>
       </c>
       <c r="BI15">
         <v>-0.305</v>
@@ -3131,10 +3131,10 @@
         <v>696</v>
       </c>
       <c r="S16">
-        <v>6.908735632183909</v>
+        <v>6.908750000000001</v>
       </c>
       <c r="T16">
-        <v>2.352919719163672</v>
+        <v>2.352918106332624</v>
       </c>
       <c r="U16">
         <v>3.09</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.00170364511494253</v>
+        <v>0.001703640804597702</v>
       </c>
       <c r="AZ16">
-        <v>0.01443009966409109</v>
+        <v>0.01443010022770404</v>
       </c>
       <c r="BA16">
         <v>-0.0881</v>
@@ -3251,10 +3251,10 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.1561321752873563</v>
+        <v>0.1561321609195402</v>
       </c>
       <c r="BH16">
-        <v>0.3158340750893335</v>
+        <v>0.3158340821660466</v>
       </c>
       <c r="BI16">
         <v>-0.29</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.002063434051724139</v>
+        <v>0.002063419683908046</v>
       </c>
       <c r="AZ17">
-        <v>0.01413936018440544</v>
+        <v>0.01413935896166107</v>
       </c>
       <c r="BA17">
         <v>-0.0838</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.1636455962643677</v>
+        <v>0.1636455818965516</v>
       </c>
       <c r="BH17">
-        <v>0.3158246080641731</v>
+        <v>0.3158246157398926</v>
       </c>
       <c r="BI17">
         <v>-0.276</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.002409207054597701</v>
+        <v>0.00240920691091954</v>
       </c>
       <c r="AZ18">
-        <v>0.01390893303901088</v>
+        <v>0.01390893306355859</v>
       </c>
       <c r="BA18">
         <v>-0.0798</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.1711415989942528</v>
+        <v>0.1711430199712643</v>
       </c>
       <c r="BH18">
-        <v>0.3171591219372694</v>
+        <v>0.3171620810784213</v>
       </c>
       <c r="BI18">
         <v>-0.263</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.002737768405172415</v>
+        <v>0.002737768103448277</v>
       </c>
       <c r="AZ19">
-        <v>0.01372024174219781</v>
+        <v>0.01372024180235629</v>
       </c>
       <c r="BA19">
         <v>-0.0761</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.178313662356322</v>
+        <v>0.1783136192528738</v>
       </c>
       <c r="BH19">
-        <v>0.3185139340734821</v>
+        <v>0.3185139589708444</v>
       </c>
       <c r="BI19">
         <v>-0.251</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.003043681781609197</v>
+        <v>0.003043679856321842</v>
       </c>
       <c r="AZ20">
-        <v>0.01355686902470605</v>
+        <v>0.01355686940991456</v>
       </c>
       <c r="BA20">
         <v>-0.0727</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.1845494064655174</v>
+        <v>0.1845493896551725</v>
       </c>
       <c r="BH20">
-        <v>0.3179513397668813</v>
+        <v>0.317951349280585</v>
       </c>
       <c r="BI20">
         <v>-0.24</v>
@@ -4212,19 +4212,19 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.00332033441091954</v>
+        <v>0.003320342744252874</v>
       </c>
       <c r="AZ21">
-        <v>0.01341100001470849</v>
+        <v>0.01341100752302327</v>
       </c>
       <c r="BA21">
         <v>-0.0696</v>
       </c>
       <c r="BB21">
-        <v>-0.0006734999999999999</v>
+        <v>-0.00067375</v>
       </c>
       <c r="BC21">
-        <v>0.000297</v>
+        <v>0.0002965</v>
       </c>
       <c r="BD21">
         <v>0.00919</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.1897993405172415</v>
+        <v>0.189800761494253</v>
       </c>
       <c r="BH21">
-        <v>0.3154966145547863</v>
+        <v>0.3154995550173385</v>
       </c>
       <c r="BI21">
         <v>-0.23</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.003579734913793102</v>
+        <v>0.003579716235632182</v>
       </c>
       <c r="AZ22">
-        <v>0.01328830968494253</v>
+        <v>0.01328830833658387</v>
       </c>
       <c r="BA22">
         <v>-0.06660000000000001</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.1944917212643678</v>
+        <v>0.194491691091954</v>
       </c>
       <c r="BH22">
-        <v>0.3133269912819809</v>
+        <v>0.3133270096914439</v>
       </c>
       <c r="BI22">
         <v>-0.219</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.003838516982758623</v>
+        <v>0.003838512629310347</v>
       </c>
       <c r="AZ23">
-        <v>0.01320962844366321</v>
+        <v>0.01320962964585272</v>
       </c>
       <c r="BA23">
         <v>-0.0638</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.1999011176724136</v>
+        <v>0.1999039731321838</v>
       </c>
       <c r="BH23">
-        <v>0.3142524112771596</v>
+        <v>0.3142567594443098</v>
       </c>
       <c r="BI23">
         <v>-0.21</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.004097556034482757</v>
+        <v>0.004097566954022987</v>
       </c>
       <c r="AZ24">
-        <v>0.01317228686501245</v>
+        <v>0.01317229015890948</v>
       </c>
       <c r="BA24">
         <v>-0.0612</v>
@@ -4815,7 +4815,7 @@
         <v>-0.00036125</v>
       </c>
       <c r="BC24">
-        <v>0.0008795000000000001</v>
+        <v>0.000879</v>
       </c>
       <c r="BD24">
         <v>0.010125</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.2058595991379311</v>
+        <v>0.2058610057471265</v>
       </c>
       <c r="BH24">
-        <v>0.3169823066425346</v>
+        <v>0.316983963562596</v>
       </c>
       <c r="BI24">
         <v>-0.202</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.00434917031609196</v>
+        <v>0.004349181350574719</v>
       </c>
       <c r="AZ25">
-        <v>0.01316144705773908</v>
+        <v>0.0131614505671251</v>
       </c>
       <c r="BA25">
         <v>-0.0588</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.2115756191091954</v>
+        <v>0.2115768783045977</v>
       </c>
       <c r="BH25">
-        <v>0.3196345758741653</v>
+        <v>0.319636481572812</v>
       </c>
       <c r="BI25">
         <v>-0.194</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.004589519928160914</v>
+        <v>0.004589519324712638</v>
       </c>
       <c r="AZ26">
-        <v>0.01316540141317311</v>
+        <v>0.01316540162537779</v>
       </c>
       <c r="BA26">
         <v>-0.0565</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.2172660387931033</v>
+        <v>0.2172703491379309</v>
       </c>
       <c r="BH26">
-        <v>0.3226674928767803</v>
+        <v>0.3226744478441473</v>
       </c>
       <c r="BI26">
         <v>-0.186</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.004819583706896552</v>
+        <v>0.004819583376436783</v>
       </c>
       <c r="AZ27">
-        <v>0.01318352913075687</v>
+        <v>0.01318354169340386</v>
       </c>
       <c r="BA27">
         <v>-0.0543</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.2227674425287353</v>
+        <v>0.222768689655172</v>
       </c>
       <c r="BH27">
-        <v>0.3255461677464718</v>
+        <v>0.3255492324193757</v>
       </c>
       <c r="BI27">
         <v>-0.179</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.005033049603448276</v>
+        <v>0.005032902571839079</v>
       </c>
       <c r="AZ28">
-        <v>0.01320665109598464</v>
+        <v>0.01320698659812105</v>
       </c>
       <c r="BA28">
         <v>-0.0523</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.2277474501436782</v>
+        <v>0.2277501027298851</v>
       </c>
       <c r="BH28">
-        <v>0.3276244187709712</v>
+        <v>0.3276286180039851</v>
       </c>
       <c r="BI28">
         <v>-0.173</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.005237668994252878</v>
+        <v>0.005237661235632187</v>
       </c>
       <c r="AZ29">
-        <v>0.01324250333596825</v>
+        <v>0.01324250668411671</v>
       </c>
       <c r="BA29">
         <v>-0.0504</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.2324574047413794</v>
+        <v>0.2324588244252874</v>
       </c>
       <c r="BH29">
-        <v>0.3294559051377724</v>
+        <v>0.3294571447183877</v>
       </c>
       <c r="BI29">
         <v>-0.166</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.005433444094827586</v>
+        <v>0.005433454712643677</v>
       </c>
       <c r="AZ30">
-        <v>0.01328392997751495</v>
+        <v>0.0132839333165325</v>
       </c>
       <c r="BA30">
         <v>-0.0486</v>
@@ -6009,16 +6009,16 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.2369023520114942</v>
+        <v>0.2369023031609195</v>
       </c>
       <c r="BH30">
-        <v>0.3310978380738509</v>
+        <v>0.3310978730341828</v>
       </c>
       <c r="BI30">
         <v>-0.16</v>
       </c>
       <c r="BJ30">
-        <v>-0.0028625</v>
+        <v>-0.002865</v>
       </c>
       <c r="BK30">
         <v>0.0272</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.005621059528735629</v>
+        <v>0.00562106622701149</v>
       </c>
       <c r="AZ31">
-        <v>0.01333265269394181</v>
+        <v>0.0133326570507794</v>
       </c>
       <c r="BA31">
         <v>-0.0468</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.2412091146551724</v>
+        <v>0.2412105604885057</v>
       </c>
       <c r="BH31">
-        <v>0.3328068296629081</v>
+        <v>0.332809470164794</v>
       </c>
       <c r="BI31">
         <v>-0.155</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.005800848793103447</v>
+        <v>0.005800848017241378</v>
       </c>
       <c r="AZ32">
-        <v>0.01339313897331475</v>
+        <v>0.01339313931316181</v>
       </c>
       <c r="BA32">
         <v>-0.0452</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.2452863199712641</v>
+        <v>0.2452918870689653</v>
       </c>
       <c r="BH32">
-        <v>0.3343834628822603</v>
+        <v>0.3343918469099977</v>
       </c>
       <c r="BI32">
         <v>-0.15</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>6.801063218390806</v>
+        <v>6.801034482758623</v>
       </c>
       <c r="T33">
-        <v>2.344835443358305</v>
+        <v>2.344824840499216</v>
       </c>
       <c r="U33">
         <v>3.01</v>
@@ -6492,7 +6492,7 @@
         <v>4.1325</v>
       </c>
       <c r="W33">
-        <v>6.565</v>
+        <v>6.56</v>
       </c>
       <c r="X33">
         <v>8.640000000000001</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.005973775603448275</v>
+        <v>0.005973909310344826</v>
       </c>
       <c r="AZ33">
-        <v>0.0134569634679004</v>
+        <v>0.01345718443089327</v>
       </c>
       <c r="BA33">
         <v>-0.0436</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.2492453985632183</v>
+        <v>0.249247823275862</v>
       </c>
       <c r="BH33">
-        <v>0.3360369924687893</v>
+        <v>0.3360393959668509</v>
       </c>
       <c r="BI33">
         <v>-0.145</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.00614128304597701</v>
+        <v>0.006141281034482756</v>
       </c>
       <c r="AZ34">
-        <v>0.01352964097677614</v>
+        <v>0.0135296417595089</v>
       </c>
       <c r="BA34">
         <v>-0.0421</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.2530793462643675</v>
+        <v>0.2530791882183905</v>
       </c>
       <c r="BH34">
-        <v>0.3376682438947742</v>
+        <v>0.3376724369855862</v>
       </c>
       <c r="BI34">
         <v>-0.14</v>
@@ -6898,10 +6898,10 @@
         <v>696</v>
       </c>
       <c r="AA35">
-        <v>40.90474137931044</v>
+        <v>40.90459770114952</v>
       </c>
       <c r="AB35">
-        <v>0.2343039698453461</v>
+        <v>0.2343989323898424</v>
       </c>
       <c r="AC35">
         <v>40.7</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.006303443821839078</v>
+        <v>0.006303455747126435</v>
       </c>
       <c r="AZ35">
-        <v>0.01360664229308683</v>
+        <v>0.01360664509401457</v>
       </c>
       <c r="BA35">
         <v>-0.0407</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.2567954640804598</v>
+        <v>0.256803617816092</v>
       </c>
       <c r="BH35">
-        <v>0.3393211864947091</v>
+        <v>0.3393360340976436</v>
       </c>
       <c r="BI35">
         <v>-0.136</v>
@@ -7167,16 +7167,16 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.006458886695402299</v>
+        <v>0.006458865689655172</v>
       </c>
       <c r="AZ36">
-        <v>0.01368595628655089</v>
+        <v>0.01368597256484671</v>
       </c>
       <c r="BA36">
         <v>-0.0394</v>
       </c>
       <c r="BB36">
-        <v>-6.9525E-05</v>
+        <v>-6.955000000000001E-05</v>
       </c>
       <c r="BC36">
         <v>0.002035</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.2604184001436779</v>
+        <v>0.2604198083333331</v>
       </c>
       <c r="BH36">
-        <v>0.3409082490508203</v>
+        <v>0.3409097355477742</v>
       </c>
       <c r="BI36">
         <v>-0.131</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.006610555459770116</v>
+        <v>0.006610680316091956</v>
       </c>
       <c r="AZ37">
-        <v>0.01377214166359601</v>
+        <v>0.01377225554083334</v>
       </c>
       <c r="BA37">
         <v>-0.0381</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.263946719827586</v>
+        <v>0.2639578218390802</v>
       </c>
       <c r="BH37">
-        <v>0.342429210874647</v>
+        <v>0.3424478440147209</v>
       </c>
       <c r="BI37">
         <v>-0.127</v>
@@ -7513,10 +7513,10 @@
         <v>696</v>
       </c>
       <c r="AI38">
-        <v>153.717816091954</v>
+        <v>153.7176724137931</v>
       </c>
       <c r="AJ38">
-        <v>74.57791482719189</v>
+        <v>74.57802087765394</v>
       </c>
       <c r="AK38">
         <v>60.1</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.00676311005747127</v>
+        <v>0.006763415373563225</v>
       </c>
       <c r="AZ38">
-        <v>0.01386747488217501</v>
+        <v>0.01386803943131359</v>
       </c>
       <c r="BA38">
         <v>-0.0368</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.2674768577586205</v>
+        <v>0.2674839339080458</v>
       </c>
       <c r="BH38">
-        <v>0.3440714615662579</v>
+        <v>0.3440822054736609</v>
       </c>
       <c r="BI38">
         <v>-0.123</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.006913137887931031</v>
+        <v>0.006913259770114938</v>
       </c>
       <c r="AZ39">
-        <v>0.01396860234245418</v>
+        <v>0.01396861800641354</v>
       </c>
       <c r="BA39">
         <v>-0.0357</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.2710765229885056</v>
+        <v>0.271082002873563</v>
       </c>
       <c r="BH39">
-        <v>0.3459073539013774</v>
+        <v>0.3459169323217656</v>
       </c>
       <c r="BI39">
         <v>-0.12</v>
@@ -7835,10 +7835,10 @@
         <v>696</v>
       </c>
       <c r="K40">
-        <v>40.88879310344842</v>
+        <v>40.8886494252875</v>
       </c>
       <c r="L40">
-        <v>0.233128816112484</v>
+        <v>0.2332144178440002</v>
       </c>
       <c r="M40">
         <v>40.7</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.007062043965517233</v>
+        <v>0.007062124856321834</v>
       </c>
       <c r="AZ40">
-        <v>0.01407795369273065</v>
+        <v>0.01407795366461411</v>
       </c>
       <c r="BA40">
         <v>-0.0345</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.2746528850574713</v>
+        <v>0.2746612040229884</v>
       </c>
       <c r="BH40">
-        <v>0.347744016955441</v>
+        <v>0.3477582317214094</v>
       </c>
       <c r="BI40">
         <v>-0.116</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>6.775100574712646</v>
+        <v>6.77505747126437</v>
       </c>
       <c r="T41">
-        <v>2.346484955107627</v>
+        <v>2.346493050699292</v>
       </c>
       <c r="U41">
         <v>2.99</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.007206046393678157</v>
+        <v>0.007206250991379303</v>
       </c>
       <c r="AZ41">
-        <v>0.01419105498002524</v>
+        <v>0.01419114230450636</v>
       </c>
       <c r="BA41">
         <v>-0.0335</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.278072870689655</v>
+        <v>0.2780798511494252</v>
       </c>
       <c r="BH41">
-        <v>0.3493978660927625</v>
+        <v>0.3494088486632333</v>
       </c>
       <c r="BI41">
         <v>-0.113</v>
@@ -8253,10 +8253,10 @@
         <v>696</v>
       </c>
       <c r="S42">
-        <v>6.771954022988514</v>
+        <v>6.77192528735633</v>
       </c>
       <c r="T42">
-        <v>2.346502783503778</v>
+        <v>2.346483369130116</v>
       </c>
       <c r="U42">
         <v>2.99</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.00734470761494252</v>
+        <v>0.007344732040229877</v>
       </c>
       <c r="AZ42">
-        <v>0.01430801133927793</v>
+        <v>0.01430801387144193</v>
       </c>
       <c r="BA42">
         <v>-0.0325</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.2812590704022987</v>
+        <v>0.2812659080459769</v>
       </c>
       <c r="BH42">
-        <v>0.3507532859228386</v>
+        <v>0.3507657444670398</v>
       </c>
       <c r="BI42">
         <v>-0.109</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.007482198706896548</v>
+        <v>0.007482523419540225</v>
       </c>
       <c r="AZ43">
-        <v>0.01442823772920315</v>
+        <v>0.01442834499762686</v>
       </c>
       <c r="BA43">
         <v>-0.0315</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.2844677255747124</v>
+        <v>0.2844774497126435</v>
       </c>
       <c r="BH43">
-        <v>0.3523753172774133</v>
+        <v>0.3523915450658945</v>
       </c>
       <c r="BI43">
         <v>-0.106</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.007615318103448265</v>
+        <v>0.007615614367816083</v>
       </c>
       <c r="AZ44">
-        <v>0.01454796710265693</v>
+        <v>0.01454813040110724</v>
       </c>
       <c r="BA44">
         <v>-0.0305</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.2874853979885054</v>
+        <v>0.2874989741379307</v>
       </c>
       <c r="BH44">
-        <v>0.3537498076026521</v>
+        <v>0.3537703436986261</v>
       </c>
       <c r="BI44">
         <v>-0.103</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.007750861637931031</v>
+        <v>0.007751339798850573</v>
       </c>
       <c r="AZ45">
-        <v>0.01468338406013668</v>
+        <v>0.01468431178215843</v>
       </c>
       <c r="BA45">
         <v>-0.0296</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.2905538002873564</v>
+        <v>0.2905621163793104</v>
       </c>
       <c r="BH45">
-        <v>0.3558430090108938</v>
+        <v>0.3558570464359047</v>
       </c>
       <c r="BI45">
         <v>-0.1</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.007889770545977006</v>
+        <v>0.007889968821839071</v>
       </c>
       <c r="AZ46">
-        <v>0.01482556766593404</v>
+        <v>0.0148256649892728</v>
       </c>
       <c r="BA46">
         <v>-0.0287</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.2939776867816092</v>
+        <v>0.2939972959770115</v>
       </c>
       <c r="BH46">
-        <v>0.3589522087467327</v>
+        <v>0.358980696954896</v>
       </c>
       <c r="BI46">
         <v>-0.0977</v>
@@ -9262,10 +9262,10 @@
         <v>696</v>
       </c>
       <c r="AA47">
-        <v>40.87040229885075</v>
+        <v>40.87025862068983</v>
       </c>
       <c r="AB47">
-        <v>0.232627430403214</v>
+        <v>0.2323924782654394</v>
       </c>
       <c r="AC47">
         <v>40.6</v>
@@ -9286,10 +9286,10 @@
         <v>696</v>
       </c>
       <c r="AI47">
-        <v>153.3577586206897</v>
+        <v>153.3563218390805</v>
       </c>
       <c r="AJ47">
-        <v>74.30009826095581</v>
+        <v>74.29738429106929</v>
       </c>
       <c r="AK47">
         <v>59.9</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.008018586925287353</v>
+        <v>0.008018713218390802</v>
       </c>
       <c r="AZ47">
-        <v>0.01495551805181917</v>
+        <v>0.01495595020912449</v>
       </c>
       <c r="BA47">
         <v>-0.0279</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.2969844841954024</v>
+        <v>0.2970172241379312</v>
       </c>
       <c r="BH47">
-        <v>0.3601427543570213</v>
+        <v>0.3601954691917437</v>
       </c>
       <c r="BI47">
         <v>-0.09520000000000001</v>
@@ -9483,10 +9483,10 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>153.3188218390805</v>
+        <v>153.3173850574713</v>
       </c>
       <c r="AJ48">
-        <v>74.27150855717242</v>
+        <v>74.26923837812893</v>
       </c>
       <c r="AK48">
         <v>59.9</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.00813258275862069</v>
+        <v>0.008132950431034484</v>
       </c>
       <c r="AZ48">
-        <v>0.01507413855959664</v>
+        <v>0.01507443495071405</v>
       </c>
       <c r="BA48">
         <v>-0.0271</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.2991496522988504</v>
+        <v>0.2991572054597699</v>
       </c>
       <c r="BH48">
-        <v>0.3592588293817857</v>
+        <v>0.3592701897306801</v>
       </c>
       <c r="BI48">
         <v>-0.0925</v>
@@ -9728,16 +9728,16 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.008251250287356328</v>
+        <v>0.008251504885057477</v>
       </c>
       <c r="AZ49">
-        <v>0.01519995862876043</v>
+        <v>0.01520055747244862</v>
       </c>
       <c r="BA49">
         <v>-0.0263</v>
       </c>
       <c r="BB49">
-        <v>-4.57E-05</v>
+        <v>-4.5725E-05</v>
       </c>
       <c r="BC49">
         <v>0.00266</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.3020295316091957</v>
+        <v>0.3020560804597703</v>
       </c>
       <c r="BH49">
-        <v>0.360991528114947</v>
+        <v>0.3610372672432463</v>
       </c>
       <c r="BI49">
         <v>-0.08989999999999999</v>
@@ -9901,10 +9901,10 @@
         <v>696</v>
       </c>
       <c r="AQ50">
-        <v>40.71056034482752</v>
+        <v>40.7104166666666</v>
       </c>
       <c r="AR50">
-        <v>28.28395619355508</v>
+        <v>28.28400177691953</v>
       </c>
       <c r="AS50">
         <v>1.72</v>
@@ -9925,16 +9925,16 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.008374759195402296</v>
+        <v>0.008374766666666662</v>
       </c>
       <c r="AZ50">
-        <v>0.01533841620544772</v>
+        <v>0.01533846495114883</v>
       </c>
       <c r="BA50">
         <v>-0.0256</v>
       </c>
       <c r="BB50">
-        <v>-4.8025E-05</v>
+        <v>-4.81E-05</v>
       </c>
       <c r="BC50">
         <v>0.00269</v>
@@ -9949,16 +9949,16 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.3051377859195399</v>
+        <v>0.3051542212643676</v>
       </c>
       <c r="BH50">
-        <v>0.363492216535811</v>
+        <v>0.3635166589182783</v>
       </c>
       <c r="BI50">
         <v>-0.0878</v>
       </c>
       <c r="BJ50">
-        <v>-0.0012</v>
+        <v>-0.0012025</v>
       </c>
       <c r="BK50">
         <v>0.05155</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>6.74317528735631</v>
+        <v>6.743160919540218</v>
       </c>
       <c r="T51">
-        <v>2.340660204047751</v>
+        <v>2.34066203694381</v>
       </c>
       <c r="U51">
         <v>2.97</v>
@@ -10050,10 +10050,10 @@
         <v>696</v>
       </c>
       <c r="AA51">
-        <v>40.86178160919555</v>
+        <v>40.86163793103463</v>
       </c>
       <c r="AB51">
-        <v>0.2330387030707924</v>
+        <v>0.232984183730396</v>
       </c>
       <c r="AC51">
         <v>40.6</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>153.2274425287356</v>
+        <v>153.2260057471264</v>
       </c>
       <c r="AJ51">
-        <v>74.24457721493224</v>
+        <v>74.2409284170425</v>
       </c>
       <c r="AK51">
         <v>59.9</v>
@@ -10098,10 +10098,10 @@
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>40.70278735632179</v>
+        <v>40.70249999999994</v>
       </c>
       <c r="AR51">
-        <v>28.27947250005445</v>
+        <v>28.27935397718461</v>
       </c>
       <c r="AS51">
         <v>1.72</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.008493899137931032</v>
+        <v>0.008493994683908048</v>
       </c>
       <c r="AZ51">
-        <v>0.01547463452580921</v>
+        <v>0.0154746352071828</v>
       </c>
       <c r="BA51">
         <v>-0.0249</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.3082040143678167</v>
+        <v>0.3082399827586213</v>
       </c>
       <c r="BH51">
-        <v>0.3660648457004466</v>
+        <v>0.3661208302631421</v>
       </c>
       <c r="BI51">
         <v>-0.08550000000000001</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>40.69678160919536</v>
+        <v>40.69663793103444</v>
       </c>
       <c r="AR52">
-        <v>28.27595406199878</v>
+        <v>28.27600111472521</v>
       </c>
       <c r="AS52">
         <v>1.72</v>
@@ -10319,19 +10319,19 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.008612293247126446</v>
+        <v>0.008612563936781618</v>
       </c>
       <c r="AZ52">
-        <v>0.01561336371910216</v>
+        <v>0.01561376807734905</v>
       </c>
       <c r="BA52">
         <v>-0.0242</v>
       </c>
       <c r="BB52">
-        <v>-4.8625E-05</v>
+        <v>-4.87E-05</v>
       </c>
       <c r="BC52">
-        <v>0.00282</v>
+        <v>0.002815</v>
       </c>
       <c r="BD52">
         <v>0.013025</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.3113002471264368</v>
+        <v>0.3113309712643679</v>
       </c>
       <c r="BH52">
-        <v>0.3687613659794104</v>
+        <v>0.3688077830792282</v>
       </c>
       <c r="BI52">
         <v>-0.0835</v>
@@ -10358,7 +10358,7 @@
         <v>0.0528</v>
       </c>
       <c r="BL52">
-        <v>0.68125</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="BM52">
         <v>1.31</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>6.739195402298837</v>
+        <v>6.739181034482746</v>
       </c>
       <c r="T53">
-        <v>2.338482798254932</v>
+        <v>2.338499559897285</v>
       </c>
       <c r="U53">
         <v>2.97</v>
@@ -10468,10 +10468,10 @@
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>153.174712643678</v>
+        <v>153.1732758620688</v>
       </c>
       <c r="AJ53">
-        <v>74.21006539326527</v>
+        <v>74.20548315883413</v>
       </c>
       <c r="AK53">
         <v>59.9</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.00872300632183909</v>
+        <v>0.008723330028735644</v>
       </c>
       <c r="AZ53">
-        <v>0.01574261269983467</v>
+        <v>0.01574275461565121</v>
       </c>
       <c r="BA53">
         <v>-0.0235</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.3141978879310339</v>
+        <v>0.314233159482758</v>
       </c>
       <c r="BH53">
-        <v>0.3707235367661834</v>
+        <v>0.3707796947443839</v>
       </c>
       <c r="BI53">
         <v>-0.08169999999999999</v>
@@ -10617,10 +10617,10 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>6.736652298850569</v>
+        <v>6.736623563218385</v>
       </c>
       <c r="T54">
-        <v>2.338699478682937</v>
+        <v>2.338682395251918</v>
       </c>
       <c r="U54">
         <v>2.97</v>
@@ -10689,10 +10689,10 @@
         <v>696</v>
       </c>
       <c r="AQ54">
-        <v>40.68056034482758</v>
+        <v>40.68041666666666</v>
       </c>
       <c r="AR54">
-        <v>28.26597093034664</v>
+        <v>28.26586215093203</v>
       </c>
       <c r="AS54">
         <v>1.72</v>
@@ -10713,16 +10713,16 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.008832134195402309</v>
+        <v>0.00883260330459771</v>
       </c>
       <c r="AZ54">
-        <v>0.01587264436298752</v>
+        <v>0.01587312801908096</v>
       </c>
       <c r="BA54">
         <v>-0.0229</v>
       </c>
       <c r="BB54">
-        <v>-4.4525E-05</v>
+        <v>-4.46E-05</v>
       </c>
       <c r="BC54">
         <v>0.002965</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.316814112068966</v>
+        <v>0.3168489913793109</v>
       </c>
       <c r="BH54">
-        <v>0.37230716104911</v>
+        <v>0.3723611927364548</v>
       </c>
       <c r="BI54">
         <v>-0.08</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>6.73390804597701</v>
+        <v>6.733864942528735</v>
       </c>
       <c r="T55">
-        <v>2.338517814452287</v>
+        <v>2.338528745900358</v>
       </c>
       <c r="U55">
         <v>2.97</v>
@@ -10862,10 +10862,10 @@
         <v>696</v>
       </c>
       <c r="AI55">
-        <v>153.1048850574712</v>
+        <v>153.1047413793103</v>
       </c>
       <c r="AJ55">
-        <v>74.10895482149894</v>
+        <v>74.10908772857614</v>
       </c>
       <c r="AK55">
         <v>59.8</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.008938584770114943</v>
+        <v>0.008939253448275864</v>
       </c>
       <c r="AZ55">
-        <v>0.01600306550476625</v>
+        <v>0.01600335329185874</v>
       </c>
       <c r="BA55">
         <v>-0.0223</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.3195952514367818</v>
+        <v>0.3196140086206898</v>
       </c>
       <c r="BH55">
-        <v>0.3745644617038423</v>
+        <v>0.3745904566401347</v>
       </c>
       <c r="BI55">
         <v>-0.0784</v>
@@ -11011,10 +11011,10 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>6.731264367816094</v>
+        <v>6.73123563218391</v>
       </c>
       <c r="T56">
-        <v>2.337859836453242</v>
+        <v>2.337845942501856</v>
       </c>
       <c r="U56">
         <v>2.97</v>
@@ -11107,16 +11107,16 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.00904773649425287</v>
+        <v>0.009048098850574707</v>
       </c>
       <c r="AZ56">
-        <v>0.01613513994336375</v>
+        <v>0.01613524883358471</v>
       </c>
       <c r="BA56">
         <v>-0.0217</v>
       </c>
       <c r="BB56">
-        <v>-4.445E-05</v>
+        <v>-4.4525E-05</v>
       </c>
       <c r="BC56">
         <v>0.003105</v>
@@ -11131,16 +11131,16 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.3224371810344827</v>
+        <v>0.3224539252873563</v>
       </c>
       <c r="BH56">
-        <v>0.3769824426164063</v>
+        <v>0.3770057584187821</v>
       </c>
       <c r="BI56">
         <v>-0.07679999999999999</v>
       </c>
       <c r="BJ56">
-        <v>-0.001085</v>
+        <v>-0.0010875</v>
       </c>
       <c r="BK56">
         <v>0.0551</v>
@@ -11208,10 +11208,10 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>6.728505747126431</v>
+        <v>6.728477011494247</v>
       </c>
       <c r="T57">
-        <v>2.337718203096604</v>
+        <v>2.337705936185106</v>
       </c>
       <c r="U57">
         <v>2.97</v>
@@ -11280,10 +11280,10 @@
         <v>696</v>
       </c>
       <c r="AQ57">
-        <v>40.65561781609197</v>
+        <v>40.65547413793105</v>
       </c>
       <c r="AR57">
-        <v>28.25073383485254</v>
+        <v>28.2504603602532</v>
       </c>
       <c r="AS57">
         <v>1.72</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.009151422126436777</v>
+        <v>0.009152136494252869</v>
       </c>
       <c r="AZ57">
-        <v>0.01626265677018556</v>
+        <v>0.01626318277511583</v>
       </c>
       <c r="BA57">
         <v>-0.0211</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.3252569798850577</v>
+        <v>0.325283096264368</v>
       </c>
       <c r="BH57">
-        <v>0.3790903622358512</v>
+        <v>0.3791239177363464</v>
       </c>
       <c r="BI57">
         <v>-0.0752</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>6.725747126436773</v>
+        <v>6.725704022988497</v>
       </c>
       <c r="T58">
-        <v>2.337604569736329</v>
+        <v>2.337595904246953</v>
       </c>
       <c r="U58">
         <v>2.96</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>153.0040229885058</v>
+        <v>153.0025862068966</v>
       </c>
       <c r="AJ58">
-        <v>74.02972850967865</v>
+        <v>74.02841662579347</v>
       </c>
       <c r="AK58">
         <v>59.8</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.009252980028735635</v>
+        <v>0.009253435775862073</v>
       </c>
       <c r="AZ58">
-        <v>0.01639078742963647</v>
+        <v>0.01639167955586747</v>
       </c>
       <c r="BA58">
         <v>-0.0206</v>
@@ -11525,19 +11525,19 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.3277960991379306</v>
+        <v>0.3278277471264365</v>
       </c>
       <c r="BH58">
-        <v>0.3806409498250111</v>
+        <v>0.3806822805776011</v>
       </c>
       <c r="BI58">
-        <v>-0.0737</v>
+        <v>-0.0738</v>
       </c>
       <c r="BJ58">
         <v>-0.001035</v>
       </c>
       <c r="BK58">
-        <v>0.05615</v>
+        <v>0.0561</v>
       </c>
       <c r="BL58">
         <v>0.7092499999999999</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.009352562500000022</v>
+        <v>0.009353576293103469</v>
       </c>
       <c r="AZ59">
-        <v>0.01652321388131034</v>
+        <v>0.01652428647252056</v>
       </c>
       <c r="BA59">
         <v>-0.02</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.3301815775862069</v>
+        <v>0.3302239109195402</v>
       </c>
       <c r="BH59">
-        <v>0.3821846845971589</v>
+        <v>0.3822497437700719</v>
       </c>
       <c r="BI59">
         <v>-0.0723</v>
@@ -11799,10 +11799,10 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>6.719698275862068</v>
+        <v>6.719669540229885</v>
       </c>
       <c r="T60">
-        <v>2.335479380685803</v>
+        <v>2.335482950069146</v>
       </c>
       <c r="U60">
         <v>2.96</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>40.83979885057478</v>
+        <v>40.83965517241386</v>
       </c>
       <c r="AB60">
-        <v>0.2380604234980832</v>
+        <v>0.2381750678329615</v>
       </c>
       <c r="AC60">
         <v>40.6</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>152.930603448276</v>
+        <v>152.9291666666668</v>
       </c>
       <c r="AJ60">
-        <v>73.97687231575105</v>
+        <v>73.9728738724192</v>
       </c>
       <c r="AK60">
         <v>59.8</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.009449587643678148</v>
+        <v>0.009450748850574699</v>
       </c>
       <c r="AZ60">
-        <v>0.01664895909182139</v>
+        <v>0.01665036147587562</v>
       </c>
       <c r="BA60">
         <v>-0.0195</v>
@@ -11919,16 +11919,16 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.3327696709770115</v>
+        <v>0.3327990718390805</v>
       </c>
       <c r="BH60">
-        <v>0.3842924225440001</v>
+        <v>0.3843323565825209</v>
       </c>
       <c r="BI60">
         <v>-0.0708</v>
       </c>
       <c r="BJ60">
-        <v>-0.00097275</v>
+        <v>-0.0009735</v>
       </c>
       <c r="BK60">
         <v>0.0571</v>
@@ -12068,10 +12068,10 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>40.62024425287363</v>
+        <v>40.62010057471271</v>
       </c>
       <c r="AR61">
-        <v>28.21162538215131</v>
+        <v>28.21151710560676</v>
       </c>
       <c r="AS61">
         <v>1.72</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.009548270545977016</v>
+        <v>0.009549254454022989</v>
       </c>
       <c r="AZ61">
-        <v>0.01678041027459806</v>
+        <v>0.01678066487011774</v>
       </c>
       <c r="BA61">
         <v>-0.019</v>
@@ -12116,16 +12116,16 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.3353094080459771</v>
+        <v>0.3353420977011493</v>
       </c>
       <c r="BH61">
-        <v>0.3863450290707155</v>
+        <v>0.3863899451462958</v>
       </c>
       <c r="BI61">
-        <v>-0.0694</v>
+        <v>-0.06950000000000001</v>
       </c>
       <c r="BJ61">
-        <v>-0.0009710000000000001</v>
+        <v>-0.0009735</v>
       </c>
       <c r="BK61">
         <v>0.0575</v>
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>40.85000000000021</v>
+        <v>40.8498563218393</v>
       </c>
       <c r="L62">
-        <v>0.2243455710545645</v>
+        <v>0.224088836547054</v>
       </c>
       <c r="M62">
         <v>40.7</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>6.714813218390809</v>
+        <v>6.714798850574716</v>
       </c>
       <c r="T62">
-        <v>2.335071232940049</v>
+        <v>2.335063899065315</v>
       </c>
       <c r="U62">
         <v>2.96</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>40.61183908045985</v>
+        <v>40.61169540229893</v>
       </c>
       <c r="AR62">
-        <v>28.20741592488896</v>
+        <v>28.20716578173039</v>
       </c>
       <c r="AS62">
         <v>1.72</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.009644454022988502</v>
+        <v>0.009645110201149427</v>
       </c>
       <c r="AZ62">
-        <v>0.01690383388071741</v>
+        <v>0.01690411989170362</v>
       </c>
       <c r="BA62">
         <v>-0.0185</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.3378452916666669</v>
+        <v>0.3378832887931037</v>
       </c>
       <c r="BH62">
-        <v>0.3883804725956749</v>
+        <v>0.3884365186324557</v>
       </c>
       <c r="BI62">
         <v>-0.06809999999999999</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>40.84885057471287</v>
+        <v>40.84870689655195</v>
       </c>
       <c r="L63">
-        <v>0.2229271599584732</v>
+        <v>0.2229909060535536</v>
       </c>
       <c r="M63">
         <v>40.7</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>6.712212643678163</v>
+        <v>6.712169540229887</v>
       </c>
       <c r="T63">
-        <v>2.333805917635917</v>
+        <v>2.333809133261615</v>
       </c>
       <c r="U63">
         <v>2.96</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>152.8547413793103</v>
+        <v>152.8545977011494</v>
       </c>
       <c r="AJ63">
-        <v>73.92703504037662</v>
+        <v>73.92715143868273</v>
       </c>
       <c r="AK63">
         <v>59.7</v>
@@ -12486,16 +12486,16 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.009741208908045995</v>
+        <v>0.009741995545977029</v>
       </c>
       <c r="AZ63">
-        <v>0.01703671107909572</v>
+        <v>0.01703769760298068</v>
       </c>
       <c r="BA63">
         <v>-0.0181</v>
       </c>
       <c r="BB63">
-        <v>-3.955E-05</v>
+        <v>-3.9575E-05</v>
       </c>
       <c r="BC63">
         <v>0.003525</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.3403541120689659</v>
+        <v>0.3404101781609198</v>
       </c>
       <c r="BH63">
-        <v>0.3904707149708604</v>
+        <v>0.3905463706476058</v>
       </c>
       <c r="BI63">
         <v>-0.0668</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>6.709913793103444</v>
+        <v>6.709885057471259</v>
       </c>
       <c r="T64">
-        <v>2.334072365096531</v>
+        <v>2.334073904991757</v>
       </c>
       <c r="U64">
         <v>2.96</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>152.8512931034483</v>
+        <v>152.8511494252874</v>
       </c>
       <c r="AJ64">
-        <v>73.92994115894003</v>
+        <v>73.93008751789449</v>
       </c>
       <c r="AK64">
         <v>59.7</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>40.5982040229886</v>
+        <v>40.59791666666676</v>
       </c>
       <c r="AR64">
-        <v>28.19830256269529</v>
+        <v>28.19797036114496</v>
       </c>
       <c r="AS64">
         <v>1.72</v>
@@ -12683,16 +12683,16 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.009838055603448281</v>
+        <v>0.00983885086206897</v>
       </c>
       <c r="AZ64">
-        <v>0.01717095531684258</v>
+        <v>0.01717151710574161</v>
       </c>
       <c r="BA64">
         <v>-0.0176</v>
       </c>
       <c r="BB64">
-        <v>-4.035E-05</v>
+        <v>-4.0425E-05</v>
       </c>
       <c r="BC64">
         <v>0.003565</v>
@@ -12707,22 +12707,22 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.343042120689655</v>
+        <v>0.3430848692528733</v>
       </c>
       <c r="BH64">
-        <v>0.3930154396988536</v>
+        <v>0.3930703874056827</v>
       </c>
       <c r="BI64">
         <v>-0.0655</v>
       </c>
       <c r="BJ64">
-        <v>-0.0009705</v>
+        <v>-0.00097125</v>
       </c>
       <c r="BK64">
         <v>0.0594</v>
       </c>
       <c r="BL64">
-        <v>0.736</v>
+        <v>0.73625</v>
       </c>
       <c r="BM64">
         <v>1.42</v>
@@ -12760,10 +12760,10 @@
         <v>696</v>
       </c>
       <c r="K65">
-        <v>40.84640804597724</v>
+        <v>40.84626436781632</v>
       </c>
       <c r="L65">
-        <v>0.2229656879591806</v>
+        <v>0.2229633236165998</v>
       </c>
       <c r="M65">
         <v>40.7</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>6.707341954022978</v>
+        <v>6.7072988505747</v>
       </c>
       <c r="T65">
-        <v>2.333927243481089</v>
+        <v>2.33394898683535</v>
       </c>
       <c r="U65">
         <v>2.95</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>152.8313218390805</v>
+        <v>152.8298850574713</v>
       </c>
       <c r="AJ65">
-        <v>73.92590318295541</v>
+        <v>73.91995357988904</v>
       </c>
       <c r="AK65">
         <v>59.7</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>40.59110632183917</v>
+        <v>40.59096264367825</v>
       </c>
       <c r="AR65">
-        <v>28.19523688148527</v>
+        <v>28.19532843736155</v>
       </c>
       <c r="AS65">
         <v>1.72</v>
@@ -12880,16 +12880,16 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.009931037931034486</v>
+        <v>0.009931835632183909</v>
       </c>
       <c r="AZ65">
-        <v>0.0172873473767984</v>
+        <v>0.01728786209783888</v>
       </c>
       <c r="BA65">
         <v>-0.0172</v>
       </c>
       <c r="BB65">
-        <v>-4.07E-05</v>
+        <v>-4.0725E-05</v>
       </c>
       <c r="BC65">
         <v>0.00361</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.34569966091954</v>
+        <v>0.3457474770114941</v>
       </c>
       <c r="BH65">
-        <v>0.3951425074241392</v>
+        <v>0.3952113830249072</v>
       </c>
       <c r="BI65">
         <v>-0.0643</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>40.84353448275881</v>
+        <v>40.84339080459789</v>
       </c>
       <c r="L66">
-        <v>0.2250208788791158</v>
+        <v>0.2251445505330893</v>
       </c>
       <c r="M66">
         <v>40.6</v>
@@ -12981,10 +12981,10 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>6.704770114942517</v>
+        <v>6.704741379310332</v>
       </c>
       <c r="T66">
-        <v>2.33422523101161</v>
+        <v>2.334219556985449</v>
       </c>
       <c r="U66">
         <v>2.95</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>40.57850574712648</v>
+        <v>40.57821839080464</v>
       </c>
       <c r="AR66">
-        <v>28.17775057899502</v>
+        <v>28.1775701039885</v>
       </c>
       <c r="AS66">
         <v>1.72</v>
@@ -13077,16 +13077,16 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.0100260481321839</v>
+        <v>0.01002697370689654</v>
       </c>
       <c r="AZ66">
-        <v>0.01742883520970484</v>
+        <v>0.01742993010134076</v>
       </c>
       <c r="BA66">
         <v>-0.0168</v>
       </c>
       <c r="BB66">
-        <v>-3.8725E-05</v>
+        <v>-3.875E-05</v>
       </c>
       <c r="BC66">
         <v>0.003655</v>
@@ -13101,19 +13101,19 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.348134701149425</v>
+        <v>0.3481804712643675</v>
       </c>
       <c r="BH66">
-        <v>0.3967665052409493</v>
+        <v>0.3968237203551903</v>
       </c>
       <c r="BI66">
         <v>-0.0631</v>
       </c>
       <c r="BJ66">
-        <v>-0.000943</v>
+        <v>-0.0009432500000000001</v>
       </c>
       <c r="BK66">
-        <v>0.0613</v>
+        <v>0.06125</v>
       </c>
       <c r="BL66">
         <v>0.745</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>40.83275862068975</v>
+        <v>40.83261494252883</v>
       </c>
       <c r="L67">
-        <v>0.2295854990290668</v>
+        <v>0.2296999632131894</v>
       </c>
       <c r="M67">
         <v>40.6</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>6.70311781609194</v>
+        <v>6.703074712643664</v>
       </c>
       <c r="T67">
-        <v>2.334309607651214</v>
+        <v>2.334328064123966</v>
       </c>
       <c r="U67">
         <v>2.95</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>152.7316091954022</v>
+        <v>152.7314655172413</v>
       </c>
       <c r="AJ67">
-        <v>73.81730358644693</v>
+        <v>73.81741621429326</v>
       </c>
       <c r="AK67">
         <v>59.7</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.01011336594827586</v>
+        <v>0.01011422341954023</v>
       </c>
       <c r="AZ67">
-        <v>0.01754706377383808</v>
+        <v>0.01754794076516087</v>
       </c>
       <c r="BA67">
         <v>-0.0164</v>
@@ -13298,16 +13298,16 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.3503168206896553</v>
+        <v>0.3503556879310345</v>
       </c>
       <c r="BH67">
-        <v>0.3982117973410695</v>
+        <v>0.3982595137013591</v>
       </c>
       <c r="BI67">
         <v>-0.0619</v>
       </c>
       <c r="BJ67">
-        <v>-0.00088725</v>
+        <v>-0.00088825</v>
       </c>
       <c r="BK67">
         <v>0.06225</v>
@@ -13351,10 +13351,10 @@
         <v>696</v>
       </c>
       <c r="K68">
-        <v>40.82859195402306</v>
+        <v>40.82844827586214</v>
       </c>
       <c r="L68">
-        <v>0.2319173138279116</v>
+        <v>0.2320280438828498</v>
       </c>
       <c r="M68">
         <v>40.6</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>6.70103448275861</v>
+        <v>6.700991379310334</v>
       </c>
       <c r="T68">
-        <v>2.334381453411642</v>
+        <v>2.334351608695462</v>
       </c>
       <c r="U68">
         <v>2.95</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>40.55971264367817</v>
+        <v>40.55956896551724</v>
       </c>
       <c r="AR68">
-        <v>28.16188063288061</v>
+        <v>28.16185973437893</v>
       </c>
       <c r="AS68">
         <v>1.72</v>
@@ -13471,16 +13471,16 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01020070761494253</v>
+        <v>0.01020180560344828</v>
       </c>
       <c r="AZ68">
-        <v>0.01767395082359932</v>
+        <v>0.01767516189563165</v>
       </c>
       <c r="BA68">
         <v>-0.016</v>
       </c>
       <c r="BB68">
-        <v>-3.5225E-05</v>
+        <v>-3.525E-05</v>
       </c>
       <c r="BC68">
         <v>0.00374</v>
@@ -13495,22 +13495,22 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.3525426280172418</v>
+        <v>0.3526132140804602</v>
       </c>
       <c r="BH68">
-        <v>0.3999144154887747</v>
+        <v>0.400011173298827</v>
       </c>
       <c r="BI68">
         <v>-0.0608</v>
       </c>
       <c r="BJ68">
-        <v>-0.0008625</v>
+        <v>-0.0008635</v>
       </c>
       <c r="BK68">
         <v>0.06320000000000001</v>
       </c>
       <c r="BL68">
-        <v>0.753</v>
+        <v>0.75325</v>
       </c>
       <c r="BM68">
         <v>1.4</v>
@@ -13596,10 +13596,10 @@
         <v>696</v>
       </c>
       <c r="AA69">
-        <v>40.79770114942502</v>
+        <v>40.79755747126411</v>
       </c>
       <c r="AB69">
-        <v>0.253312789950751</v>
+        <v>0.2531125597739535</v>
       </c>
       <c r="AC69">
         <v>40.6</v>
@@ -13644,10 +13644,10 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>40.55418103448276</v>
+        <v>40.55416666666667</v>
       </c>
       <c r="AR69">
-        <v>28.15755590310074</v>
+        <v>28.15757223420901</v>
       </c>
       <c r="AS69">
         <v>1.72</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01028832715517241</v>
+        <v>0.01028961163793103</v>
       </c>
       <c r="AZ69">
-        <v>0.01780721502945376</v>
+        <v>0.01780914271163521</v>
       </c>
       <c r="BA69">
         <v>-0.0156</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.3547142385057472</v>
+        <v>0.3547474879310345</v>
       </c>
       <c r="BH69">
-        <v>0.4014058599430828</v>
+        <v>0.4014496454110635</v>
       </c>
       <c r="BI69">
         <v>-0.0596</v>
@@ -13707,7 +13707,7 @@
         <v>0.06415</v>
       </c>
       <c r="BL69">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="BM69">
         <v>1.4</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>6.696781609195401</v>
+        <v>6.696752873563216</v>
       </c>
       <c r="T70">
-        <v>2.334177898445049</v>
+        <v>2.334187783034289</v>
       </c>
       <c r="U70">
         <v>2.95</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>40.55048850574713</v>
+        <v>40.55033045977012</v>
       </c>
       <c r="AR70">
-        <v>28.15611078833594</v>
+        <v>28.15610917324214</v>
       </c>
       <c r="AS70">
         <v>1.71</v>
@@ -13865,22 +13865,22 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.0103687087643678</v>
+        <v>0.01036960143678159</v>
       </c>
       <c r="AZ70">
-        <v>0.01792138903675437</v>
+        <v>0.01792174790084406</v>
       </c>
       <c r="BA70">
         <v>-0.0152</v>
       </c>
       <c r="BB70">
-        <v>-3.125E-05</v>
+        <v>-3.1325E-05</v>
       </c>
       <c r="BC70">
         <v>0.003825</v>
       </c>
       <c r="BD70">
-        <v>0.01465</v>
+        <v>0.014725</v>
       </c>
       <c r="BE70">
         <v>0.116</v>
@@ -13889,16 +13889,16 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.3566839922413791</v>
+        <v>0.3567465702586204</v>
       </c>
       <c r="BH70">
-        <v>0.4024825029639574</v>
+        <v>0.4025675622776329</v>
       </c>
       <c r="BI70">
         <v>-0.0585</v>
       </c>
       <c r="BJ70">
-        <v>-0.0008065</v>
+        <v>-0.0008074999999999999</v>
       </c>
       <c r="BK70">
         <v>0.06505</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>6.695488505747129</v>
+        <v>6.695445402298851</v>
       </c>
       <c r="T71">
-        <v>2.334400184512164</v>
+        <v>2.334420409920246</v>
       </c>
       <c r="U71">
         <v>2.95</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>40.54461206896556</v>
+        <v>40.54403735632187</v>
       </c>
       <c r="AR71">
-        <v>28.14974929147742</v>
+        <v>28.14905043710768</v>
       </c>
       <c r="AS71">
         <v>1.71</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01044606673850574</v>
+        <v>0.01044755314655172</v>
       </c>
       <c r="AZ71">
-        <v>0.0180330563464205</v>
+        <v>0.01803397215594288</v>
       </c>
       <c r="BA71">
         <v>-0.0148</v>
@@ -14086,16 +14086,16 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.3584870558908042</v>
+        <v>0.3585370998563214</v>
       </c>
       <c r="BH71">
-        <v>0.4032574173905321</v>
+        <v>0.4033249236639974</v>
       </c>
       <c r="BI71">
         <v>-0.0574</v>
       </c>
       <c r="BJ71">
-        <v>-0.0007615</v>
+        <v>-0.00076225</v>
       </c>
       <c r="BK71">
         <v>0.066</v>
@@ -14139,10 +14139,10 @@
         <v>696</v>
       </c>
       <c r="K72">
-        <v>40.80761494252862</v>
+        <v>40.80732758620678</v>
       </c>
       <c r="L72">
-        <v>0.2408905563746737</v>
+        <v>0.2410189082117911</v>
       </c>
       <c r="M72">
         <v>40.6</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>6.693405172413791</v>
+        <v>6.693333333333332</v>
       </c>
       <c r="T72">
-        <v>2.334904748951923</v>
+        <v>2.334944691984866</v>
       </c>
       <c r="U72">
         <v>2.94</v>
@@ -14187,10 +14187,10 @@
         <v>696</v>
       </c>
       <c r="AA72">
-        <v>40.79195402298826</v>
+        <v>40.79181034482733</v>
       </c>
       <c r="AB72">
-        <v>0.2486653367110778</v>
+        <v>0.2487474202621515</v>
       </c>
       <c r="AC72">
         <v>40.6</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>40.5382471264368</v>
+        <v>40.53810344827588</v>
       </c>
       <c r="AR72">
-        <v>28.14587063931962</v>
+        <v>28.1459723097502</v>
       </c>
       <c r="AS72">
         <v>1.71</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01052553807471266</v>
+        <v>0.01052651905172416</v>
       </c>
       <c r="AZ72">
-        <v>0.01816311683946208</v>
+        <v>0.01816395247253838</v>
       </c>
       <c r="BA72">
         <v>-0.0145</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.3602718320402296</v>
+        <v>0.3603309104885055</v>
       </c>
       <c r="BH72">
-        <v>0.4042161435602528</v>
+        <v>0.4042882079721026</v>
       </c>
       <c r="BI72">
         <v>-0.0563</v>
@@ -14336,10 +14336,10 @@
         <v>696</v>
       </c>
       <c r="K73">
-        <v>40.8038793103447</v>
+        <v>40.80373563218378</v>
       </c>
       <c r="L73">
-        <v>0.241814263291135</v>
+        <v>0.2419057648627744</v>
       </c>
       <c r="M73">
         <v>40.6</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>6.691853448275856</v>
+        <v>6.691824712643672</v>
       </c>
       <c r="T73">
-        <v>2.334822874384838</v>
+        <v>2.334832449002197</v>
       </c>
       <c r="U73">
         <v>2.94</v>
@@ -14384,10 +14384,10 @@
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>40.79109195402273</v>
+        <v>40.79094827586182</v>
       </c>
       <c r="AB73">
-        <v>0.248925085130267</v>
+        <v>0.2490065849232758</v>
       </c>
       <c r="AC73">
         <v>40.6</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>40.53192528735634</v>
+        <v>40.53178160919542</v>
       </c>
       <c r="AR73">
-        <v>28.14400181236766</v>
+        <v>28.14404006296726</v>
       </c>
       <c r="AS73">
         <v>1.71</v>
@@ -14456,16 +14456,16 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.01060050205459768</v>
+        <v>0.01060138471264365</v>
       </c>
       <c r="AZ73">
-        <v>0.01827364302732389</v>
+        <v>0.01827464721216071</v>
       </c>
       <c r="BA73">
         <v>-0.0141</v>
       </c>
       <c r="BB73">
-        <v>-2.705E-05</v>
+        <v>-2.715E-05</v>
       </c>
       <c r="BC73">
         <v>0.00394</v>
@@ -14480,22 +14480,22 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.3620234821839081</v>
+        <v>0.3621110165229887</v>
       </c>
       <c r="BH73">
-        <v>0.4051329637255219</v>
+        <v>0.4052565033632536</v>
       </c>
       <c r="BI73">
         <v>-0.0553</v>
       </c>
       <c r="BJ73">
-        <v>-0.00072025</v>
+        <v>-0.0007214999999999999</v>
       </c>
       <c r="BK73">
         <v>0.0687</v>
       </c>
       <c r="BL73">
-        <v>0.773</v>
+        <v>0.77325</v>
       </c>
       <c r="BM73">
         <v>1.34</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>40.80172413793089</v>
+        <v>40.80158045976997</v>
       </c>
       <c r="L74">
-        <v>0.2426411360691429</v>
+        <v>0.2427310484100333</v>
       </c>
       <c r="M74">
         <v>40.6</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>6.689741379310339</v>
+        <v>6.689669540229879</v>
       </c>
       <c r="T74">
-        <v>2.334763726726497</v>
+        <v>2.334794007210669</v>
       </c>
       <c r="U74">
         <v>2.94</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>40.52445402298851</v>
+        <v>40.52431034482759</v>
       </c>
       <c r="AR74">
-        <v>28.13036648958152</v>
+        <v>28.13046200760133</v>
       </c>
       <c r="AS74">
         <v>1.71</v>
@@ -14653,16 +14653,16 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01067238030172414</v>
+        <v>0.0106737448275862</v>
       </c>
       <c r="AZ74">
-        <v>0.01839262198554018</v>
+        <v>0.01839420148667001</v>
       </c>
       <c r="BA74">
         <v>-0.0138</v>
       </c>
       <c r="BB74">
-        <v>-2.4725E-05</v>
+        <v>-2.4825E-05</v>
       </c>
       <c r="BC74">
         <v>0.00398</v>
@@ -14677,16 +14677,16 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.3635186132183914</v>
+        <v>0.3635672103448281</v>
       </c>
       <c r="BH74">
-        <v>0.405599808127439</v>
+        <v>0.4056661806529793</v>
       </c>
       <c r="BI74">
         <v>-0.0542</v>
       </c>
       <c r="BJ74">
-        <v>-0.000668</v>
+        <v>-0.000669</v>
       </c>
       <c r="BK74">
         <v>0.07015</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>6.688376436781604</v>
+        <v>6.688347701149421</v>
       </c>
       <c r="T75">
-        <v>2.334750572962256</v>
+        <v>2.334769657227722</v>
       </c>
       <c r="U75">
         <v>2.94</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>152.5456896551725</v>
+        <v>152.5413793103449</v>
       </c>
       <c r="AJ75">
-        <v>73.64698557980036</v>
+        <v>73.64267030469193</v>
       </c>
       <c r="AK75">
         <v>59.6</v>
@@ -14850,16 +14850,16 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01074325372126436</v>
+        <v>0.01074427788793103</v>
       </c>
       <c r="AZ75">
-        <v>0.01850149720610898</v>
+        <v>0.01850253087256371</v>
       </c>
       <c r="BA75">
         <v>-0.0134</v>
       </c>
       <c r="BB75">
-        <v>-2.285E-05</v>
+        <v>-2.295E-05</v>
       </c>
       <c r="BC75">
         <v>0.00402</v>
@@ -14874,19 +14874,19 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.365017817097701</v>
+        <v>0.365108659913793</v>
       </c>
       <c r="BH75">
-        <v>0.4062446988909004</v>
+        <v>0.4063784549881109</v>
       </c>
       <c r="BI75">
         <v>-0.0532</v>
       </c>
       <c r="BJ75">
-        <v>-0.0006315</v>
+        <v>-0.00063275</v>
       </c>
       <c r="BK75">
-        <v>0.07150000000000001</v>
+        <v>0.07145</v>
       </c>
       <c r="BL75">
         <v>0.78</v>
@@ -14927,10 +14927,10 @@
         <v>696</v>
       </c>
       <c r="K76">
-        <v>40.79727011494235</v>
+        <v>40.79712643678143</v>
       </c>
       <c r="L76">
-        <v>0.2449631104760209</v>
+        <v>0.2450495556212312</v>
       </c>
       <c r="M76">
         <v>40.6</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>6.68737068965517</v>
+        <v>6.687327586206894</v>
       </c>
       <c r="T76">
-        <v>2.334896509456783</v>
+        <v>2.334912821477449</v>
       </c>
       <c r="U76">
         <v>2.94</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>40.5110057471264</v>
+        <v>40.51071839080456</v>
       </c>
       <c r="AR76">
-        <v>28.10485167916529</v>
+        <v>28.10433112479961</v>
       </c>
       <c r="AS76">
         <v>1.71</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01081245110632186</v>
+        <v>0.01081381218390806</v>
       </c>
       <c r="AZ76">
-        <v>0.01861960118491515</v>
+        <v>0.01862024411220592</v>
       </c>
       <c r="BA76">
         <v>-0.0131</v>
@@ -15071,22 +15071,22 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.366543041091954</v>
+        <v>0.3665983995689653</v>
       </c>
       <c r="BH76">
-        <v>0.4069819545524699</v>
+        <v>0.4070574309672341</v>
       </c>
       <c r="BI76">
         <v>-0.0521</v>
       </c>
       <c r="BJ76">
-        <v>-0.00062325</v>
+        <v>-0.00062425</v>
       </c>
       <c r="BK76">
         <v>0.07275</v>
       </c>
       <c r="BL76">
-        <v>0.78225</v>
+        <v>0.783</v>
       </c>
       <c r="BM76">
         <v>1.28</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>6.68612068965517</v>
+        <v>6.686077586206895</v>
       </c>
       <c r="T77">
-        <v>2.335068075005404</v>
+        <v>2.335084917288909</v>
       </c>
       <c r="U77">
         <v>2.94</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>40.50479885057464</v>
+        <v>40.5045114942528</v>
       </c>
       <c r="AR77">
-        <v>28.10083173893456</v>
+        <v>28.10086455655354</v>
       </c>
       <c r="AS77">
         <v>1.71</v>
@@ -15244,16 +15244,16 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01088084501997125</v>
+        <v>0.01088206116752873</v>
       </c>
       <c r="AZ77">
-        <v>0.01872855623392328</v>
+        <v>0.01873010597992737</v>
       </c>
       <c r="BA77">
         <v>-0.0128</v>
       </c>
       <c r="BB77">
-        <v>-2.2275E-05</v>
+        <v>-2.2375E-05</v>
       </c>
       <c r="BC77">
         <v>0.00409</v>
@@ -15268,16 +15268,16 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.3680216528247124</v>
+        <v>0.3680731357327582</v>
       </c>
       <c r="BH77">
-        <v>0.4076864995307972</v>
+        <v>0.4077562069460789</v>
       </c>
       <c r="BI77">
         <v>-0.0511</v>
       </c>
       <c r="BJ77">
-        <v>-0.0006082500000000001</v>
+        <v>-0.0006090000000000001</v>
       </c>
       <c r="BK77">
         <v>0.07400000000000001</v>
@@ -15321,10 +15321,10 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>40.79238505747104</v>
+        <v>40.79224137931013</v>
       </c>
       <c r="L78">
-        <v>0.2446834419596175</v>
+        <v>0.2447083227741309</v>
       </c>
       <c r="M78">
         <v>40.6</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>6.684511494252875</v>
+        <v>6.684482758620692</v>
       </c>
       <c r="T78">
-        <v>2.335015484954138</v>
+        <v>2.334986948276834</v>
       </c>
       <c r="U78">
         <v>2.94</v>
@@ -15369,10 +15369,10 @@
         <v>696</v>
       </c>
       <c r="AA78">
-        <v>40.78663793103424</v>
+        <v>40.78649425287331</v>
       </c>
       <c r="AB78">
-        <v>0.249216708906155</v>
+        <v>0.2488911986067427</v>
       </c>
       <c r="AC78">
         <v>40.5</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>152.4972701149425</v>
+        <v>152.4958333333333</v>
       </c>
       <c r="AJ78">
-        <v>73.61297513105227</v>
+        <v>73.61397190962983</v>
       </c>
       <c r="AK78">
         <v>59.6</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>40.5002298850574</v>
+        <v>40.50008620689648</v>
       </c>
       <c r="AR78">
-        <v>28.10084233774785</v>
+        <v>28.10073506795619</v>
       </c>
       <c r="AS78">
         <v>1.71</v>
@@ -15441,16 +15441,16 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01095487655862068</v>
+        <v>0.01095626970876436</v>
       </c>
       <c r="AZ78">
-        <v>0.01884250035411112</v>
+        <v>0.01884394900554714</v>
       </c>
       <c r="BA78">
         <v>-0.0124</v>
       </c>
       <c r="BB78">
-        <v>-2.4E-05</v>
+        <v>-2.4025E-05</v>
       </c>
       <c r="BC78">
         <v>0.004125</v>
@@ -15465,16 +15465,16 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.3696595062658046</v>
+        <v>0.3697360705790231</v>
       </c>
       <c r="BH78">
-        <v>0.4089480113578704</v>
+        <v>0.4090729548219725</v>
       </c>
       <c r="BI78">
         <v>-0.0502</v>
       </c>
       <c r="BJ78">
-        <v>-0.0006342499999999999</v>
+        <v>-0.0006349999999999999</v>
       </c>
       <c r="BK78">
         <v>0.0751</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>6.683031609195408</v>
+        <v>6.682988505747131</v>
       </c>
       <c r="T79">
-        <v>2.334831746685479</v>
+        <v>2.334833004028818</v>
       </c>
       <c r="U79">
         <v>2.94</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>152.4747126436781</v>
+        <v>152.4745689655172</v>
       </c>
       <c r="AJ79">
-        <v>73.62069300656046</v>
+        <v>73.62080953736009</v>
       </c>
       <c r="AK79">
         <v>59.5</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>40.48323275862064</v>
+        <v>40.48262931034478</v>
       </c>
       <c r="AR79">
-        <v>28.07354714912661</v>
+        <v>28.07292187965036</v>
       </c>
       <c r="AS79">
         <v>1.71</v>
@@ -15638,16 +15638,16 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01102594031609195</v>
+        <v>0.01102761649425287</v>
       </c>
       <c r="AZ79">
-        <v>0.01895678927184251</v>
+        <v>0.01895879055230408</v>
       </c>
       <c r="BA79">
         <v>-0.0121</v>
       </c>
       <c r="BB79">
-        <v>-2.51E-05</v>
+        <v>-2.5175E-05</v>
       </c>
       <c r="BC79">
         <v>0.004155000000000001</v>
@@ -15662,22 +15662,22 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.3716736298850575</v>
+        <v>0.3717485681034483</v>
       </c>
       <c r="BH79">
-        <v>0.4107832349664242</v>
+        <v>0.4108860003905647</v>
       </c>
       <c r="BI79">
         <v>-0.0492</v>
       </c>
       <c r="BJ79">
-        <v>-0.000664</v>
+        <v>-0.00066425</v>
       </c>
       <c r="BK79">
         <v>0.07625</v>
       </c>
       <c r="BL79">
-        <v>0.79225</v>
+        <v>0.793</v>
       </c>
       <c r="BM79">
         <v>1.3</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>6.680962643678164</v>
+        <v>6.680919540229888</v>
       </c>
       <c r="T80">
-        <v>2.334971802097003</v>
+        <v>2.334992801583116</v>
       </c>
       <c r="U80">
         <v>2.94</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>152.4663793103448</v>
+        <v>152.4649425287356</v>
       </c>
       <c r="AJ80">
-        <v>73.62659448042811</v>
+        <v>73.62733642123619</v>
       </c>
       <c r="AK80">
         <v>59.5</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>40.4710057471264</v>
+        <v>40.47086206896548</v>
       </c>
       <c r="AR80">
-        <v>28.05130120209937</v>
+        <v>28.05122949850985</v>
       </c>
       <c r="AS80">
         <v>1.71</v>
@@ -15835,22 +15835,22 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.0110954780316092</v>
+        <v>0.01109666959770115</v>
       </c>
       <c r="AZ80">
-        <v>0.01907022653644924</v>
+        <v>0.01907120758269226</v>
       </c>
       <c r="BA80">
         <v>-0.0119</v>
       </c>
       <c r="BB80">
-        <v>-2.3875E-05</v>
+        <v>-2.3975E-05</v>
       </c>
       <c r="BC80">
         <v>0.004195</v>
       </c>
       <c r="BD80">
-        <v>0.015425</v>
+        <v>0.0155</v>
       </c>
       <c r="BE80">
         <v>0.128</v>
@@ -15859,16 +15859,16 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.3731302726724136</v>
+        <v>0.3732351030172412</v>
       </c>
       <c r="BH80">
-        <v>0.4115338248610623</v>
+        <v>0.4116870913836564</v>
       </c>
       <c r="BI80">
         <v>-0.0483</v>
       </c>
       <c r="BJ80">
-        <v>-0.000637</v>
+        <v>-0.000638</v>
       </c>
       <c r="BK80">
         <v>0.0775</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>6.679612068965519</v>
+        <v>6.679554597701151</v>
       </c>
       <c r="T81">
-        <v>2.335214806953894</v>
+        <v>2.3352182471373</v>
       </c>
       <c r="U81">
         <v>2.93</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>152.4474137931034</v>
+        <v>152.444540229885</v>
       </c>
       <c r="AJ81">
-        <v>73.6267209406162</v>
+        <v>73.62701196579509</v>
       </c>
       <c r="AK81">
         <v>59.5</v>
@@ -15999,7 +15999,7 @@
         <v>127</v>
       </c>
       <c r="AN81">
-        <v>164.5</v>
+        <v>163.75</v>
       </c>
       <c r="AO81">
         <v>458</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>40.46841954022987</v>
+        <v>40.46813218390803</v>
       </c>
       <c r="AR81">
-        <v>28.05073160695818</v>
+        <v>28.05069075879971</v>
       </c>
       <c r="AS81">
         <v>1.71</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01116185683232759</v>
+        <v>0.01116359716293104</v>
       </c>
       <c r="AZ81">
-        <v>0.01918873331195232</v>
+        <v>0.01919016022960864</v>
       </c>
       <c r="BA81">
         <v>-0.0116</v>
@@ -16056,22 +16056,22 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.374566417768679</v>
+        <v>0.3746287783045986</v>
       </c>
       <c r="BH81">
-        <v>0.412338878481543</v>
+        <v>0.4124213265848994</v>
       </c>
       <c r="BI81">
         <v>-0.0476</v>
       </c>
       <c r="BJ81">
-        <v>-0.00060875</v>
+        <v>-0.0006100000000000001</v>
       </c>
       <c r="BK81">
         <v>0.07869999999999999</v>
       </c>
       <c r="BL81">
-        <v>0.79825</v>
+        <v>0.799</v>
       </c>
       <c r="BM81">
         <v>1.27</v>
@@ -16109,10 +16109,10 @@
         <v>696</v>
       </c>
       <c r="K82">
-        <v>40.78764367816068</v>
+        <v>40.78749999999976</v>
       </c>
       <c r="L82">
-        <v>0.246744955069122</v>
+        <v>0.2468251645811309</v>
       </c>
       <c r="M82">
         <v>40.6</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>6.678577586206895</v>
+        <v>6.678505747126435</v>
       </c>
       <c r="T82">
-        <v>2.33544637540428</v>
+        <v>2.335460839393591</v>
       </c>
       <c r="U82">
         <v>2.93</v>
@@ -16205,10 +16205,10 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>40.46433908045974</v>
+        <v>40.46419540229881</v>
       </c>
       <c r="AR82">
-        <v>28.04767723736632</v>
+        <v>28.04740695767673</v>
       </c>
       <c r="AS82">
         <v>1.71</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01122574872557472</v>
+        <v>0.01122766803304599</v>
       </c>
       <c r="AZ82">
-        <v>0.01929689981271672</v>
+        <v>0.01929951054564684</v>
       </c>
       <c r="BA82">
         <v>-0.0113</v>
@@ -16253,16 +16253,16 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.3760274765660918</v>
+        <v>0.3761598235919539</v>
       </c>
       <c r="BH82">
-        <v>0.4132741153569207</v>
+        <v>0.4134822784870046</v>
       </c>
       <c r="BI82">
-        <v>-0.0468</v>
+        <v>-0.0469</v>
       </c>
       <c r="BJ82">
-        <v>-0.0005835</v>
+        <v>-0.00058475</v>
       </c>
       <c r="BK82">
         <v>0.0799</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>6.677097701149423</v>
+        <v>6.677011494252869</v>
       </c>
       <c r="T83">
-        <v>2.335741293867879</v>
+        <v>2.335706379961503</v>
       </c>
       <c r="U83">
         <v>2.93</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>152.4127873563218</v>
+        <v>152.4126436781609</v>
       </c>
       <c r="AJ83">
-        <v>73.58937282707865</v>
+        <v>73.58947892363902</v>
       </c>
       <c r="AK83">
         <v>59.5</v>
@@ -16426,16 +16426,16 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.0112869117816092</v>
+        <v>0.01128837566091954</v>
       </c>
       <c r="AZ83">
-        <v>0.01939586722064226</v>
+        <v>0.01939740826795936</v>
       </c>
       <c r="BA83">
         <v>-0.011</v>
       </c>
       <c r="BB83">
-        <v>-2.08E-05</v>
+        <v>-2.09E-05</v>
       </c>
       <c r="BC83">
         <v>0.0043</v>
@@ -16450,16 +16450,16 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.3775646081896554</v>
+        <v>0.3776903808908047</v>
       </c>
       <c r="BH83">
-        <v>0.4144061478022985</v>
+        <v>0.4145967540378407</v>
       </c>
       <c r="BI83">
         <v>-0.0462</v>
       </c>
       <c r="BJ83">
-        <v>-0.000567</v>
+        <v>-0.000568</v>
       </c>
       <c r="BK83">
         <v>0.08105000000000001</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>6.675589080459766</v>
+        <v>6.675517241379308</v>
       </c>
       <c r="T84">
-        <v>2.335539362313673</v>
+        <v>2.335552439938422</v>
       </c>
       <c r="U84">
         <v>2.93</v>
@@ -16551,10 +16551,10 @@
         <v>696</v>
       </c>
       <c r="AA84">
-        <v>40.7803160919538</v>
+        <v>40.78017241379288</v>
       </c>
       <c r="AB84">
-        <v>0.2490278377428747</v>
+        <v>0.2490453118470888</v>
       </c>
       <c r="AC84">
         <v>40.5</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01135225212356322</v>
+        <v>0.01135437083764369</v>
       </c>
       <c r="AZ84">
-        <v>0.01950447984165995</v>
+        <v>0.01950590892869404</v>
       </c>
       <c r="BA84">
         <v>-0.0108</v>
@@ -16638,7 +16638,7 @@
         <v>0.004330000000000001</v>
       </c>
       <c r="BD84">
-        <v>0.0157</v>
+        <v>0.015725</v>
       </c>
       <c r="BE84">
         <v>0.133</v>
@@ -16647,16 +16647,16 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.3791184478017241</v>
+        <v>0.3791663453591952</v>
       </c>
       <c r="BH84">
-        <v>0.4157420721453172</v>
+        <v>0.4157955680792997</v>
       </c>
       <c r="BI84">
         <v>-0.0455</v>
       </c>
       <c r="BJ84">
-        <v>-0.00057375</v>
+        <v>-0.000574</v>
       </c>
       <c r="BK84">
         <v>0.08215</v>
@@ -16724,10 +16724,10 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>6.674094827586199</v>
+        <v>6.674008620689647</v>
       </c>
       <c r="T85">
-        <v>2.335406987698085</v>
+        <v>2.335365303776659</v>
       </c>
       <c r="U85">
         <v>2.93</v>
@@ -16772,10 +16772,10 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>152.3748563218391</v>
+        <v>152.373275862069</v>
       </c>
       <c r="AJ85">
-        <v>73.56222237759269</v>
+        <v>73.55774106376815</v>
       </c>
       <c r="AK85">
         <v>59.5</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>40.45456896551723</v>
+        <v>40.45356321839079</v>
       </c>
       <c r="AR85">
-        <v>28.04024946960243</v>
+        <v>28.03967643578174</v>
       </c>
       <c r="AS85">
         <v>1.71</v>
@@ -16820,16 +16820,16 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01141812672916668</v>
+        <v>0.01142049212068966</v>
       </c>
       <c r="AZ85">
-        <v>0.01961621448208682</v>
+        <v>0.01961838646194473</v>
       </c>
       <c r="BA85">
         <v>-0.0105</v>
       </c>
       <c r="BB85">
-        <v>-2.415E-05</v>
+        <v>-2.425E-05</v>
       </c>
       <c r="BC85">
         <v>0.004354999999999999</v>
@@ -16844,16 +16844,16 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.3808255394339084</v>
+        <v>0.3809144767816094</v>
       </c>
       <c r="BH85">
-        <v>0.4174556522769259</v>
+        <v>0.4175758315469651</v>
       </c>
       <c r="BI85">
         <v>-0.0449</v>
       </c>
       <c r="BJ85">
-        <v>-0.00062</v>
+        <v>-0.0006212500000000001</v>
       </c>
       <c r="BK85">
         <v>0.08310000000000001</v>
@@ -16921,10 +16921,10 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>6.672485632183901</v>
+        <v>6.672370689655165</v>
       </c>
       <c r="T86">
-        <v>2.335179194472418</v>
+        <v>2.335231440893033</v>
       </c>
       <c r="U86">
         <v>2.93</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>40.44882183908045</v>
+        <v>40.44824712643677</v>
       </c>
       <c r="AR86">
-        <v>28.03750645307715</v>
+        <v>28.03704865628101</v>
       </c>
       <c r="AS86">
         <v>1.71</v>
@@ -17017,16 +17017,16 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01148681623563218</v>
+        <v>0.01148828636494252</v>
       </c>
       <c r="AZ86">
-        <v>0.01971915527899366</v>
+        <v>0.01972108704661572</v>
       </c>
       <c r="BA86">
         <v>-0.0103</v>
       </c>
       <c r="BB86">
-        <v>-2.4775E-05</v>
+        <v>-2.485E-05</v>
       </c>
       <c r="BC86">
         <v>0.00439</v>
@@ -17041,16 +17041,16 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.3827058511494249</v>
+        <v>0.3827999821839078</v>
       </c>
       <c r="BH86">
-        <v>0.4192438168392331</v>
+        <v>0.4193650427415723</v>
       </c>
       <c r="BI86">
-        <v>-0.0444</v>
+        <v>-0.0445</v>
       </c>
       <c r="BJ86">
-        <v>-0.000637</v>
+        <v>-0.000638</v>
       </c>
       <c r="BK86">
         <v>0.08415</v>
@@ -17094,10 +17094,10 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>40.7833333333331</v>
+        <v>40.78318965517218</v>
       </c>
       <c r="L87">
-        <v>0.2463157786860915</v>
+        <v>0.2463936108367583</v>
       </c>
       <c r="M87">
         <v>40.6</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>6.670948275862057</v>
+        <v>6.670775862068953</v>
       </c>
       <c r="T87">
-        <v>2.335182205741429</v>
+        <v>2.334966356584296</v>
       </c>
       <c r="U87">
         <v>2.93</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>152.3005747126438</v>
+        <v>152.2975574712645</v>
       </c>
       <c r="AJ87">
-        <v>73.5020220910132</v>
+        <v>73.50312953595525</v>
       </c>
       <c r="AK87">
         <v>59.5</v>
@@ -17190,10 +17190,10 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>40.44465517241378</v>
+        <v>40.44420977011494</v>
       </c>
       <c r="AR87">
-        <v>28.03410660460454</v>
+        <v>28.03381389302976</v>
       </c>
       <c r="AS87">
         <v>1.71</v>
@@ -17214,16 +17214,16 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01155145627873565</v>
+        <v>0.01155441258620691</v>
       </c>
       <c r="AZ87">
-        <v>0.0198291950116881</v>
+        <v>0.01983166269201368</v>
       </c>
       <c r="BA87">
         <v>-0.01</v>
       </c>
       <c r="BB87">
-        <v>-2.43E-05</v>
+        <v>-2.4325E-05</v>
       </c>
       <c r="BC87">
         <v>0.00442</v>
@@ -17238,16 +17238,16 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.3843903041666667</v>
+        <v>0.3844753672413791</v>
       </c>
       <c r="BH87">
-        <v>0.4206467288255509</v>
+        <v>0.4207701239828348</v>
       </c>
       <c r="BI87">
         <v>-0.0439</v>
       </c>
       <c r="BJ87">
-        <v>-0.000626</v>
+        <v>-0.00062675</v>
       </c>
       <c r="BK87">
         <v>0.0852</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>40.80272988505725</v>
+        <v>40.80244252873546</v>
       </c>
       <c r="L88">
-        <v>0.250021044347049</v>
+        <v>0.2467219554701323</v>
       </c>
       <c r="M88">
         <v>40.6</v>
@@ -17315,22 +17315,22 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>6.69066091954023</v>
+        <v>6.685445402298846</v>
       </c>
       <c r="T88">
-        <v>2.334072272982672</v>
+        <v>2.332368130526436</v>
       </c>
       <c r="U88">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="V88">
-        <v>4.02</v>
+        <v>4.0275</v>
       </c>
       <c r="W88">
-        <v>6.49</v>
+        <v>6.465</v>
       </c>
       <c r="X88">
-        <v>8.52</v>
+        <v>8.512499999999999</v>
       </c>
       <c r="Y88">
         <v>11.2</v>
@@ -17363,13 +17363,13 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>152.3579022988507</v>
+        <v>152.3456896551724</v>
       </c>
       <c r="AJ88">
-        <v>73.53510820623495</v>
+        <v>73.53001566990027</v>
       </c>
       <c r="AK88">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="AL88">
         <v>108</v>
@@ -17387,10 +17387,10 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>40.46360632183909</v>
+        <v>40.45768678160919</v>
       </c>
       <c r="AR88">
-        <v>28.05167206055633</v>
+        <v>28.04511976617098</v>
       </c>
       <c r="AS88">
         <v>1.71</v>
@@ -17402,7 +17402,7 @@
         <v>37.1</v>
       </c>
       <c r="AV88">
-        <v>51.15000000000001</v>
+        <v>51.075</v>
       </c>
       <c r="AW88">
         <v>152</v>
@@ -17411,16 +17411,16 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01162122183908046</v>
+        <v>0.01162176228448276</v>
       </c>
       <c r="AZ88">
-        <v>0.01994016421247159</v>
+        <v>0.01994007022276632</v>
       </c>
       <c r="BA88">
-        <v>-0.00979</v>
+        <v>-0.0098</v>
       </c>
       <c r="BB88">
-        <v>-2.5225E-05</v>
+        <v>-2.5025E-05</v>
       </c>
       <c r="BC88">
         <v>0.004450000000000001</v>
@@ -17435,19 +17435,19 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.3863617856178156</v>
+        <v>0.3863552140229884</v>
       </c>
       <c r="BH88">
-        <v>0.4225450585478749</v>
+        <v>0.4225354779459078</v>
       </c>
       <c r="BI88">
         <v>-0.0433</v>
       </c>
       <c r="BJ88">
-        <v>-0.000639</v>
+        <v>-0.0006355</v>
       </c>
       <c r="BK88">
-        <v>0.0862</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="BL88">
         <v>0.8172499999999999</v>
@@ -17488,10 +17488,10 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>40.80919540229879</v>
+        <v>40.7794540229883</v>
       </c>
       <c r="L89">
-        <v>0.2426506783239239</v>
+        <v>0.2425173509441569</v>
       </c>
       <c r="M89">
         <v>40.6</v>
@@ -17503,7 +17503,7 @@
         <v>40.7</v>
       </c>
       <c r="P89">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="Q89">
         <v>41.4</v>
@@ -17512,22 +17512,22 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>6.68738505747126</v>
+        <v>6.658520114942532</v>
       </c>
       <c r="T89">
-        <v>2.33128199541902</v>
+        <v>2.331232414277688</v>
       </c>
       <c r="U89">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="V89">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="W89">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
       <c r="X89">
-        <v>8.522499999999999</v>
+        <v>8.5</v>
       </c>
       <c r="Y89">
         <v>11.1</v>
@@ -17560,10 +17560,10 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>152.3456896551724</v>
+        <v>152.2376436781609</v>
       </c>
       <c r="AJ89">
-        <v>73.51446455888667</v>
+        <v>73.46893998191111</v>
       </c>
       <c r="AK89">
         <v>59.4</v>
@@ -17584,10 +17584,10 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>40.45505747126435</v>
+        <v>40.42784482758622</v>
       </c>
       <c r="AR89">
-        <v>28.04740945725433</v>
+        <v>28.02410660028669</v>
       </c>
       <c r="AS89">
         <v>1.71</v>
@@ -17602,22 +17602,22 @@
         <v>51.075</v>
       </c>
       <c r="AW89">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AX89">
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01168746394109195</v>
+        <v>0.01168271097155171</v>
       </c>
       <c r="AZ89">
-        <v>0.02004978572499963</v>
+        <v>0.02004573337450628</v>
       </c>
       <c r="BA89">
-        <v>-0.009560000000000001</v>
+        <v>-0.00958</v>
       </c>
       <c r="BB89">
-        <v>-2.44E-05</v>
+        <v>-2.47E-05</v>
       </c>
       <c r="BC89">
         <v>0.00448</v>
@@ -17626,25 +17626,25 @@
         <v>0.0161</v>
       </c>
       <c r="BE89">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="BF89">
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.3880827648275865</v>
+        <v>0.3879612750502876</v>
       </c>
       <c r="BH89">
-        <v>0.4242267533494045</v>
+        <v>0.4241419395522426</v>
       </c>
       <c r="BI89">
-        <v>-0.0428</v>
+        <v>-0.0429</v>
       </c>
       <c r="BJ89">
-        <v>-0.0006227499999999999</v>
+        <v>-0.00063125</v>
       </c>
       <c r="BK89">
-        <v>0.08724999999999999</v>
+        <v>0.0873</v>
       </c>
       <c r="BL89">
         <v>0.82</v>
@@ -17685,22 +17685,22 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>40.80876436781586</v>
+        <v>40.75445402298828</v>
       </c>
       <c r="L90">
-        <v>0.2441150140426392</v>
+        <v>0.2414768485521336</v>
       </c>
       <c r="M90">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="N90">
         <v>40.6</v>
       </c>
       <c r="O90">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="P90">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="Q90">
         <v>41.4</v>
@@ -17709,22 +17709,22 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>6.686077586206899</v>
+        <v>6.631436781609209</v>
       </c>
       <c r="T90">
-        <v>2.33082533682948</v>
+        <v>2.331512419633265</v>
       </c>
       <c r="U90">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="V90">
-        <v>4.02</v>
+        <v>3.96</v>
       </c>
       <c r="W90">
-        <v>6.47</v>
+        <v>6.4</v>
       </c>
       <c r="X90">
-        <v>8.515000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="Y90">
         <v>11.1</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>152.3212643678161</v>
+        <v>152.1150862068965</v>
       </c>
       <c r="AJ90">
-        <v>73.49537043401857</v>
+        <v>73.41220579119832</v>
       </c>
       <c r="AK90">
         <v>59.4</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>40.45038793103448</v>
+        <v>40.40208333333327</v>
       </c>
       <c r="AR90">
-        <v>28.0446076940399</v>
+        <v>28.01000770996804</v>
       </c>
       <c r="AS90">
         <v>1.71</v>
@@ -17793,31 +17793,31 @@
         <v>19.9</v>
       </c>
       <c r="AU90">
-        <v>37.05</v>
+        <v>37</v>
       </c>
       <c r="AV90">
-        <v>51.075</v>
+        <v>50.975</v>
       </c>
       <c r="AW90">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AX90">
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01175493429885059</v>
+        <v>0.01174257516091955</v>
       </c>
       <c r="AZ90">
-        <v>0.02015920819453321</v>
+        <v>0.02014399716288337</v>
       </c>
       <c r="BA90">
-        <v>-0.009379999999999999</v>
+        <v>-0.00936</v>
       </c>
       <c r="BB90">
-        <v>-2.51E-05</v>
+        <v>-2.545E-05</v>
       </c>
       <c r="BC90">
-        <v>0.00451</v>
+        <v>0.0045</v>
       </c>
       <c r="BD90">
         <v>0.016125</v>
@@ -17829,25 +17829,25 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.3899785602442533</v>
+        <v>0.3895353452586205</v>
       </c>
       <c r="BH90">
-        <v>0.4259961190092987</v>
+        <v>0.425521620680588</v>
       </c>
       <c r="BI90">
-        <v>-0.0425</v>
+        <v>-0.0423</v>
       </c>
       <c r="BJ90">
-        <v>-0.00063775</v>
+        <v>-0.0006410000000000001</v>
       </c>
       <c r="BK90">
-        <v>0.08829999999999999</v>
+        <v>0.0881</v>
       </c>
       <c r="BL90">
-        <v>0.823</v>
+        <v>0.8222499999999999</v>
       </c>
       <c r="BM90">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="91" spans="1:65">
@@ -17882,10 +17882,10 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>40.77643678160897</v>
+        <v>40.76810344827562</v>
       </c>
       <c r="L91">
-        <v>0.243397898521903</v>
+        <v>0.2392791829903992</v>
       </c>
       <c r="M91">
         <v>40.6</v>
@@ -17894,7 +17894,7 @@
         <v>40.6</v>
       </c>
       <c r="O91">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="P91">
         <v>40.8</v>
@@ -17906,22 +17906,22 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>6.657327586206899</v>
+        <v>6.642787356321843</v>
       </c>
       <c r="T91">
-        <v>2.332000971565361</v>
+        <v>2.330619762736645</v>
       </c>
       <c r="U91">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="V91">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="W91">
-        <v>6.42</v>
+        <v>6.405</v>
       </c>
       <c r="X91">
-        <v>8.49</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="Y91">
         <v>11.1</v>
@@ -17954,10 +17954,10 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>152.1866379310345</v>
+        <v>152.1456896551724</v>
       </c>
       <c r="AJ91">
-        <v>73.43642330098453</v>
+        <v>73.42294886643488</v>
       </c>
       <c r="AK91">
         <v>59.4</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>40.41938218390804</v>
+        <v>40.40862068965517</v>
       </c>
       <c r="AR91">
-        <v>28.01703524526283</v>
+        <v>28.01197287378767</v>
       </c>
       <c r="AS91">
         <v>1.71</v>
@@ -18002,16 +18002,16 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.0118119041408046</v>
+        <v>0.01181321287931035</v>
       </c>
       <c r="AZ91">
-        <v>0.02026223421905534</v>
+        <v>0.02024731949163047</v>
       </c>
       <c r="BA91">
         <v>-0.009140000000000001</v>
       </c>
       <c r="BB91">
-        <v>-2.5225E-05</v>
+        <v>-2.565E-05</v>
       </c>
       <c r="BC91">
         <v>0.00453</v>
@@ -18020,25 +18020,25 @@
         <v>0.0162</v>
       </c>
       <c r="BE91">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="BF91">
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.3914716764655169</v>
+        <v>0.3915441729454017</v>
       </c>
       <c r="BH91">
-        <v>0.42733239012097</v>
+        <v>0.4274465573936239</v>
       </c>
       <c r="BI91">
         <v>-0.0418</v>
       </c>
       <c r="BJ91">
-        <v>-0.00063</v>
+        <v>-0.00065425</v>
       </c>
       <c r="BK91">
-        <v>0.0892</v>
+        <v>0.08904999999999999</v>
       </c>
       <c r="BL91">
         <v>0.826</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>40.77327586206872</v>
+        <v>40.76034482758593</v>
       </c>
       <c r="L92">
-        <v>0.2421811291785352</v>
+        <v>0.2347063594525132</v>
       </c>
       <c r="M92">
         <v>40.6</v>
@@ -18091,7 +18091,7 @@
         <v>40.6</v>
       </c>
       <c r="O92">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="P92">
         <v>40.8</v>
@@ -18103,22 +18103,22 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>6.652241379310342</v>
+        <v>6.629109195402293</v>
       </c>
       <c r="T92">
-        <v>2.331035618629898</v>
+        <v>2.328676360900028</v>
       </c>
       <c r="U92">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="V92">
-        <v>3.98</v>
+        <v>3.9675</v>
       </c>
       <c r="W92">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="X92">
-        <v>8.4825</v>
+        <v>8.4625</v>
       </c>
       <c r="Y92">
         <v>11.1</v>
@@ -18127,10 +18127,10 @@
         <v>696</v>
       </c>
       <c r="AA92">
-        <v>40.7729885057469</v>
+        <v>40.77284482758598</v>
       </c>
       <c r="AB92">
-        <v>0.2480780334069485</v>
+        <v>0.2480913246836324</v>
       </c>
       <c r="AC92">
         <v>40.5</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>152.1633620689655</v>
+        <v>152.0810344827586</v>
       </c>
       <c r="AJ92">
-        <v>73.41821031168548</v>
+        <v>73.36864609436148</v>
       </c>
       <c r="AK92">
         <v>59.4</v>
@@ -18169,16 +18169,16 @@
         <v>163.75</v>
       </c>
       <c r="AO92">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP92">
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>40.41438218390802</v>
+        <v>40.39479885057465</v>
       </c>
       <c r="AR92">
-        <v>28.01461575714776</v>
+        <v>28.00549044761186</v>
       </c>
       <c r="AS92">
         <v>1.71</v>
@@ -18199,16 +18199,16 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01188135971264369</v>
+        <v>0.01187660193965518</v>
       </c>
       <c r="AZ92">
-        <v>0.02036349793831916</v>
+        <v>0.02035685459682926</v>
       </c>
       <c r="BA92">
         <v>-0.00895</v>
       </c>
       <c r="BB92">
-        <v>-2.725E-05</v>
+        <v>-2.68E-05</v>
       </c>
       <c r="BC92">
         <v>0.00456</v>
@@ -18223,19 +18223,19 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.3934171281609195</v>
+        <v>0.3933381425287354</v>
       </c>
       <c r="BH92">
-        <v>0.429403609917405</v>
+        <v>0.4293535112829048</v>
       </c>
       <c r="BI92">
-        <v>-0.0414</v>
+        <v>-0.0415</v>
       </c>
       <c r="BJ92">
-        <v>-0.000675</v>
+        <v>-0.0006655000000000001</v>
       </c>
       <c r="BK92">
-        <v>0.09004999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="BL92">
         <v>0.8282499999999999</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>40.80488505747115</v>
+        <v>40.7790229885055</v>
       </c>
       <c r="L93">
-        <v>0.2427758856519672</v>
+        <v>0.2450480370824513</v>
       </c>
       <c r="M93">
         <v>40.6</v>
@@ -18291,7 +18291,7 @@
         <v>40.7</v>
       </c>
       <c r="P93">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="Q93">
         <v>41.4</v>
@@ -18300,22 +18300,22 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>6.67949712643678</v>
+        <v>6.661666666666661</v>
       </c>
       <c r="T93">
-        <v>2.330292143353066</v>
+        <v>2.331433395715406</v>
       </c>
       <c r="U93">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="V93">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="W93">
-        <v>6.45</v>
+        <v>6.42</v>
       </c>
       <c r="X93">
-        <v>8.52</v>
+        <v>8.49</v>
       </c>
       <c r="Y93">
         <v>11.1</v>
@@ -18324,10 +18324,10 @@
         <v>696</v>
       </c>
       <c r="AA93">
-        <v>40.77112068965494</v>
+        <v>40.77097701149402</v>
       </c>
       <c r="AB93">
-        <v>0.2473151540303342</v>
+        <v>0.2470945865909782</v>
       </c>
       <c r="AC93">
         <v>40.5</v>
@@ -18348,10 +18348,10 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>152.2505747126437</v>
+        <v>152.1807471264368</v>
       </c>
       <c r="AJ93">
-        <v>73.45697962606648</v>
+        <v>73.42198523986734</v>
       </c>
       <c r="AK93">
         <v>59.4</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>40.4356609195402</v>
+        <v>40.41686781609192</v>
       </c>
       <c r="AR93">
-        <v>28.02928722419408</v>
+        <v>28.01541513929619</v>
       </c>
       <c r="AS93">
         <v>1.71</v>
@@ -18387,55 +18387,55 @@
         <v>37</v>
       </c>
       <c r="AV93">
-        <v>51.075</v>
+        <v>51</v>
       </c>
       <c r="AW93">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AX93">
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01195636324712645</v>
+        <v>0.01195325093390806</v>
       </c>
       <c r="AZ93">
-        <v>0.02048752969838627</v>
+        <v>0.0204764604995952</v>
       </c>
       <c r="BA93">
         <v>-0.008750000000000001</v>
       </c>
       <c r="BB93">
-        <v>-2.73E-05</v>
+        <v>-2.7525E-05</v>
       </c>
       <c r="BC93">
-        <v>0.004595</v>
+        <v>0.00459</v>
       </c>
       <c r="BD93">
-        <v>0.0164</v>
+        <v>0.016325</v>
       </c>
       <c r="BE93">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="BF93">
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.3956952377873565</v>
+        <v>0.3957230675287357</v>
       </c>
       <c r="BH93">
-        <v>0.4317578055126877</v>
+        <v>0.4318628566228678</v>
       </c>
       <c r="BI93">
         <v>-0.041</v>
       </c>
       <c r="BJ93">
-        <v>-0.000676</v>
+        <v>-0.00067975</v>
       </c>
       <c r="BK93">
         <v>0.091</v>
       </c>
       <c r="BL93">
-        <v>0.8332499999999999</v>
+        <v>0.833</v>
       </c>
       <c r="BM93">
         <v>1.42</v>
@@ -18473,10 +18473,10 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>40.75890804597678</v>
+        <v>40.77255747126416</v>
       </c>
       <c r="L94">
-        <v>0.2400382766687523</v>
+        <v>0.2450835937294118</v>
       </c>
       <c r="M94">
         <v>40.5</v>
@@ -18485,7 +18485,7 @@
         <v>40.6</v>
       </c>
       <c r="O94">
-        <v>40.65000000000001</v>
+        <v>40.7</v>
       </c>
       <c r="P94">
         <v>40.8</v>
@@ -18497,22 +18497,22 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>6.629353448275873</v>
+        <v>6.655100574712653</v>
       </c>
       <c r="T94">
-        <v>2.32869191955259</v>
+        <v>2.330853795142585</v>
       </c>
       <c r="U94">
         <v>2.87</v>
       </c>
       <c r="V94">
-        <v>3.97</v>
+        <v>3.9875</v>
       </c>
       <c r="W94">
-        <v>6.405</v>
+        <v>6.42</v>
       </c>
       <c r="X94">
-        <v>8.460000000000001</v>
+        <v>8.475000000000001</v>
       </c>
       <c r="Y94">
         <v>11.1</v>
@@ -18521,10 +18521,10 @@
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>40.77011494252851</v>
+        <v>40.76997126436759</v>
       </c>
       <c r="AB94">
-        <v>0.2461162818248257</v>
+        <v>0.2458355285282097</v>
       </c>
       <c r="AC94">
         <v>40.5</v>
@@ -18545,10 +18545,10 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>152.05</v>
+        <v>152.1419540229885</v>
       </c>
       <c r="AJ94">
-        <v>73.34967517938217</v>
+        <v>73.39636843330798</v>
       </c>
       <c r="AK94">
         <v>59.3</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>40.38636494252871</v>
+        <v>40.40670977011491</v>
       </c>
       <c r="AR94">
-        <v>27.99950172483945</v>
+        <v>28.00851038100969</v>
       </c>
       <c r="AS94">
         <v>1.71</v>
@@ -18584,7 +18584,7 @@
         <v>37</v>
       </c>
       <c r="AV94">
-        <v>51.05</v>
+        <v>51</v>
       </c>
       <c r="AW94">
         <v>151</v>
@@ -18593,46 +18593,46 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01201163349137931</v>
+        <v>0.01202430528735635</v>
       </c>
       <c r="AZ94">
-        <v>0.02057396142855016</v>
+        <v>0.02059712420516065</v>
       </c>
       <c r="BA94">
-        <v>-0.00856</v>
+        <v>-0.008569999999999999</v>
       </c>
       <c r="BB94">
-        <v>-2.6675E-05</v>
+        <v>-2.7625E-05</v>
       </c>
       <c r="BC94">
-        <v>0.00461</v>
+        <v>0.004625</v>
       </c>
       <c r="BD94">
-        <v>0.0164</v>
+        <v>0.016425</v>
       </c>
       <c r="BE94">
-        <v>0.143</v>
+        <v>0.144</v>
       </c>
       <c r="BF94">
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.3972418045402297</v>
+        <v>0.3976411995689654</v>
       </c>
       <c r="BH94">
-        <v>0.4333839113484505</v>
+        <v>0.433829974740509</v>
       </c>
       <c r="BI94">
         <v>-0.0406</v>
       </c>
       <c r="BJ94">
-        <v>-0.0006544999999999999</v>
+        <v>-0.000656</v>
       </c>
       <c r="BK94">
-        <v>0.09185</v>
+        <v>0.09195</v>
       </c>
       <c r="BL94">
-        <v>0.8352499999999999</v>
+        <v>0.837</v>
       </c>
       <c r="BM94">
         <v>1.45</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>40.7596264367814</v>
+        <v>40.76637931034458</v>
       </c>
       <c r="L95">
-        <v>0.2405494396410052</v>
+        <v>0.2436924464045438</v>
       </c>
       <c r="M95">
         <v>40.5</v>
@@ -18694,22 +18694,22 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>6.634152298850569</v>
+        <v>6.645603448275864</v>
       </c>
       <c r="T95">
-        <v>2.32918286219624</v>
+        <v>2.330148711267414</v>
       </c>
       <c r="U95">
         <v>2.87</v>
       </c>
       <c r="V95">
-        <v>3.9675</v>
+        <v>3.98</v>
       </c>
       <c r="W95">
-        <v>6.4</v>
+        <v>6.415</v>
       </c>
       <c r="X95">
-        <v>8.4625</v>
+        <v>8.4825</v>
       </c>
       <c r="Y95">
         <v>11.1</v>
@@ -18742,10 +18742,10 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>152.0456896551724</v>
+        <v>152.0875</v>
       </c>
       <c r="AJ95">
-        <v>73.34101551610641</v>
+        <v>73.36269768670249</v>
       </c>
       <c r="AK95">
         <v>59.3</v>
@@ -18760,16 +18760,16 @@
         <v>163.75</v>
       </c>
       <c r="AO95">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP95">
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>40.38722701149423</v>
+        <v>40.39650862068962</v>
       </c>
       <c r="AR95">
-        <v>27.99966666677569</v>
+        <v>28.00461229267841</v>
       </c>
       <c r="AS95">
         <v>1.71</v>
@@ -18790,16 +18790,16 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01208167803160922</v>
+        <v>0.01208470762931035</v>
       </c>
       <c r="AZ95">
-        <v>0.0206833306461146</v>
+        <v>0.02068575346808005</v>
       </c>
       <c r="BA95">
         <v>-0.008370000000000001</v>
       </c>
       <c r="BB95">
-        <v>-2.7075E-05</v>
+        <v>-2.69E-05</v>
       </c>
       <c r="BC95">
         <v>0.004645</v>
@@ -18814,19 +18814,19 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.3993451297413796</v>
+        <v>0.3995538319683911</v>
       </c>
       <c r="BH95">
-        <v>0.4357500020039595</v>
+        <v>0.4360006944846766</v>
       </c>
       <c r="BI95">
         <v>-0.0401</v>
       </c>
       <c r="BJ95">
-        <v>-0.00064075</v>
+        <v>-0.0006310000000000001</v>
       </c>
       <c r="BK95">
-        <v>0.09279999999999999</v>
+        <v>0.09275</v>
       </c>
       <c r="BL95">
         <v>0.8392499999999999</v>
@@ -18867,13 +18867,13 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>40.78002873563197</v>
+        <v>40.76839080459766</v>
       </c>
       <c r="L96">
-        <v>0.2462156726255589</v>
+        <v>0.2471844262432278</v>
       </c>
       <c r="M96">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="N96">
         <v>40.6</v>
@@ -18891,22 +18891,22 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>6.663908045977005</v>
+        <v>6.646752873563215</v>
       </c>
       <c r="T96">
-        <v>2.331410654615175</v>
+        <v>2.330825296606563</v>
       </c>
       <c r="U96">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="V96">
         <v>3.99</v>
       </c>
       <c r="W96">
-        <v>6.425</v>
+        <v>6.43</v>
       </c>
       <c r="X96">
-        <v>8.4925</v>
+        <v>8.48</v>
       </c>
       <c r="Y96">
         <v>11.1</v>
@@ -18915,10 +18915,10 @@
         <v>696</v>
       </c>
       <c r="AA96">
-        <v>40.7678160919538</v>
+        <v>40.76738505747105</v>
       </c>
       <c r="AB96">
-        <v>0.2464688182293669</v>
+        <v>0.2467913247912624</v>
       </c>
       <c r="AC96">
         <v>40.5</v>
@@ -18939,13 +18939,13 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>152.130316091954</v>
+        <v>152.0729885057472</v>
       </c>
       <c r="AJ96">
-        <v>73.38207561835669</v>
+        <v>73.35518295561448</v>
       </c>
       <c r="AK96">
-        <v>59.4</v>
+        <v>59.3</v>
       </c>
       <c r="AL96">
         <v>108</v>
@@ -18954,7 +18954,7 @@
         <v>127</v>
       </c>
       <c r="AN96">
-        <v>163.75</v>
+        <v>163.5</v>
       </c>
       <c r="AO96">
         <v>458</v>
@@ -18963,13 +18963,13 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>40.40738505747124</v>
+        <v>40.39234195402297</v>
       </c>
       <c r="AR96">
-        <v>28.00682573125212</v>
+        <v>28.00145190178679</v>
       </c>
       <c r="AS96">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AT96">
         <v>19.9</v>
@@ -18978,7 +18978,7 @@
         <v>37</v>
       </c>
       <c r="AV96">
-        <v>51</v>
+        <v>51.05</v>
       </c>
       <c r="AW96">
         <v>151</v>
@@ -18987,40 +18987,40 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01215781992816092</v>
+        <v>0.0121578248994253</v>
       </c>
       <c r="AZ96">
-        <v>0.02081006285684552</v>
+        <v>0.02081700149678384</v>
       </c>
       <c r="BA96">
-        <v>-0.008200000000000001</v>
+        <v>-0.00821</v>
       </c>
       <c r="BB96">
-        <v>-2.6325E-05</v>
+        <v>-2.695E-05</v>
       </c>
       <c r="BC96">
-        <v>0.004675</v>
+        <v>0.004685</v>
       </c>
       <c r="BD96">
-        <v>0.016525</v>
+        <v>0.0166</v>
       </c>
       <c r="BE96">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="BF96">
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.4015590603448271</v>
+        <v>0.4015441656034485</v>
       </c>
       <c r="BH96">
-        <v>0.4380673220211141</v>
+        <v>0.4380958238356771</v>
       </c>
       <c r="BI96">
         <v>-0.0398</v>
       </c>
       <c r="BJ96">
-        <v>-0.0006315</v>
+        <v>-0.0006194999999999999</v>
       </c>
       <c r="BK96">
         <v>0.09375</v>
@@ -19064,13 +19064,13 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>40.7670977011492</v>
+        <v>40.76321839080436</v>
       </c>
       <c r="L97">
-        <v>0.2398336874481891</v>
+        <v>0.2415131877615176</v>
       </c>
       <c r="M97">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="N97">
         <v>40.6</v>
@@ -19088,22 +19088,22 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>6.640502873563216</v>
+        <v>6.637830459770121</v>
       </c>
       <c r="T97">
-        <v>2.328558489460949</v>
+        <v>2.328913855588979</v>
       </c>
       <c r="U97">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="V97">
-        <v>3.97</v>
+        <v>3.9675</v>
       </c>
       <c r="W97">
         <v>6.4</v>
       </c>
       <c r="X97">
-        <v>8.48</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="Y97">
         <v>11.1</v>
@@ -19112,10 +19112,10 @@
         <v>696</v>
       </c>
       <c r="AA97">
-        <v>40.76594827586186</v>
+        <v>40.76580459770094</v>
       </c>
       <c r="AB97">
-        <v>0.2475868400459299</v>
+        <v>0.2475960664524288</v>
       </c>
       <c r="AC97">
         <v>40.5</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>152.0318965517241</v>
+        <v>152.0262931034482</v>
       </c>
       <c r="AJ97">
-        <v>73.3244500909903</v>
+        <v>73.31567509170746</v>
       </c>
       <c r="AK97">
         <v>59.3</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>40.38495689655171</v>
+        <v>40.38199712643674</v>
       </c>
       <c r="AR97">
-        <v>27.99614871763119</v>
+        <v>27.99551976293912</v>
       </c>
       <c r="AS97">
         <v>1.71</v>
@@ -19175,7 +19175,7 @@
         <v>37</v>
       </c>
       <c r="AV97">
-        <v>51</v>
+        <v>50.975</v>
       </c>
       <c r="AW97">
         <v>151</v>
@@ -19184,46 +19184,46 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01222077886494253</v>
+        <v>0.01222143947844829</v>
       </c>
       <c r="AZ97">
-        <v>0.02091483967086159</v>
+        <v>0.02090541182994868</v>
       </c>
       <c r="BA97">
         <v>-0.008030000000000001</v>
       </c>
       <c r="BB97">
-        <v>-2.535E-05</v>
+        <v>-2.515E-05</v>
       </c>
       <c r="BC97">
-        <v>0.004710000000000001</v>
+        <v>0.004705</v>
       </c>
       <c r="BD97">
         <v>0.016625</v>
       </c>
       <c r="BE97">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="BF97">
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.4032694426005747</v>
+        <v>0.403352723627874</v>
       </c>
       <c r="BH97">
-        <v>0.4395306861733774</v>
+        <v>0.4396287367299962</v>
       </c>
       <c r="BI97">
         <v>-0.0394</v>
       </c>
       <c r="BJ97">
-        <v>-0.0005115</v>
+        <v>-0.00051775</v>
       </c>
       <c r="BK97">
-        <v>0.09455</v>
+        <v>0.0946</v>
       </c>
       <c r="BL97">
-        <v>0.8472499999999999</v>
+        <v>0.847</v>
       </c>
       <c r="BM97">
         <v>1.49</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>40.76206896551706</v>
+        <v>40.77500000000002</v>
       </c>
       <c r="L98">
-        <v>0.2478646088122745</v>
+        <v>0.2469526503417023</v>
       </c>
       <c r="M98">
         <v>40.5</v>
@@ -19273,7 +19273,7 @@
         <v>40.6</v>
       </c>
       <c r="O98">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="P98">
         <v>40.8</v>
@@ -19285,22 +19285,22 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>6.644454022988503</v>
+        <v>6.652198275862067</v>
       </c>
       <c r="T98">
-        <v>2.33042176456554</v>
+        <v>2.32920467997247</v>
       </c>
       <c r="U98">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V98">
-        <v>3.9875</v>
+        <v>3.9975</v>
       </c>
       <c r="W98">
-        <v>6.42</v>
+        <v>6.43</v>
       </c>
       <c r="X98">
-        <v>8.48</v>
+        <v>8.4825</v>
       </c>
       <c r="Y98">
         <v>11.1</v>
@@ -19309,10 +19309,10 @@
         <v>696</v>
       </c>
       <c r="AA98">
-        <v>40.76537356321818</v>
+        <v>40.76508620689635</v>
       </c>
       <c r="AB98">
-        <v>0.2477394281871743</v>
+        <v>0.2479893094341943</v>
       </c>
       <c r="AC98">
         <v>40.5</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>152.0349137931034</v>
+        <v>152.055316091954</v>
       </c>
       <c r="AJ98">
-        <v>73.31453045880768</v>
+        <v>73.32602961555001</v>
       </c>
       <c r="AK98">
         <v>59.3</v>
@@ -19348,7 +19348,7 @@
         <v>127</v>
       </c>
       <c r="AN98">
-        <v>163.5</v>
+        <v>163.75</v>
       </c>
       <c r="AO98">
         <v>458</v>
@@ -19357,22 +19357,22 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>40.38094827586206</v>
+        <v>40.39004310344826</v>
       </c>
       <c r="AR98">
-        <v>27.99146032606748</v>
+        <v>27.99917983636183</v>
       </c>
       <c r="AS98">
         <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>19.825</v>
+        <v>19.9</v>
       </c>
       <c r="AU98">
-        <v>36.95</v>
+        <v>37</v>
       </c>
       <c r="AV98">
-        <v>50.975</v>
+        <v>51.05</v>
       </c>
       <c r="AW98">
         <v>151</v>
@@ -19381,22 +19381,22 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01227894740387931</v>
+        <v>0.01228655572772988</v>
       </c>
       <c r="AZ98">
-        <v>0.02100257068313999</v>
+        <v>0.02102558977092509</v>
       </c>
       <c r="BA98">
-        <v>-0.007860000000000001</v>
+        <v>-0.00787</v>
       </c>
       <c r="BB98">
-        <v>-2.13E-05</v>
+        <v>-2.1025E-05</v>
       </c>
       <c r="BC98">
         <v>0.004739999999999999</v>
       </c>
       <c r="BD98">
-        <v>0.0167</v>
+        <v>0.016725</v>
       </c>
       <c r="BE98">
         <v>0.147</v>
@@ -19405,22 +19405,22 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.4049677080089083</v>
+        <v>0.4052303479640806</v>
       </c>
       <c r="BH98">
-        <v>0.4407912314645752</v>
+        <v>0.4411418754516471</v>
       </c>
       <c r="BI98">
         <v>-0.039</v>
       </c>
       <c r="BJ98">
-        <v>-0.00036225</v>
+        <v>-0.000364</v>
       </c>
       <c r="BK98">
-        <v>0.09555</v>
+        <v>0.0956</v>
       </c>
       <c r="BL98">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="BM98">
         <v>1.47</v>
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>40.75287356321815</v>
+        <v>40.76163793103424</v>
       </c>
       <c r="L99">
-        <v>0.2474452279298809</v>
+        <v>0.2383568836204186</v>
       </c>
       <c r="M99">
         <v>40.5</v>
@@ -19482,19 +19482,19 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>6.633922413793099</v>
+        <v>6.630431034482766</v>
       </c>
       <c r="T99">
-        <v>2.32909887530567</v>
+        <v>2.327259688059882</v>
       </c>
       <c r="U99">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="V99">
-        <v>3.9775</v>
+        <v>3.96</v>
       </c>
       <c r="W99">
-        <v>6.415</v>
+        <v>6.39</v>
       </c>
       <c r="X99">
         <v>8.4625</v>
@@ -19506,10 +19506,10 @@
         <v>696</v>
       </c>
       <c r="AA99">
-        <v>40.76364942528716</v>
+        <v>40.76350574712623</v>
       </c>
       <c r="AB99">
-        <v>0.2491722424688086</v>
+        <v>0.2492378193902447</v>
       </c>
       <c r="AC99">
         <v>40.5</v>
@@ -19530,10 +19530,10 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>151.9890804597701</v>
+        <v>151.9764367816092</v>
       </c>
       <c r="AJ99">
-        <v>73.28466324002306</v>
+        <v>73.29454398377007</v>
       </c>
       <c r="AK99">
         <v>59.3</v>
@@ -19548,19 +19548,19 @@
         <v>163.75</v>
       </c>
       <c r="AO99">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP99">
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>40.37066091954021</v>
+        <v>40.36951149425284</v>
       </c>
       <c r="AR99">
-        <v>27.9900442602732</v>
+        <v>27.98803789272768</v>
       </c>
       <c r="AS99">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>19.9</v>
@@ -19578,19 +19578,19 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01233675840804599</v>
+        <v>0.01234473873994253</v>
       </c>
       <c r="AZ99">
-        <v>0.02110332846858583</v>
+        <v>0.02112269765010887</v>
       </c>
       <c r="BA99">
-        <v>-0.00768</v>
+        <v>-0.00769</v>
       </c>
       <c r="BB99">
-        <v>-1.9425E-05</v>
+        <v>-2.1125E-05</v>
       </c>
       <c r="BC99">
-        <v>0.004775</v>
+        <v>0.00477</v>
       </c>
       <c r="BD99">
         <v>0.0168</v>
@@ -19602,22 +19602,22 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.4064089163477017</v>
+        <v>0.4066814967298855</v>
       </c>
       <c r="BH99">
-        <v>0.4418985283041575</v>
+        <v>0.4422775008899763</v>
       </c>
       <c r="BI99">
-        <v>-0.0384</v>
+        <v>-0.0386</v>
       </c>
       <c r="BJ99">
-        <v>-0.0003415</v>
+        <v>-0.0003585</v>
       </c>
       <c r="BK99">
-        <v>0.09665</v>
+        <v>0.0965</v>
       </c>
       <c r="BL99">
-        <v>0.854</v>
+        <v>0.855</v>
       </c>
       <c r="BM99">
         <v>1.47</v>
@@ -19655,13 +19655,13 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>40.76235632183893</v>
+        <v>40.76479885057446</v>
       </c>
       <c r="L100">
-        <v>0.2476181082399306</v>
+        <v>0.2392661798174413</v>
       </c>
       <c r="M100">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="N100">
         <v>40.6</v>
@@ -19679,22 +19679,22 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>6.642715517241383</v>
+        <v>6.634554597701151</v>
       </c>
       <c r="T100">
-        <v>2.328873370646647</v>
+        <v>2.327568237893526</v>
       </c>
       <c r="U100">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="V100">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="W100">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="X100">
-        <v>8.465</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="Y100">
         <v>11.1</v>
@@ -19727,10 +19727,10 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>152.0031609195402</v>
+        <v>151.9705459770114</v>
       </c>
       <c r="AJ100">
-        <v>73.29989913373542</v>
+        <v>73.28005083675052</v>
       </c>
       <c r="AK100">
         <v>59.3</v>
@@ -19742,22 +19742,22 @@
         <v>127</v>
       </c>
       <c r="AN100">
-        <v>163.5</v>
+        <v>163.75</v>
       </c>
       <c r="AO100">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP100">
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>40.37429597701146</v>
+        <v>40.37002873563217</v>
       </c>
       <c r="AR100">
-        <v>27.98688393353919</v>
+        <v>27.98748884922517</v>
       </c>
       <c r="AS100">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AT100">
         <v>19.9</v>
@@ -19766,7 +19766,7 @@
         <v>37</v>
       </c>
       <c r="AV100">
-        <v>50.975</v>
+        <v>51</v>
       </c>
       <c r="AW100">
         <v>151</v>
@@ -19775,16 +19775,16 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.0124025438836207</v>
+        <v>0.01240783254454023</v>
       </c>
       <c r="AZ100">
-        <v>0.02122498246395275</v>
+        <v>0.02123880851360878</v>
       </c>
       <c r="BA100">
-        <v>-0.00752</v>
+        <v>-0.00754</v>
       </c>
       <c r="BB100">
-        <v>-1.9525E-05</v>
+        <v>-1.985E-05</v>
       </c>
       <c r="BC100">
         <v>0.0048</v>
@@ -19799,22 +19799,22 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.4080616461020112</v>
+        <v>0.4082339396623558</v>
       </c>
       <c r="BH100">
-        <v>0.4433748669026341</v>
+        <v>0.4436198766953759</v>
       </c>
       <c r="BI100">
-        <v>-0.0381</v>
+        <v>-0.0383</v>
       </c>
       <c r="BJ100">
-        <v>-0.0003395</v>
+        <v>-0.00034575</v>
       </c>
       <c r="BK100">
         <v>0.0975</v>
       </c>
       <c r="BL100">
-        <v>0.85725</v>
+        <v>0.85825</v>
       </c>
       <c r="BM100">
         <v>1.48</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>40.78333333333321</v>
+        <v>40.77485632183883</v>
       </c>
       <c r="L101">
-        <v>0.2511746982018409</v>
+        <v>0.2500359272952477</v>
       </c>
       <c r="M101">
         <v>40.5</v>
@@ -19870,28 +19870,28 @@
         <v>40.825</v>
       </c>
       <c r="Q101">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="R101">
         <v>696</v>
       </c>
       <c r="S101">
-        <v>6.665100574712638</v>
+        <v>6.653031609195406</v>
       </c>
       <c r="T101">
-        <v>2.329338620110086</v>
+        <v>2.329003029767993</v>
       </c>
       <c r="U101">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="V101">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="W101">
         <v>6.44</v>
       </c>
       <c r="X101">
-        <v>8.5</v>
+        <v>8.48</v>
       </c>
       <c r="Y101">
         <v>11.1</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>152.0606321839081</v>
+        <v>152.0172413793103</v>
       </c>
       <c r="AJ101">
-        <v>73.30518370986091</v>
+        <v>73.2865293608611</v>
       </c>
       <c r="AK101">
         <v>59.3</v>
@@ -19939,7 +19939,7 @@
         <v>127</v>
       </c>
       <c r="AN101">
-        <v>163.75</v>
+        <v>163.5</v>
       </c>
       <c r="AO101">
         <v>458</v>
@@ -19948,16 +19948,16 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>40.38975574712642</v>
+        <v>40.38142241379308</v>
       </c>
       <c r="AR101">
-        <v>27.99386203686115</v>
+        <v>27.9962597319896</v>
       </c>
       <c r="AS101">
         <v>1.7</v>
       </c>
       <c r="AT101">
-        <v>19.9</v>
+        <v>19.825</v>
       </c>
       <c r="AU101">
         <v>36.95</v>
@@ -19966,22 +19966,22 @@
         <v>51.05</v>
       </c>
       <c r="AW101">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AX101">
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.0124770159902299</v>
+        <v>0.01246660209195402</v>
       </c>
       <c r="AZ101">
-        <v>0.02135911539014529</v>
+        <v>0.02133520568348596</v>
       </c>
       <c r="BA101">
-        <v>-0.00737</v>
+        <v>-0.00735</v>
       </c>
       <c r="BB101">
-        <v>-2.155E-05</v>
+        <v>-1.9625E-05</v>
       </c>
       <c r="BC101">
         <v>0.004835</v>
@@ -19996,22 +19996,22 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.4103011407543105</v>
+        <v>0.4099848864511498</v>
       </c>
       <c r="BH101">
-        <v>0.4458265881659143</v>
+        <v>0.4454469927343584</v>
       </c>
       <c r="BI101">
-        <v>-0.038</v>
+        <v>-0.0377</v>
       </c>
       <c r="BJ101">
-        <v>-0.00035975</v>
+        <v>-0.00033075</v>
       </c>
       <c r="BK101">
-        <v>0.09834999999999999</v>
+        <v>0.09839999999999999</v>
       </c>
       <c r="BL101">
-        <v>0.862</v>
+        <v>0.86125</v>
       </c>
       <c r="BM101">
         <v>1.51</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>40.75416666666646</v>
+        <v>40.76163793103423</v>
       </c>
       <c r="L102">
-        <v>0.2467862986841554</v>
+        <v>0.2481173218622336</v>
       </c>
       <c r="M102">
         <v>40.5</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>6.632729885057462</v>
+        <v>6.642887931034485</v>
       </c>
       <c r="T102">
-        <v>2.328127358508666</v>
+        <v>2.328696209543731</v>
       </c>
       <c r="U102">
         <v>2.85</v>
@@ -20085,10 +20085,10 @@
         <v>3.98</v>
       </c>
       <c r="W102">
-        <v>6.42</v>
+        <v>6.41</v>
       </c>
       <c r="X102">
-        <v>8.4625</v>
+        <v>8.4725</v>
       </c>
       <c r="Y102">
         <v>11.1</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>151.9324712643679</v>
+        <v>151.9630747126435</v>
       </c>
       <c r="AJ102">
-        <v>73.23238920718052</v>
+        <v>73.26862668389555</v>
       </c>
       <c r="AK102">
         <v>59.3</v>
@@ -20139,16 +20139,16 @@
         <v>163.5</v>
       </c>
       <c r="AO102">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP102">
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>40.35511494252872</v>
+        <v>40.36790229885054</v>
       </c>
       <c r="AR102">
-        <v>27.9717342219329</v>
+        <v>27.98321551754253</v>
       </c>
       <c r="AS102">
         <v>1.7</v>
@@ -20169,19 +20169,19 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01251297143103448</v>
+        <v>0.01252511943390804</v>
       </c>
       <c r="AZ102">
-        <v>0.02140758704192857</v>
+        <v>0.02143229275176768</v>
       </c>
       <c r="BA102">
-        <v>-0.0072</v>
+        <v>-0.00719</v>
       </c>
       <c r="BB102">
-        <v>-1.7325E-05</v>
+        <v>-1.98E-05</v>
       </c>
       <c r="BC102">
-        <v>0.004855</v>
+        <v>0.00485</v>
       </c>
       <c r="BD102">
         <v>0.017</v>
@@ -20193,22 +20193,22 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.411251819979885</v>
+        <v>0.4115882899066093</v>
       </c>
       <c r="BH102">
-        <v>0.4467818230951454</v>
+        <v>0.4472013335532163</v>
       </c>
       <c r="BI102">
-        <v>-0.0375</v>
+        <v>-0.0374</v>
       </c>
       <c r="BJ102">
-        <v>-0.000325</v>
+        <v>-0.00033975</v>
       </c>
       <c r="BK102">
-        <v>0.0993</v>
+        <v>0.0992</v>
       </c>
       <c r="BL102">
-        <v>0.863</v>
+        <v>0.86425</v>
       </c>
       <c r="BM102">
         <v>1.53</v>
@@ -20246,10 +20246,10 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>40.76163793103422</v>
+        <v>40.7781609195401</v>
       </c>
       <c r="L103">
-        <v>0.2440831700410642</v>
+        <v>0.2482979353823225</v>
       </c>
       <c r="M103">
         <v>40.5</v>
@@ -20270,22 +20270,22 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>6.633376436781618</v>
+        <v>6.651494252873568</v>
       </c>
       <c r="T103">
-        <v>2.326564072152853</v>
+        <v>2.327509752694452</v>
       </c>
       <c r="U103">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="V103">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="W103">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="X103">
-        <v>8.455</v>
+        <v>8.49</v>
       </c>
       <c r="Y103">
         <v>11.1</v>
@@ -20294,10 +20294,10 @@
         <v>696</v>
       </c>
       <c r="AA103">
-        <v>40.75732758620669</v>
+        <v>40.75718390804577</v>
       </c>
       <c r="AB103">
-        <v>0.2485139409848183</v>
+        <v>0.2483443897359847</v>
       </c>
       <c r="AC103">
         <v>40.5</v>
@@ -20318,13 +20318,13 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>151.916091954023</v>
+        <v>151.9826149425287</v>
       </c>
       <c r="AJ103">
-        <v>73.23141402205228</v>
+        <v>73.26187815535502</v>
       </c>
       <c r="AK103">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="AL103">
         <v>108</v>
@@ -20333,7 +20333,7 @@
         <v>127</v>
       </c>
       <c r="AN103">
-        <v>163.75</v>
+        <v>163.5</v>
       </c>
       <c r="AO103">
         <v>458</v>
@@ -20342,22 +20342,22 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>40.35353448275862</v>
+        <v>40.3700143678161</v>
       </c>
       <c r="AR103">
-        <v>27.96946728658254</v>
+        <v>27.98167602623551</v>
       </c>
       <c r="AS103">
         <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>19.9</v>
+        <v>19.825</v>
       </c>
       <c r="AU103">
         <v>36.95</v>
       </c>
       <c r="AV103">
-        <v>50.975</v>
+        <v>51.05</v>
       </c>
       <c r="AW103">
         <v>151</v>
@@ -20366,19 +20366,19 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01258258902298852</v>
+        <v>0.01260120300574714</v>
       </c>
       <c r="AZ103">
-        <v>0.02153471861236126</v>
+        <v>0.02156655834794644</v>
       </c>
       <c r="BA103">
-        <v>-0.00705</v>
+        <v>-0.00706</v>
       </c>
       <c r="BB103">
-        <v>-2.075E-05</v>
+        <v>-2.33E-05</v>
       </c>
       <c r="BC103">
-        <v>0.004885</v>
+        <v>0.00489</v>
       </c>
       <c r="BD103">
         <v>0.017025</v>
@@ -20390,25 +20390,25 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.4131295322557471</v>
+        <v>0.4139035165804599</v>
       </c>
       <c r="BH103">
-        <v>0.4487984024599491</v>
+        <v>0.449805261676824</v>
       </c>
       <c r="BI103">
-        <v>-0.0371</v>
+        <v>-0.0373</v>
       </c>
       <c r="BJ103">
-        <v>-0.00035275</v>
+        <v>-0.000374</v>
       </c>
       <c r="BK103">
-        <v>0.1002</v>
+        <v>0.1001</v>
       </c>
       <c r="BL103">
-        <v>0.867</v>
+        <v>0.869</v>
       </c>
       <c r="BM103">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="104" spans="1:65">
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>40.76767241379291</v>
+        <v>40.76192528735604</v>
       </c>
       <c r="L104">
-        <v>0.2507618013615286</v>
+        <v>0.2465912066294485</v>
       </c>
       <c r="M104">
         <v>40.5</v>
@@ -20455,7 +20455,7 @@
         <v>40.6</v>
       </c>
       <c r="O104">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="P104">
         <v>40.8</v>
@@ -20467,22 +20467,22 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>6.644382183908053</v>
+        <v>6.639238505747134</v>
       </c>
       <c r="T104">
-        <v>2.327280852092559</v>
+        <v>2.327672347213587</v>
       </c>
       <c r="U104">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="V104">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="W104">
-        <v>6.44</v>
+        <v>6.415</v>
       </c>
       <c r="X104">
-        <v>8.465</v>
+        <v>8.4725</v>
       </c>
       <c r="Y104">
         <v>11.1</v>
@@ -20491,10 +20491,10 @@
         <v>696</v>
       </c>
       <c r="AA104">
-        <v>40.75632183908026</v>
+        <v>40.75603448275842</v>
       </c>
       <c r="AB104">
-        <v>0.2481360264803875</v>
+        <v>0.2482591335084769</v>
       </c>
       <c r="AC104">
         <v>40.5</v>
@@ -20515,13 +20515,13 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>151.9488505747127</v>
+        <v>151.9241379310345</v>
       </c>
       <c r="AJ104">
-        <v>73.24347255597743</v>
+        <v>73.23663228609223</v>
       </c>
       <c r="AK104">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="AL104">
         <v>108</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>40.35830459770115</v>
+        <v>40.35318965517239</v>
       </c>
       <c r="AR104">
-        <v>27.97308282240448</v>
+        <v>27.96514635275284</v>
       </c>
       <c r="AS104">
         <v>1.7</v>
@@ -20563,16 +20563,16 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.0126449576494253</v>
+        <v>0.01264420175287356</v>
       </c>
       <c r="AZ104">
-        <v>0.02164382272861252</v>
+        <v>0.02163211514428761</v>
       </c>
       <c r="BA104">
-        <v>-0.00689</v>
+        <v>-0.00692</v>
       </c>
       <c r="BB104">
-        <v>-2.06E-05</v>
+        <v>-1.8675E-05</v>
       </c>
       <c r="BC104">
         <v>0.004914999999999999</v>
@@ -20587,22 +20587,22 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.4150170587356322</v>
+        <v>0.415185118433908</v>
       </c>
       <c r="BH104">
-        <v>0.4507508556910478</v>
+        <v>0.4509766061759975</v>
       </c>
       <c r="BI104">
-        <v>-0.0368</v>
+        <v>-0.037</v>
       </c>
       <c r="BJ104">
-        <v>-0.000349</v>
+        <v>-0.00033375</v>
       </c>
       <c r="BK104">
-        <v>0.10105</v>
+        <v>0.10125</v>
       </c>
       <c r="BL104">
-        <v>0.871</v>
+        <v>0.87125</v>
       </c>
       <c r="BM104">
         <v>1.55</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>40.7264367816091</v>
+        <v>40.74396551724125</v>
       </c>
       <c r="L105">
-        <v>0.2499311076829227</v>
+        <v>0.2449920132963775</v>
       </c>
       <c r="M105">
         <v>40.5</v>
@@ -20664,34 +20664,34 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>6.607456896551728</v>
+        <v>6.618635057471271</v>
       </c>
       <c r="T105">
-        <v>2.326987677839243</v>
+        <v>2.326441010328649</v>
       </c>
       <c r="U105">
         <v>2.86</v>
       </c>
       <c r="V105">
-        <v>3.94</v>
+        <v>3.9575</v>
       </c>
       <c r="W105">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
       <c r="X105">
-        <v>8.442499999999999</v>
+        <v>8.445</v>
       </c>
       <c r="Y105">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="Z105">
         <v>696</v>
       </c>
       <c r="AA105">
-        <v>40.75344827586187</v>
+        <v>40.75287356321819</v>
       </c>
       <c r="AB105">
-        <v>0.2494648203682018</v>
+        <v>0.2494144303994011</v>
       </c>
       <c r="AC105">
         <v>40.5</v>
@@ -20712,10 +20712,10 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>151.7992816091955</v>
+        <v>151.8370689655173</v>
       </c>
       <c r="AJ105">
-        <v>73.15360610259827</v>
+        <v>73.18432610841914</v>
       </c>
       <c r="AK105">
         <v>59.2</v>
@@ -20736,10 +20736,10 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>40.31798850574715</v>
+        <v>40.32984195402298</v>
       </c>
       <c r="AR105">
-        <v>27.94553858123962</v>
+        <v>27.95189897366508</v>
       </c>
       <c r="AS105">
         <v>1.7</v>
@@ -20760,16 +20760,16 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01269203595199713</v>
+        <v>0.0126962433591954</v>
       </c>
       <c r="AZ105">
-        <v>0.02171764213448458</v>
+        <v>0.02172071039146261</v>
       </c>
       <c r="BA105">
-        <v>-0.00673</v>
+        <v>-0.00674</v>
       </c>
       <c r="BB105">
-        <v>-1.985E-05</v>
+        <v>-1.835E-05</v>
       </c>
       <c r="BC105">
         <v>0.00494</v>
@@ -20784,22 +20784,22 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.4161966599016523</v>
+        <v>0.416343072929598</v>
       </c>
       <c r="BH105">
-        <v>0.4517278939358218</v>
+        <v>0.4518625759645468</v>
       </c>
       <c r="BI105">
-        <v>-0.0365</v>
+        <v>-0.0364</v>
       </c>
       <c r="BJ105">
-        <v>-0.00034225</v>
+        <v>-0.00031275</v>
       </c>
       <c r="BK105">
-        <v>0.10195</v>
+        <v>0.10215</v>
       </c>
       <c r="BL105">
-        <v>0.87325</v>
+        <v>0.874</v>
       </c>
       <c r="BM105">
         <v>1.55</v>
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>40.76738505747111</v>
+        <v>40.78002873563224</v>
       </c>
       <c r="L106">
-        <v>0.2584114192317129</v>
+        <v>0.2535287630732437</v>
       </c>
       <c r="M106">
         <v>40.5</v>
@@ -20852,7 +20852,7 @@
         <v>40.7</v>
       </c>
       <c r="P106">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="Q106">
         <v>41.5</v>
@@ -20861,25 +20861,25 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>6.650876436781616</v>
+        <v>6.658376436781622</v>
       </c>
       <c r="T106">
-        <v>2.328607193360261</v>
+        <v>2.327362191478085</v>
       </c>
       <c r="U106">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="V106">
-        <v>4.0075</v>
+        <v>4.0175</v>
       </c>
       <c r="W106">
-        <v>6.45</v>
+        <v>6.47</v>
       </c>
       <c r="X106">
-        <v>8.49</v>
+        <v>8.484999999999999</v>
       </c>
       <c r="Y106">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="Z106">
         <v>696</v>
@@ -20909,10 +20909,10 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>151.9419540229885</v>
+        <v>151.9712643678161</v>
       </c>
       <c r="AJ106">
-        <v>73.23082669432708</v>
+        <v>73.24242063360259</v>
       </c>
       <c r="AK106">
         <v>59.2</v>
@@ -20924,19 +20924,19 @@
         <v>127</v>
       </c>
       <c r="AN106">
-        <v>163.5</v>
+        <v>164.25</v>
       </c>
       <c r="AO106">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP106">
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>40.35860632183908</v>
+        <v>40.36306034482759</v>
       </c>
       <c r="AR106">
-        <v>27.97465686452578</v>
+        <v>27.97582083407452</v>
       </c>
       <c r="AS106">
         <v>1.7</v>
@@ -20945,7 +20945,7 @@
         <v>19.825</v>
       </c>
       <c r="AU106">
-        <v>36.95</v>
+        <v>37</v>
       </c>
       <c r="AV106">
         <v>51.05</v>
@@ -20957,22 +20957,22 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01276083833333335</v>
+        <v>0.01276840321408046</v>
       </c>
       <c r="AZ106">
-        <v>0.02184071569972789</v>
+        <v>0.02184421607716969</v>
       </c>
       <c r="BA106">
         <v>-0.00661</v>
       </c>
       <c r="BB106">
-        <v>-1.7875E-05</v>
+        <v>-1.91E-05</v>
       </c>
       <c r="BC106">
-        <v>0.00497</v>
+        <v>0.004985</v>
       </c>
       <c r="BD106">
-        <v>0.0172</v>
+        <v>0.0173</v>
       </c>
       <c r="BE106">
         <v>0.155</v>
@@ -20981,25 +20981,25 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.4181669089655171</v>
+        <v>0.4186474131034487</v>
       </c>
       <c r="BH106">
-        <v>0.4536426195196062</v>
+        <v>0.4542739463411008</v>
       </c>
       <c r="BI106">
         <v>-0.0362</v>
       </c>
       <c r="BJ106">
-        <v>-0.00031925</v>
+        <v>-0.0003365</v>
       </c>
       <c r="BK106">
-        <v>0.103</v>
+        <v>0.10305</v>
       </c>
       <c r="BL106">
-        <v>0.878</v>
+        <v>0.87925</v>
       </c>
       <c r="BM106">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="107" spans="1:65">
@@ -21034,10 +21034,10 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>40.72844827586196</v>
+        <v>40.77931034482742</v>
       </c>
       <c r="L107">
-        <v>0.2495945608437388</v>
+        <v>0.2596125196943303</v>
       </c>
       <c r="M107">
         <v>40.5</v>
@@ -21046,46 +21046,46 @@
         <v>40.6</v>
       </c>
       <c r="O107">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="P107">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="Q107">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="R107">
         <v>696</v>
       </c>
       <c r="S107">
-        <v>6.609827586206901</v>
+        <v>6.657945402298853</v>
       </c>
       <c r="T107">
-        <v>2.327114920910184</v>
+        <v>2.328130618206822</v>
       </c>
       <c r="U107">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="V107">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
       <c r="W107">
-        <v>6.38</v>
+        <v>6.48</v>
       </c>
       <c r="X107">
-        <v>8.449999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="Y107">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="Z107">
         <v>696</v>
       </c>
       <c r="AA107">
-        <v>40.74698275862053</v>
+        <v>40.74640804597686</v>
       </c>
       <c r="AB107">
-        <v>0.2522236754076033</v>
+        <v>0.2526721084923882</v>
       </c>
       <c r="AC107">
         <v>40.5</v>
@@ -21106,10 +21106,10 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>151.7849137931034</v>
+        <v>151.9494252873563</v>
       </c>
       <c r="AJ107">
-        <v>73.13977366319472</v>
+        <v>73.22860371840321</v>
       </c>
       <c r="AK107">
         <v>59.2</v>
@@ -21121,19 +21121,19 @@
         <v>127</v>
       </c>
       <c r="AN107">
-        <v>163.5</v>
+        <v>164.25</v>
       </c>
       <c r="AO107">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AP107">
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>40.31372126436784</v>
+        <v>40.35798850574712</v>
       </c>
       <c r="AR107">
-        <v>27.94257024741185</v>
+        <v>27.96964370859018</v>
       </c>
       <c r="AS107">
         <v>1.7</v>
@@ -21142,34 +21142,34 @@
         <v>19.825</v>
       </c>
       <c r="AU107">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="AV107">
-        <v>50.9</v>
+        <v>51.05</v>
       </c>
       <c r="AW107">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AX107">
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01280716324137932</v>
+        <v>0.01282839919683908</v>
       </c>
       <c r="AZ107">
-        <v>0.02191681579601328</v>
+        <v>0.0219576394469111</v>
       </c>
       <c r="BA107">
-        <v>-0.00645</v>
+        <v>-0.00649</v>
       </c>
       <c r="BB107">
-        <v>-1.9725E-05</v>
+        <v>-1.9525E-05</v>
       </c>
       <c r="BC107">
-        <v>0.004994999999999999</v>
+        <v>0.005005</v>
       </c>
       <c r="BD107">
-        <v>0.017225</v>
+        <v>0.0173</v>
       </c>
       <c r="BE107">
         <v>0.156</v>
@@ -21178,22 +21178,22 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.4195313001551724</v>
+        <v>0.420175641163793</v>
       </c>
       <c r="BH107">
-        <v>0.4550856828790017</v>
+        <v>0.4557702789875676</v>
       </c>
       <c r="BI107">
-        <v>-0.0358</v>
+        <v>-0.0361</v>
       </c>
       <c r="BJ107">
-        <v>-0.000328</v>
+        <v>-0.000335</v>
       </c>
       <c r="BK107">
-        <v>0.1032</v>
+        <v>0.1033</v>
       </c>
       <c r="BL107">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="BM107">
         <v>1.58</v>
@@ -21231,10 +21231,10 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>40.7341954022987</v>
+        <v>40.78994252873564</v>
       </c>
       <c r="L108">
-        <v>0.2430210028087467</v>
+        <v>0.2440356080314209</v>
       </c>
       <c r="M108">
         <v>40.5</v>
@@ -21243,49 +21243,49 @@
         <v>40.6</v>
       </c>
       <c r="O108">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="P108">
-        <v>40.8</v>
+        <v>40.825</v>
       </c>
       <c r="Q108">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="R108">
         <v>696</v>
       </c>
       <c r="S108">
-        <v>6.606221264367824</v>
+        <v>6.658117816091944</v>
       </c>
       <c r="T108">
-        <v>2.325750056758291</v>
+        <v>2.325064316999797</v>
       </c>
       <c r="U108">
-        <v>2.84</v>
+        <v>2.89</v>
       </c>
       <c r="V108">
-        <v>3.94</v>
+        <v>4.01</v>
       </c>
       <c r="W108">
-        <v>6.37</v>
+        <v>6.45</v>
       </c>
       <c r="X108">
-        <v>8.43</v>
+        <v>8.477500000000001</v>
       </c>
       <c r="Y108">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="Z108">
         <v>696</v>
       </c>
       <c r="AA108">
-        <v>40.74468390804581</v>
+        <v>40.74425287356306</v>
       </c>
       <c r="AB108">
-        <v>0.2537214539630178</v>
+        <v>0.2540520863556506</v>
       </c>
       <c r="AC108">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="AD108">
         <v>40.6</v>
@@ -21303,13 +21303,13 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>151.7672413793103</v>
+        <v>151.9422413793104</v>
       </c>
       <c r="AJ108">
-        <v>73.11814715454921</v>
+        <v>73.20666614792785</v>
       </c>
       <c r="AK108">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="AL108">
         <v>108</v>
@@ -21318,19 +21318,19 @@
         <v>127</v>
       </c>
       <c r="AN108">
-        <v>163.5</v>
+        <v>163.75</v>
       </c>
       <c r="AO108">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP108">
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>40.30685344827587</v>
+        <v>40.35659482758618</v>
       </c>
       <c r="AR108">
-        <v>27.93605711633747</v>
+        <v>27.96563640118653</v>
       </c>
       <c r="AS108">
         <v>1.7</v>
@@ -21339,10 +21339,10 @@
         <v>19.825</v>
       </c>
       <c r="AU108">
-        <v>36.9</v>
+        <v>36.95</v>
       </c>
       <c r="AV108">
-        <v>50.9</v>
+        <v>50.975</v>
       </c>
       <c r="AW108">
         <v>151</v>
@@ -21351,49 +21351,49 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01286032479505748</v>
+        <v>0.01288411165517241</v>
       </c>
       <c r="AZ108">
-        <v>0.02200586207732605</v>
+        <v>0.02204914847186584</v>
       </c>
       <c r="BA108">
-        <v>-0.00631</v>
+        <v>-0.00633</v>
       </c>
       <c r="BB108">
-        <v>-1.96E-05</v>
+        <v>-1.9625E-05</v>
       </c>
       <c r="BC108">
-        <v>0.005025</v>
+        <v>0.00503</v>
       </c>
       <c r="BD108">
-        <v>0.0173</v>
+        <v>0.0174</v>
       </c>
       <c r="BE108">
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="BF108">
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.4210554513580461</v>
+        <v>0.4218577671839082</v>
       </c>
       <c r="BH108">
-        <v>0.4567204095602345</v>
+        <v>0.4576233958962735</v>
       </c>
       <c r="BI108">
-        <v>-0.0356</v>
+        <v>-0.0357</v>
       </c>
       <c r="BJ108">
-        <v>-0.000339</v>
+        <v>-0.00033675</v>
       </c>
       <c r="BK108">
-        <v>0.1042</v>
+        <v>0.10415</v>
       </c>
       <c r="BL108">
-        <v>0.88325</v>
+        <v>0.88525</v>
       </c>
       <c r="BM108">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="109" spans="1:65">
@@ -21428,10 +21428,10 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>40.7695402298848</v>
+        <v>40.73807471264355</v>
       </c>
       <c r="L109">
-        <v>0.2488946871383601</v>
+        <v>0.2532693283510076</v>
       </c>
       <c r="M109">
         <v>40.5</v>
@@ -21440,34 +21440,34 @@
         <v>40.6</v>
       </c>
       <c r="O109">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="P109">
         <v>40.8</v>
       </c>
       <c r="Q109">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="R109">
         <v>696</v>
       </c>
       <c r="S109">
-        <v>6.6432183908046</v>
+        <v>6.620488505747121</v>
       </c>
       <c r="T109">
-        <v>2.326085479047139</v>
+        <v>2.327327313226325</v>
       </c>
       <c r="U109">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="V109">
-        <v>3.99</v>
+        <v>3.9675</v>
       </c>
       <c r="W109">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="X109">
-        <v>8.4725</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y109">
         <v>11.1</v>
@@ -21476,10 +21476,10 @@
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>40.74195402298835</v>
+        <v>40.74166666666651</v>
       </c>
       <c r="AB109">
-        <v>0.2530815619909204</v>
+        <v>0.2525600339392704</v>
       </c>
       <c r="AC109">
         <v>40.4</v>
@@ -21500,10 +21500,10 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>151.8712643678161</v>
+        <v>151.7834770114942</v>
       </c>
       <c r="AJ109">
-        <v>73.1697730696285</v>
+        <v>73.12139703954854</v>
       </c>
       <c r="AK109">
         <v>59.2</v>
@@ -21518,16 +21518,16 @@
         <v>163.5</v>
       </c>
       <c r="AO109">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP109">
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>40.33906609195401</v>
+        <v>40.31396551724139</v>
       </c>
       <c r="AR109">
-        <v>27.95065128371993</v>
+        <v>27.93695046919462</v>
       </c>
       <c r="AS109">
         <v>1.7</v>
@@ -21548,16 +21548,16 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01293796117097701</v>
+        <v>0.01292728716522988</v>
       </c>
       <c r="AZ109">
-        <v>0.02213420597566184</v>
+        <v>0.02212485071541089</v>
       </c>
       <c r="BA109">
         <v>-0.00619</v>
       </c>
       <c r="BB109">
-        <v>-2.1975E-05</v>
+        <v>-1.89E-05</v>
       </c>
       <c r="BC109">
         <v>0.00505</v>
@@ -21572,25 +21572,25 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.4235239360488505</v>
+        <v>0.4230692207327582</v>
       </c>
       <c r="BH109">
-        <v>0.459528795560146</v>
+        <v>0.4589753476802392</v>
       </c>
       <c r="BI109">
-        <v>-0.0355</v>
+        <v>-0.0354</v>
       </c>
       <c r="BJ109">
-        <v>-0.00035325</v>
+        <v>-0.000324</v>
       </c>
       <c r="BK109">
         <v>0.105</v>
       </c>
       <c r="BL109">
-        <v>0.889</v>
+        <v>0.888</v>
       </c>
       <c r="BM109">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="110" spans="1:65">
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>40.73548850574693</v>
+        <v>40.73232758620667</v>
       </c>
       <c r="L110">
-        <v>0.2509075151577891</v>
+        <v>0.2465959013772037</v>
       </c>
       <c r="M110">
         <v>40.5</v>
@@ -21649,22 +21649,22 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>6.617126436781607</v>
+        <v>6.603649425287372</v>
       </c>
       <c r="T110">
-        <v>2.327247688299587</v>
+        <v>2.325489329015846</v>
       </c>
       <c r="U110">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="V110">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="W110">
-        <v>6.395</v>
+        <v>6.38</v>
       </c>
       <c r="X110">
-        <v>8.445</v>
+        <v>8.434999999999999</v>
       </c>
       <c r="Y110">
         <v>11.1</v>
@@ -21673,10 +21673,10 @@
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>40.7399425287355</v>
+        <v>40.73979885057458</v>
       </c>
       <c r="AB110">
-        <v>0.252611105838639</v>
+        <v>0.2527192312436944</v>
       </c>
       <c r="AC110">
         <v>40.4</v>
@@ -21697,13 +21697,13 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>151.7658045977011</v>
+        <v>151.7123563218391</v>
       </c>
       <c r="AJ110">
-        <v>73.10677050547496</v>
+        <v>73.09655852832169</v>
       </c>
       <c r="AK110">
-        <v>59.2</v>
+        <v>59.1</v>
       </c>
       <c r="AL110">
         <v>108</v>
@@ -21721,10 +21721,10 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>40.30826149425286</v>
+        <v>40.29798850574712</v>
       </c>
       <c r="AR110">
-        <v>27.93211043026211</v>
+        <v>27.93000175371384</v>
       </c>
       <c r="AS110">
         <v>1.7</v>
@@ -21736,7 +21736,7 @@
         <v>36.9</v>
       </c>
       <c r="AV110">
-        <v>50.9</v>
+        <v>50.95</v>
       </c>
       <c r="AW110">
         <v>151</v>
@@ -21745,16 +21745,16 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01296870070402298</v>
+        <v>0.01297445514655172</v>
       </c>
       <c r="AZ110">
-        <v>0.02218449853842478</v>
+        <v>0.02219360528997843</v>
       </c>
       <c r="BA110">
         <v>-0.00605</v>
       </c>
       <c r="BB110">
-        <v>-1.64E-05</v>
+        <v>-1.87E-05</v>
       </c>
       <c r="BC110">
         <v>0.00507</v>
@@ -21769,25 +21769,25 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.4243139594827592</v>
+        <v>0.4245299419540232</v>
       </c>
       <c r="BH110">
-        <v>0.4601317443904011</v>
+        <v>0.4604573587310116</v>
       </c>
       <c r="BI110">
-        <v>-0.035</v>
+        <v>-0.0351</v>
       </c>
       <c r="BJ110">
-        <v>-0.0002905</v>
+        <v>-0.000314</v>
       </c>
       <c r="BK110">
-        <v>0.10595</v>
+        <v>0.10585</v>
       </c>
       <c r="BL110">
-        <v>0.89</v>
+        <v>0.891</v>
       </c>
       <c r="BM110">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="111" spans="1:65">
@@ -21822,10 +21822,10 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>40.75445402298828</v>
+        <v>40.7418103448274</v>
       </c>
       <c r="L111">
-        <v>0.2489291960491237</v>
+        <v>0.2502755861348295</v>
       </c>
       <c r="M111">
         <v>40.5</v>
@@ -21846,22 +21846,22 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>6.633189655172423</v>
+        <v>6.62120689655172</v>
       </c>
       <c r="T111">
-        <v>2.326435046866452</v>
+        <v>2.3259156736995</v>
       </c>
       <c r="U111">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="V111">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="W111">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="X111">
-        <v>8.470000000000001</v>
+        <v>8.452500000000001</v>
       </c>
       <c r="Y111">
         <v>11.1</v>
@@ -21870,10 +21870,10 @@
         <v>696</v>
       </c>
       <c r="AA111">
-        <v>40.73735632183896</v>
+        <v>40.7369252873562</v>
       </c>
       <c r="AB111">
-        <v>0.2544248292037793</v>
+        <v>0.254742132601224</v>
       </c>
       <c r="AC111">
         <v>40.4</v>
@@ -21894,10 +21894,10 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>151.8066091954024</v>
+        <v>151.7591954022988</v>
       </c>
       <c r="AJ111">
-        <v>73.12516666251872</v>
+        <v>73.10061993408384</v>
       </c>
       <c r="AK111">
         <v>59.2</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>40.3209051724138</v>
+        <v>40.31004310344831</v>
       </c>
       <c r="AR111">
-        <v>27.93783125867998</v>
+        <v>27.9373387571664</v>
       </c>
       <c r="AS111">
         <v>1.7</v>
@@ -21930,10 +21930,10 @@
         <v>19.825</v>
       </c>
       <c r="AU111">
-        <v>36.95</v>
+        <v>36.9</v>
       </c>
       <c r="AV111">
-        <v>50.975</v>
+        <v>50.9</v>
       </c>
       <c r="AW111">
         <v>151</v>
@@ -21942,19 +21942,19 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01304082989367817</v>
+        <v>0.01304632313074712</v>
       </c>
       <c r="AZ111">
-        <v>0.02230988845611792</v>
+        <v>0.02233151867282997</v>
       </c>
       <c r="BA111">
-        <v>-0.00592</v>
+        <v>-0.00594</v>
       </c>
       <c r="BB111">
-        <v>-1.945E-05</v>
+        <v>-2.06E-05</v>
       </c>
       <c r="BC111">
-        <v>0.005105</v>
+        <v>0.0051</v>
       </c>
       <c r="BD111">
         <v>0.0175</v>
@@ -21966,22 +21966,22 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.4264230937356321</v>
+        <v>0.4265636753735632</v>
       </c>
       <c r="BH111">
-        <v>0.4622521386946526</v>
+        <v>0.4624671725967008</v>
       </c>
       <c r="BI111">
         <v>-0.0349</v>
       </c>
       <c r="BJ111">
-        <v>-0.000345</v>
+        <v>-0.00033</v>
       </c>
       <c r="BK111">
-        <v>0.107</v>
+        <v>0.1065</v>
       </c>
       <c r="BL111">
-        <v>0.895</v>
+        <v>0.89525</v>
       </c>
       <c r="BM111">
         <v>1.62</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>40.7244252873561</v>
+        <v>40.74482758620676</v>
       </c>
       <c r="L112">
-        <v>0.2501935081737551</v>
+        <v>0.2511595534910998</v>
       </c>
       <c r="M112">
         <v>40.5</v>
@@ -22043,22 +22043,22 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>6.599195402298857</v>
+        <v>6.62081896551724</v>
       </c>
       <c r="T112">
-        <v>2.32547652714659</v>
+        <v>2.32589737712264</v>
       </c>
       <c r="U112">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="V112">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="W112">
-        <v>6.38</v>
+        <v>6.41</v>
       </c>
       <c r="X112">
-        <v>8.422499999999999</v>
+        <v>8.445</v>
       </c>
       <c r="Y112">
         <v>11.1</v>
@@ -22067,16 +22067,16 @@
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>40.73275862068956</v>
+        <v>40.73189655172405</v>
       </c>
       <c r="AB112">
-        <v>0.2577520515329839</v>
+        <v>0.2583620140234438</v>
       </c>
       <c r="AC112">
         <v>40.4</v>
       </c>
       <c r="AD112">
-        <v>40.6</v>
+        <v>40.575</v>
       </c>
       <c r="AE112">
         <v>40.6</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>151.673275862069</v>
+        <v>151.7494252873563</v>
       </c>
       <c r="AJ112">
-        <v>73.05855819190953</v>
+        <v>73.08830413348001</v>
       </c>
       <c r="AK112">
         <v>59.1</v>
@@ -22109,16 +22109,16 @@
         <v>163.5</v>
       </c>
       <c r="AO112">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP112">
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>40.28545977011495</v>
+        <v>40.30535919540232</v>
       </c>
       <c r="AR112">
-        <v>27.92115276250014</v>
+        <v>27.9271904613593</v>
       </c>
       <c r="AS112">
         <v>1.7</v>
@@ -22127,7 +22127,7 @@
         <v>19.825</v>
       </c>
       <c r="AU112">
-        <v>36.9</v>
+        <v>36.95</v>
       </c>
       <c r="AV112">
         <v>50.95</v>
@@ -22139,22 +22139,22 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01308469081752876</v>
+        <v>0.01310183804885059</v>
       </c>
       <c r="AZ112">
-        <v>0.02239108186294859</v>
+        <v>0.02241887194583414</v>
       </c>
       <c r="BA112">
-        <v>-0.00579</v>
+        <v>-0.0058</v>
       </c>
       <c r="BB112">
-        <v>-1.815E-05</v>
+        <v>-1.975E-05</v>
       </c>
       <c r="BC112">
         <v>0.00513</v>
       </c>
       <c r="BD112">
-        <v>0.0175</v>
+        <v>0.017525</v>
       </c>
       <c r="BE112">
         <v>0.16</v>
@@ -22163,25 +22163,25 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.4275735241522993</v>
+        <v>0.4281321439942528</v>
       </c>
       <c r="BH112">
-        <v>0.4632194469687079</v>
+        <v>0.463881679604785</v>
       </c>
       <c r="BI112">
-        <v>-0.0345</v>
+        <v>-0.0346</v>
       </c>
       <c r="BJ112">
-        <v>-0.00032775</v>
+        <v>-0.000324</v>
       </c>
       <c r="BK112">
         <v>0.107</v>
       </c>
       <c r="BL112">
-        <v>0.898</v>
+        <v>0.899</v>
       </c>
       <c r="BM112">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/June2012/ISWRPQAQ_stats.xlsx
+++ b/June2012/ISWRPQAQ_stats.xlsx
@@ -743,10 +743,10 @@
         <v>695</v>
       </c>
       <c r="K4">
-        <v>36.64920863309356</v>
+        <v>36.64906474820148</v>
       </c>
       <c r="L4">
-        <v>3.101123963006173</v>
+        <v>3.101049578777794</v>
       </c>
       <c r="M4">
         <v>29.7</v>
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>2.534322302158276</v>
+        <v>2.534202877697844</v>
       </c>
       <c r="T4">
-        <v>1.071314717765931</v>
+        <v>1.07128364005789</v>
       </c>
       <c r="U4">
         <v>0.196</v>
@@ -791,10 +791,10 @@
         <v>695</v>
       </c>
       <c r="AA4">
-        <v>36.35985611510792</v>
+        <v>36.35956834532374</v>
       </c>
       <c r="AB4">
-        <v>3.434745749751278</v>
+        <v>3.434377373004737</v>
       </c>
       <c r="AC4">
         <v>28.8</v>
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>96.12115107913677</v>
+        <v>96.11812949640297</v>
       </c>
       <c r="AJ4">
-        <v>25.31360021849542</v>
+        <v>25.31352942029839</v>
       </c>
       <c r="AK4">
         <v>19.1</v>
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>1.009426618705037</v>
+        <v>1.009419424460432</v>
       </c>
       <c r="AR4">
-        <v>0.5690335739368715</v>
+        <v>0.5690368319290828</v>
       </c>
       <c r="AS4">
         <v>0.0418</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>0.2982202820143884</v>
+        <v>0.2981213467625899</v>
       </c>
       <c r="AZ4">
-        <v>0.7583156047964782</v>
+        <v>0.7581818612330027</v>
       </c>
       <c r="BA4">
         <v>-1.53</v>
@@ -878,7 +878,7 @@
         <v>0.131</v>
       </c>
       <c r="BD4">
-        <v>0.5615</v>
+        <v>0.5609999999999999</v>
       </c>
       <c r="BE4">
         <v>3.59</v>
@@ -887,22 +887,22 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>0.3133903194244608</v>
+        <v>0.3132149971223024</v>
       </c>
       <c r="BH4">
-        <v>0.8156051119385844</v>
+        <v>0.8153387503426481</v>
       </c>
       <c r="BI4">
         <v>-1.39</v>
       </c>
       <c r="BJ4">
-        <v>-0.02155</v>
+        <v>-0.02165</v>
       </c>
       <c r="BK4">
         <v>0.08019999999999999</v>
       </c>
       <c r="BL4">
-        <v>0.385</v>
+        <v>0.3845</v>
       </c>
       <c r="BM4">
         <v>4.24</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>3.007185344827587</v>
+        <v>3.007068965517242</v>
       </c>
       <c r="T5">
-        <v>0.8644288013759299</v>
+        <v>0.8643746062819724</v>
       </c>
       <c r="U5">
         <v>0.43</v>
@@ -988,10 +988,10 @@
         <v>696</v>
       </c>
       <c r="AA5">
-        <v>36.73304597701153</v>
+        <v>36.73275862068969</v>
       </c>
       <c r="AB5">
-        <v>3.258971003804497</v>
+        <v>3.258625102542235</v>
       </c>
       <c r="AC5">
         <v>30.4</v>
@@ -1012,10 +1012,10 @@
         <v>696</v>
       </c>
       <c r="AI5">
-        <v>101.4729885057471</v>
+        <v>101.4722701149424</v>
       </c>
       <c r="AJ5">
-        <v>27.24731634026791</v>
+        <v>27.24768922453007</v>
       </c>
       <c r="AK5">
         <v>55.1</v>
@@ -1036,10 +1036,10 @@
         <v>696</v>
       </c>
       <c r="AQ5">
-        <v>1.072990948275863</v>
+        <v>1.072967959770115</v>
       </c>
       <c r="AR5">
-        <v>0.6105451640244414</v>
+        <v>0.6105397806087319</v>
       </c>
       <c r="AS5">
         <v>0.0466</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.4027775624999999</v>
+        <v>0.4027239706896552</v>
       </c>
       <c r="AZ5">
-        <v>0.7016634594440105</v>
+        <v>0.7015930319832742</v>
       </c>
       <c r="BA5">
         <v>-0.422</v>
@@ -1072,10 +1072,10 @@
         <v>-0.0211</v>
       </c>
       <c r="BC5">
-        <v>0.113</v>
+        <v>0.1125</v>
       </c>
       <c r="BD5">
-        <v>0.655</v>
+        <v>0.65425</v>
       </c>
       <c r="BE5">
         <v>3.63</v>
@@ -1084,22 +1084,22 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.4545922913793112</v>
+        <v>0.4545007856321843</v>
       </c>
       <c r="BH5">
-        <v>0.8818037555139868</v>
+        <v>0.8817688517412439</v>
       </c>
       <c r="BI5">
-        <v>-0.6889999999999999</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="BJ5">
-        <v>-0.018</v>
+        <v>-0.017925</v>
       </c>
       <c r="BK5">
-        <v>0.09215</v>
+        <v>0.0922</v>
       </c>
       <c r="BL5">
-        <v>0.5397500000000001</v>
+        <v>0.5387500000000001</v>
       </c>
       <c r="BM5">
         <v>4.58</v>
@@ -1161,10 +1161,10 @@
         <v>696</v>
       </c>
       <c r="S6">
-        <v>2.963412356321835</v>
+        <v>2.963283045977007</v>
       </c>
       <c r="T6">
-        <v>0.8583076460856652</v>
+        <v>0.858320304821564</v>
       </c>
       <c r="U6">
         <v>0.423</v>
@@ -1185,10 +1185,10 @@
         <v>696</v>
       </c>
       <c r="AA6">
-        <v>36.69956896551727</v>
+        <v>36.69985632183911</v>
       </c>
       <c r="AB6">
-        <v>3.255514385571254</v>
+        <v>3.255076828460887</v>
       </c>
       <c r="AC6">
         <v>30.4</v>
@@ -1209,10 +1209,10 @@
         <v>696</v>
       </c>
       <c r="AI6">
-        <v>101.0975574712643</v>
+        <v>101.0955459770114</v>
       </c>
       <c r="AJ6">
-        <v>27.16462431489443</v>
+        <v>27.1641701218078</v>
       </c>
       <c r="AK6">
         <v>54.8</v>
@@ -1233,10 +1233,10 @@
         <v>696</v>
       </c>
       <c r="AQ6">
-        <v>1.068813649425288</v>
+        <v>1.068784913793104</v>
       </c>
       <c r="AR6">
-        <v>0.6080437044831781</v>
+        <v>0.6080308691893742</v>
       </c>
       <c r="AS6">
         <v>0.0463</v>
@@ -1257,19 +1257,19 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.3811596551724143</v>
+        <v>0.3810691451149431</v>
       </c>
       <c r="AZ6">
-        <v>0.712679704359534</v>
+        <v>0.7125860683861024</v>
       </c>
       <c r="BA6">
         <v>-0.441</v>
       </c>
       <c r="BB6">
-        <v>-0.04654999999999999</v>
+        <v>-0.046475</v>
       </c>
       <c r="BC6">
-        <v>0.07189999999999999</v>
+        <v>0.07175000000000001</v>
       </c>
       <c r="BD6">
         <v>0.62725</v>
@@ -1281,19 +1281,19 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.4382813070402299</v>
+        <v>0.4381841010057474</v>
       </c>
       <c r="BH6">
-        <v>0.8971362767580909</v>
+        <v>0.8970067974545318</v>
       </c>
       <c r="BI6">
-        <v>-0.72</v>
+        <v>-0.721</v>
       </c>
       <c r="BJ6">
         <v>-0.026725</v>
       </c>
       <c r="BK6">
-        <v>0.0549</v>
+        <v>0.05485</v>
       </c>
       <c r="BL6">
         <v>0.47275</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>2.919893678160917</v>
+        <v>2.919749999999998</v>
       </c>
       <c r="T7">
-        <v>0.8593954911809433</v>
+        <v>0.8593820671913476</v>
       </c>
       <c r="U7">
         <v>0.411</v>
@@ -1382,10 +1382,10 @@
         <v>696</v>
       </c>
       <c r="AA7">
-        <v>36.63433908045978</v>
+        <v>36.63448275862071</v>
       </c>
       <c r="AB7">
-        <v>3.276559279737811</v>
+        <v>3.276318431698811</v>
       </c>
       <c r="AC7">
         <v>30.4</v>
@@ -1406,10 +1406,10 @@
         <v>696</v>
       </c>
       <c r="AI7">
-        <v>100.6803160919541</v>
+        <v>100.6797413793104</v>
       </c>
       <c r="AJ7">
-        <v>26.86332099469407</v>
+        <v>26.86394401941651</v>
       </c>
       <c r="AK7">
         <v>54.6</v>
@@ -1430,10 +1430,10 @@
         <v>696</v>
       </c>
       <c r="AQ7">
-        <v>1.064147126436783</v>
+        <v>1.064139942528737</v>
       </c>
       <c r="AR7">
-        <v>0.6038627064817794</v>
+        <v>0.6038660166197453</v>
       </c>
       <c r="AS7">
         <v>0.0461</v>
@@ -1454,19 +1454,19 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.4068585905172413</v>
+        <v>0.4067642126436781</v>
       </c>
       <c r="AZ7">
-        <v>0.7363627570286384</v>
+        <v>0.7362484995800402</v>
       </c>
       <c r="BA7">
         <v>-0.447</v>
       </c>
       <c r="BB7">
-        <v>-0.04585</v>
+        <v>-0.04575</v>
       </c>
       <c r="BC7">
-        <v>0.06475</v>
+        <v>0.0648</v>
       </c>
       <c r="BD7">
         <v>0.7244999999999999</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.4630673577586206</v>
+        <v>0.4629617772988501</v>
       </c>
       <c r="BH7">
-        <v>0.9214537980480219</v>
+        <v>0.9213961790422707</v>
       </c>
       <c r="BI7">
         <v>-0.73</v>
@@ -1493,7 +1493,7 @@
         <v>0.04855</v>
       </c>
       <c r="BL7">
-        <v>0.50975</v>
+        <v>0.50875</v>
       </c>
       <c r="BM7">
         <v>4.52</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>2.885054597701152</v>
+        <v>2.884925287356324</v>
       </c>
       <c r="T8">
-        <v>0.8583060260914374</v>
+        <v>0.8582986484607542</v>
       </c>
       <c r="U8">
         <v>0.403</v>
@@ -1603,10 +1603,10 @@
         <v>696</v>
       </c>
       <c r="AI8">
-        <v>100.3547413793103</v>
+        <v>100.3524425287356</v>
       </c>
       <c r="AJ8">
-        <v>26.71653825509394</v>
+        <v>26.70612291628484</v>
       </c>
       <c r="AK8">
         <v>54.4</v>
@@ -1627,10 +1627,10 @@
         <v>696</v>
       </c>
       <c r="AQ8">
-        <v>1.060272844827589</v>
+        <v>1.060226867816095</v>
       </c>
       <c r="AR8">
-        <v>0.6008917993753116</v>
+        <v>0.6008698842949456</v>
       </c>
       <c r="AS8">
         <v>0.0459</v>
@@ -1651,19 +1651,19 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.4171119497126434</v>
+        <v>0.4170415373563215</v>
       </c>
       <c r="AZ8">
-        <v>0.7495764870017709</v>
+        <v>0.7495485328775655</v>
       </c>
       <c r="BA8">
         <v>-0.449</v>
       </c>
       <c r="BB8">
-        <v>-0.050625</v>
+        <v>-0.05055</v>
       </c>
       <c r="BC8">
-        <v>0.05725</v>
+        <v>0.05715</v>
       </c>
       <c r="BD8">
         <v>0.77625</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.4713904109195407</v>
+        <v>0.4713268232758622</v>
       </c>
       <c r="BH8">
-        <v>0.932601872892193</v>
+        <v>0.9326005505278554</v>
       </c>
       <c r="BI8">
         <v>-0.733</v>
@@ -1690,7 +1690,7 @@
         <v>0.04615</v>
       </c>
       <c r="BL8">
-        <v>0.51425</v>
+        <v>0.5135</v>
       </c>
       <c r="BM8">
         <v>4.53</v>
@@ -1728,10 +1728,10 @@
         <v>696</v>
       </c>
       <c r="K9">
-        <v>36.98577586206895</v>
+        <v>36.98548850574711</v>
       </c>
       <c r="L9">
-        <v>2.874484421967869</v>
+        <v>2.874122558354676</v>
       </c>
       <c r="M9">
         <v>29.9</v>
@@ -1752,10 +1752,10 @@
         <v>696</v>
       </c>
       <c r="S9">
-        <v>2.86557902298851</v>
+        <v>2.865449712643682</v>
       </c>
       <c r="T9">
-        <v>0.8586066910183554</v>
+        <v>0.8586210127353677</v>
       </c>
       <c r="U9">
         <v>0.399</v>
@@ -1776,10 +1776,10 @@
         <v>696</v>
       </c>
       <c r="AA9">
-        <v>36.55876436781606</v>
+        <v>36.55890804597698</v>
       </c>
       <c r="AB9">
-        <v>3.297364663305356</v>
+        <v>3.297132997039307</v>
       </c>
       <c r="AC9">
         <v>30.4</v>
@@ -1800,10 +1800,10 @@
         <v>696</v>
       </c>
       <c r="AI9">
-        <v>100.1350574712643</v>
+        <v>100.1344827586207</v>
       </c>
       <c r="AJ9">
-        <v>26.59054152704922</v>
+        <v>26.59082473913919</v>
       </c>
       <c r="AK9">
         <v>54.3</v>
@@ -1824,10 +1824,10 @@
         <v>696</v>
       </c>
       <c r="AQ9">
-        <v>1.05816091954023</v>
+        <v>1.058142241379311</v>
       </c>
       <c r="AR9">
-        <v>0.5990786084990578</v>
+        <v>0.5990555569989918</v>
       </c>
       <c r="AS9">
         <v>0.0458</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.4292301235632185</v>
+        <v>0.4291342341954024</v>
       </c>
       <c r="AZ9">
-        <v>0.7587830313383461</v>
+        <v>0.7586542627799091</v>
       </c>
       <c r="BA9">
         <v>-0.448</v>
@@ -1872,22 +1872,22 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.4818134209770118</v>
+        <v>0.4817394540229889</v>
       </c>
       <c r="BH9">
-        <v>0.9419898407654353</v>
+        <v>0.9419400215685707</v>
       </c>
       <c r="BI9">
-        <v>-0.731</v>
+        <v>-0.732</v>
       </c>
       <c r="BJ9">
-        <v>-0.024</v>
+        <v>-0.023975</v>
       </c>
       <c r="BK9">
         <v>0.05365</v>
       </c>
       <c r="BL9">
-        <v>0.523</v>
+        <v>0.52275</v>
       </c>
       <c r="BM9">
         <v>4.58</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>2.848531609195404</v>
+        <v>2.848387931034485</v>
       </c>
       <c r="T10">
-        <v>0.8570333399360903</v>
+        <v>0.857058264062611</v>
       </c>
       <c r="U10">
         <v>0.401</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>99.87772988505749</v>
+        <v>99.8755747126437</v>
       </c>
       <c r="AJ10">
-        <v>26.46954826480346</v>
+        <v>26.4698064659621</v>
       </c>
       <c r="AK10">
         <v>54.1</v>
@@ -2021,10 +2021,10 @@
         <v>696</v>
       </c>
       <c r="AQ10">
-        <v>1.055664080459771</v>
+        <v>1.055642528735633</v>
       </c>
       <c r="AR10">
-        <v>0.5973193309127293</v>
+        <v>0.5973221788808359</v>
       </c>
       <c r="AS10">
         <v>0.0457</v>
@@ -2045,19 +2045,19 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.4294053936781611</v>
+        <v>0.4293318764367819</v>
       </c>
       <c r="AZ10">
-        <v>0.7580361894873989</v>
+        <v>0.7579846851926115</v>
       </c>
       <c r="BA10">
-        <v>-0.444</v>
+        <v>-0.445</v>
       </c>
       <c r="BB10">
-        <v>-0.0489</v>
+        <v>-0.048825</v>
       </c>
       <c r="BC10">
-        <v>0.0623</v>
+        <v>0.06225</v>
       </c>
       <c r="BD10">
         <v>0.8232499999999999</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.4802097658045985</v>
+        <v>0.4801393563218401</v>
       </c>
       <c r="BH10">
-        <v>0.9354310792675748</v>
+        <v>0.9354245585984652</v>
       </c>
       <c r="BI10">
         <v>-0.726</v>
@@ -2084,7 +2084,7 @@
         <v>0.05305</v>
       </c>
       <c r="BL10">
-        <v>0.528</v>
+        <v>0.5277499999999999</v>
       </c>
       <c r="BM10">
         <v>4.51</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>2.869775862068966</v>
+        <v>2.869574712643678</v>
       </c>
       <c r="T11">
-        <v>0.8574373841135655</v>
+        <v>0.8573718601868184</v>
       </c>
       <c r="U11">
         <v>0.395</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>100.0742816091954</v>
+        <v>100.0732758620689</v>
       </c>
       <c r="AJ11">
-        <v>26.57590918714651</v>
+        <v>26.57670974030068</v>
       </c>
       <c r="AK11">
         <v>54.2</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>1.057605172413794</v>
+        <v>1.0575591954023</v>
       </c>
       <c r="AR11">
-        <v>0.5988668336877521</v>
+        <v>0.5988228296147708</v>
       </c>
       <c r="AS11">
         <v>0.0457</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.4043052593649422</v>
+        <v>0.404238464741379</v>
       </c>
       <c r="AZ11">
-        <v>0.6599355229204625</v>
+        <v>0.6599099392692734</v>
       </c>
       <c r="BA11">
         <v>-0.439</v>
@@ -2266,22 +2266,22 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.4432075099037362</v>
+        <v>0.4431245795114945</v>
       </c>
       <c r="BH11">
-        <v>0.7922037073263564</v>
+        <v>0.7921611493499752</v>
       </c>
       <c r="BI11">
         <v>-0.717</v>
       </c>
       <c r="BJ11">
-        <v>-0.0196</v>
+        <v>-0.019525</v>
       </c>
       <c r="BK11">
         <v>0.07335</v>
       </c>
       <c r="BL11">
-        <v>0.531</v>
+        <v>0.53025</v>
       </c>
       <c r="BM11">
         <v>3.65</v>
@@ -2343,10 +2343,10 @@
         <v>696</v>
       </c>
       <c r="S12">
-        <v>2.891758620689652</v>
+        <v>2.891643678160916</v>
       </c>
       <c r="T12">
-        <v>0.8544112731387531</v>
+        <v>0.8543726004958034</v>
       </c>
       <c r="U12">
         <v>0.415</v>
@@ -2367,10 +2367,10 @@
         <v>696</v>
       </c>
       <c r="AA12">
-        <v>36.62931034482761</v>
+        <v>36.62916666666669</v>
       </c>
       <c r="AB12">
-        <v>3.205714786670137</v>
+        <v>3.205291918526863</v>
       </c>
       <c r="AC12">
         <v>30.4</v>
@@ -2391,10 +2391,10 @@
         <v>696</v>
       </c>
       <c r="AI12">
-        <v>100.2853448275862</v>
+        <v>100.283908045977</v>
       </c>
       <c r="AJ12">
-        <v>26.73334916501792</v>
+        <v>26.73433057557097</v>
       </c>
       <c r="AK12">
         <v>54.4</v>
@@ -2415,10 +2415,10 @@
         <v>696</v>
       </c>
       <c r="AQ12">
-        <v>1.059972988505749</v>
+        <v>1.059967241379312</v>
       </c>
       <c r="AR12">
-        <v>0.6011163502839373</v>
+        <v>0.6011192079828297</v>
       </c>
       <c r="AS12">
         <v>0.0459</v>
@@ -2439,16 +2439,16 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.3795268204022987</v>
+        <v>0.3794514913793102</v>
       </c>
       <c r="AZ12">
-        <v>0.6118898007734204</v>
+        <v>0.6118729873190674</v>
       </c>
       <c r="BA12">
         <v>-0.434</v>
       </c>
       <c r="BB12">
-        <v>-0.028025</v>
+        <v>-0.02795</v>
       </c>
       <c r="BC12">
         <v>0.0822</v>
@@ -2463,19 +2463,19 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.4169965632183906</v>
+        <v>0.4168806120689654</v>
       </c>
       <c r="BH12">
-        <v>0.7420202731447608</v>
+        <v>0.7419546302574391</v>
       </c>
       <c r="BI12">
         <v>-0.709</v>
       </c>
       <c r="BJ12">
-        <v>-0.018825</v>
+        <v>-0.0188</v>
       </c>
       <c r="BK12">
-        <v>0.0756</v>
+        <v>0.07555000000000001</v>
       </c>
       <c r="BL12">
         <v>0.495</v>
@@ -2516,10 +2516,10 @@
         <v>696</v>
       </c>
       <c r="K13">
-        <v>37.03936781609197</v>
+        <v>37.03922413793105</v>
       </c>
       <c r="L13">
-        <v>2.871988587841068</v>
+        <v>2.87186781048727</v>
       </c>
       <c r="M13">
         <v>30</v>
@@ -2540,10 +2540,10 @@
         <v>696</v>
       </c>
       <c r="S13">
-        <v>2.916696839080455</v>
+        <v>2.916495689655167</v>
       </c>
       <c r="T13">
-        <v>0.8583263093281923</v>
+        <v>0.8583157876611042</v>
       </c>
       <c r="U13">
         <v>0.418</v>
@@ -2564,10 +2564,10 @@
         <v>696</v>
       </c>
       <c r="AA13">
-        <v>36.6333333333334</v>
+        <v>36.63362068965524</v>
       </c>
       <c r="AB13">
-        <v>3.226929553077913</v>
+        <v>3.226502945951421</v>
       </c>
       <c r="AC13">
         <v>30.4</v>
@@ -2588,16 +2588,16 @@
         <v>696</v>
       </c>
       <c r="AI13">
-        <v>100.5091954022988</v>
+        <v>100.5067528735632</v>
       </c>
       <c r="AJ13">
-        <v>26.77564664863223</v>
+        <v>26.7760399246288</v>
       </c>
       <c r="AK13">
         <v>54.5</v>
       </c>
       <c r="AL13">
-        <v>86.34999999999999</v>
+        <v>86.325</v>
       </c>
       <c r="AM13">
         <v>106</v>
@@ -2612,10 +2612,10 @@
         <v>696</v>
       </c>
       <c r="AQ13">
-        <v>1.062315948275865</v>
+        <v>1.062314511494256</v>
       </c>
       <c r="AR13">
-        <v>0.6024539324851892</v>
+        <v>0.6024547870595636</v>
       </c>
       <c r="AS13">
         <v>0.046</v>
@@ -2636,13 +2636,13 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.3974832629310345</v>
+        <v>0.3974113624999998</v>
       </c>
       <c r="AZ13">
-        <v>0.6449112521944838</v>
+        <v>0.6448955906821867</v>
       </c>
       <c r="BA13">
-        <v>-0.432</v>
+        <v>-0.433</v>
       </c>
       <c r="BB13">
         <v>-0.016725</v>
@@ -2660,13 +2660,13 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.4400555186781615</v>
+        <v>0.4399935754310347</v>
       </c>
       <c r="BH13">
-        <v>0.7974428062399882</v>
+        <v>0.7974558428134423</v>
       </c>
       <c r="BI13">
-        <v>-0.706</v>
+        <v>-0.707</v>
       </c>
       <c r="BJ13">
         <v>-0.014125</v>
@@ -2713,10 +2713,10 @@
         <v>696</v>
       </c>
       <c r="K14">
-        <v>37.02859195402296</v>
+        <v>37.02844827586204</v>
       </c>
       <c r="L14">
-        <v>2.871377234566535</v>
+        <v>2.871636718807372</v>
       </c>
       <c r="M14">
         <v>30</v>
@@ -2737,10 +2737,10 @@
         <v>696</v>
       </c>
       <c r="S14">
-        <v>2.905853448275859</v>
+        <v>2.905709770114939</v>
       </c>
       <c r="T14">
-        <v>0.8581967836684573</v>
+        <v>0.8581546634708589</v>
       </c>
       <c r="U14">
         <v>0.414</v>
@@ -2785,10 +2785,10 @@
         <v>696</v>
       </c>
       <c r="AI14">
-        <v>100.4347701149425</v>
+        <v>100.4339080459769</v>
       </c>
       <c r="AJ14">
-        <v>26.7641217632865</v>
+        <v>26.76484540044119</v>
       </c>
       <c r="AK14">
         <v>54.5</v>
@@ -2809,10 +2809,10 @@
         <v>696</v>
       </c>
       <c r="AQ14">
-        <v>1.061257183908048</v>
+        <v>1.061212643678163</v>
       </c>
       <c r="AR14">
-        <v>0.6018307816903715</v>
+        <v>0.6018034323415219</v>
       </c>
       <c r="AS14">
         <v>0.046</v>
@@ -2833,16 +2833,16 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.4148123376436775</v>
+        <v>0.4147302270114935</v>
       </c>
       <c r="AZ14">
-        <v>0.7089634138188433</v>
+        <v>0.7088863234377564</v>
       </c>
       <c r="BA14">
         <v>-0.428</v>
       </c>
       <c r="BB14">
-        <v>-0.0262</v>
+        <v>-0.0261</v>
       </c>
       <c r="BC14">
         <v>0.079</v>
@@ -2857,13 +2857,13 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.464217886494253</v>
+        <v>0.4640959770114944</v>
       </c>
       <c r="BH14">
-        <v>0.8861692727014122</v>
+        <v>0.8860623788904534</v>
       </c>
       <c r="BI14">
-        <v>-0.699</v>
+        <v>-0.7</v>
       </c>
       <c r="BJ14">
         <v>-0.0195</v>
@@ -2910,10 +2910,10 @@
         <v>696</v>
       </c>
       <c r="K15">
-        <v>36.99109195402298</v>
+        <v>36.99094827586206</v>
       </c>
       <c r="L15">
-        <v>2.868164321601006</v>
+        <v>2.868271726423657</v>
       </c>
       <c r="M15">
         <v>29.9</v>
@@ -2934,10 +2934,10 @@
         <v>696</v>
       </c>
       <c r="S15">
-        <v>2.872054597701154</v>
+        <v>2.871910919540235</v>
       </c>
       <c r="T15">
-        <v>0.8562368729658352</v>
+        <v>0.8562508175510556</v>
       </c>
       <c r="U15">
         <v>0.407</v>
@@ -2982,10 +2982,10 @@
         <v>696</v>
       </c>
       <c r="AI15">
-        <v>100.1063218390804</v>
+        <v>100.1041666666667</v>
       </c>
       <c r="AJ15">
-        <v>26.64069079472249</v>
+        <v>26.64044844602422</v>
       </c>
       <c r="AK15">
         <v>54.3</v>
@@ -3030,22 +3030,22 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.4188181910919542</v>
+        <v>0.4187187554597699</v>
       </c>
       <c r="AZ15">
-        <v>0.7312453950198078</v>
+        <v>0.7311298260153112</v>
       </c>
       <c r="BA15">
         <v>-0.42</v>
       </c>
       <c r="BB15">
-        <v>-0.03615</v>
+        <v>-0.036125</v>
       </c>
       <c r="BC15">
-        <v>0.07335</v>
+        <v>0.0732</v>
       </c>
       <c r="BD15">
-        <v>0.7877500000000001</v>
+        <v>0.7875000000000001</v>
       </c>
       <c r="BE15">
         <v>3.54</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.4683045721264374</v>
+        <v>0.4682477024425289</v>
       </c>
       <c r="BH15">
-        <v>0.906613416760941</v>
+        <v>0.9066224506467635</v>
       </c>
       <c r="BI15">
         <v>-0.6860000000000001</v>
@@ -3131,10 +3131,10 @@
         <v>696</v>
       </c>
       <c r="S16">
-        <v>2.845063218390807</v>
+        <v>2.845005747126439</v>
       </c>
       <c r="T16">
-        <v>0.8550279369565075</v>
+        <v>0.8550026967663406</v>
       </c>
       <c r="U16">
         <v>0.405</v>
@@ -3158,7 +3158,7 @@
         <v>36.53103448275861</v>
       </c>
       <c r="AB16">
-        <v>3.276256342069876</v>
+        <v>3.275948905350002</v>
       </c>
       <c r="AC16">
         <v>30.3</v>
@@ -3179,10 +3179,10 @@
         <v>696</v>
       </c>
       <c r="AI16">
-        <v>99.76839080459779</v>
+        <v>99.7678160919541</v>
       </c>
       <c r="AJ16">
-        <v>26.49421233384636</v>
+        <v>26.49446525832149</v>
       </c>
       <c r="AK16">
         <v>54.1</v>
@@ -3203,10 +3203,10 @@
         <v>696</v>
       </c>
       <c r="AQ16">
-        <v>1.054817959770114</v>
+        <v>1.054810775862069</v>
       </c>
       <c r="AR16">
-        <v>0.5970740907539404</v>
+        <v>0.5970790322694313</v>
       </c>
       <c r="AS16">
         <v>0.0456</v>
@@ -3227,13 +3227,13 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.4215837600574718</v>
+        <v>0.4214842168103451</v>
       </c>
       <c r="AZ16">
-        <v>0.7377299908925353</v>
+        <v>0.7376549010951858</v>
       </c>
       <c r="BA16">
-        <v>-0.395</v>
+        <v>-0.396</v>
       </c>
       <c r="BB16">
         <v>-0.038475</v>
@@ -3251,13 +3251,13 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.4703818127873565</v>
+        <v>0.4702949961206894</v>
       </c>
       <c r="BH16">
-        <v>0.9101116015555074</v>
+        <v>0.9100611931961443</v>
       </c>
       <c r="BI16">
-        <v>-0.645</v>
+        <v>-0.646</v>
       </c>
       <c r="BJ16">
         <v>-0.023325</v>
@@ -3266,7 +3266,7 @@
         <v>0.05815</v>
       </c>
       <c r="BL16">
-        <v>0.5095000000000001</v>
+        <v>0.50925</v>
       </c>
       <c r="BM16">
         <v>4.43</v>
@@ -3304,10 +3304,10 @@
         <v>696</v>
       </c>
       <c r="K17">
-        <v>36.91580459770115</v>
+        <v>36.91551724137932</v>
       </c>
       <c r="L17">
-        <v>2.855691313302426</v>
+        <v>2.855758391578184</v>
       </c>
       <c r="M17">
         <v>29.9</v>
@@ -3328,10 +3328,10 @@
         <v>696</v>
       </c>
       <c r="S17">
-        <v>2.795086206896555</v>
+        <v>2.794985632183911</v>
       </c>
       <c r="T17">
-        <v>0.851121655894866</v>
+        <v>0.8511132074404679</v>
       </c>
       <c r="U17">
         <v>0.393</v>
@@ -3352,10 +3352,10 @@
         <v>696</v>
       </c>
       <c r="AA17">
-        <v>36.47801724137931</v>
+        <v>36.47772988505747</v>
       </c>
       <c r="AB17">
-        <v>3.280303912879629</v>
+        <v>3.280135287001687</v>
       </c>
       <c r="AC17">
         <v>30.2</v>
@@ -3376,10 +3376,10 @@
         <v>696</v>
       </c>
       <c r="AI17">
-        <v>99.2653735632183</v>
+        <v>99.26393678160913</v>
       </c>
       <c r="AJ17">
-        <v>26.30344167383856</v>
+        <v>26.30434340077011</v>
       </c>
       <c r="AK17">
         <v>53.2</v>
@@ -3400,10 +3400,10 @@
         <v>696</v>
       </c>
       <c r="AQ17">
-        <v>1.049420545977013</v>
+        <v>1.049401867816093</v>
       </c>
       <c r="AR17">
-        <v>0.5936663030126027</v>
+        <v>0.593600700065969</v>
       </c>
       <c r="AS17">
         <v>0.0453</v>
@@ -3424,19 +3424,19 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.4202666623563219</v>
+        <v>0.4202098477011495</v>
       </c>
       <c r="AZ17">
-        <v>0.746296739916772</v>
+        <v>0.7462790618363139</v>
       </c>
       <c r="BA17">
-        <v>-0.357</v>
+        <v>-0.358</v>
       </c>
       <c r="BB17">
-        <v>-0.048575</v>
+        <v>-0.0485</v>
       </c>
       <c r="BC17">
-        <v>0.0659</v>
+        <v>0.06585000000000001</v>
       </c>
       <c r="BD17">
         <v>0.7935000000000001</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.4680743695402297</v>
+        <v>0.467970592097701</v>
       </c>
       <c r="BH17">
-        <v>0.9142814582371956</v>
+        <v>0.9141419832521207</v>
       </c>
       <c r="BI17">
         <v>-0.583</v>
@@ -3460,10 +3460,10 @@
         <v>-0.03085</v>
       </c>
       <c r="BK17">
-        <v>0.0488</v>
+        <v>0.04875</v>
       </c>
       <c r="BL17">
-        <v>0.5115000000000001</v>
+        <v>0.51125</v>
       </c>
       <c r="BM17">
         <v>4.48</v>
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>2.779625000000001</v>
+        <v>2.779538793103449</v>
       </c>
       <c r="T18">
-        <v>0.8498095674321868</v>
+        <v>0.8497822649205526</v>
       </c>
       <c r="U18">
         <v>0.393</v>
@@ -3573,10 +3573,10 @@
         <v>696</v>
       </c>
       <c r="AI18">
-        <v>99.08448275862069</v>
+        <v>99.08376436781612</v>
       </c>
       <c r="AJ18">
-        <v>26.22116758217231</v>
+        <v>26.22168926334712</v>
       </c>
       <c r="AK18">
         <v>53.1</v>
@@ -3597,16 +3597,16 @@
         <v>696</v>
       </c>
       <c r="AQ18">
-        <v>1.047128448275864</v>
+        <v>1.047121264367817</v>
       </c>
       <c r="AR18">
-        <v>0.5920461697394893</v>
+        <v>0.592050461933131</v>
       </c>
       <c r="AS18">
         <v>0.0453</v>
       </c>
       <c r="AT18">
-        <v>0.52625</v>
+        <v>0.5255000000000001</v>
       </c>
       <c r="AU18">
         <v>1.115</v>
@@ -3621,13 +3621,13 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.4090145356321842</v>
+        <v>0.4089284552298854</v>
       </c>
       <c r="AZ18">
-        <v>0.6896194781356239</v>
+        <v>0.6895413219644314</v>
       </c>
       <c r="BA18">
-        <v>-0.319</v>
+        <v>-0.32</v>
       </c>
       <c r="BB18">
         <v>-0.03745</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.4487606178017237</v>
+        <v>0.4486397864224139</v>
       </c>
       <c r="BH18">
-        <v>0.8222818569501574</v>
+        <v>0.8221569865038181</v>
       </c>
       <c r="BI18">
         <v>-0.52</v>
@@ -3657,7 +3657,7 @@
         <v>-0.02245</v>
       </c>
       <c r="BK18">
-        <v>0.06065</v>
+        <v>0.0606</v>
       </c>
       <c r="BL18">
         <v>0.514</v>
@@ -3698,10 +3698,10 @@
         <v>696</v>
       </c>
       <c r="K19">
-        <v>36.93347701149424</v>
+        <v>36.93333333333332</v>
       </c>
       <c r="L19">
-        <v>2.828617880877081</v>
+        <v>2.828657730506628</v>
       </c>
       <c r="M19">
         <v>29.9</v>
@@ -3722,10 +3722,10 @@
         <v>696</v>
       </c>
       <c r="S19">
-        <v>2.812741379310348</v>
+        <v>2.812655172413797</v>
       </c>
       <c r="T19">
-        <v>0.8376914109178732</v>
+        <v>0.8376853337219886</v>
       </c>
       <c r="U19">
         <v>0.389</v>
@@ -3770,10 +3770,10 @@
         <v>696</v>
       </c>
       <c r="AI19">
-        <v>99.46422413793098</v>
+        <v>99.46336206896548</v>
       </c>
       <c r="AJ19">
-        <v>26.72913370743037</v>
+        <v>26.73009609084022</v>
       </c>
       <c r="AK19">
         <v>53.1</v>
@@ -3794,10 +3794,10 @@
         <v>696</v>
       </c>
       <c r="AQ19">
-        <v>1.052082183908048</v>
+        <v>1.052076436781611</v>
       </c>
       <c r="AR19">
-        <v>0.5980375627131983</v>
+        <v>0.5980420096569131</v>
       </c>
       <c r="AS19">
         <v>0.0453</v>
@@ -3818,13 +3818,13 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.2533433300287357</v>
+        <v>0.2532871025862069</v>
       </c>
       <c r="AZ19">
-        <v>0.4054585417905054</v>
+        <v>0.4054352769874453</v>
       </c>
       <c r="BA19">
-        <v>-0.279</v>
+        <v>-0.28</v>
       </c>
       <c r="BB19">
         <v>-0.029225</v>
@@ -3842,13 +3842,13 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.2710254326149422</v>
+        <v>0.2709401127873562</v>
       </c>
       <c r="BH19">
-        <v>0.4754348374706043</v>
+        <v>0.4753742551295044</v>
       </c>
       <c r="BI19">
-        <v>-0.454</v>
+        <v>-0.455</v>
       </c>
       <c r="BJ19">
         <v>-0.0193</v>
@@ -3857,7 +3857,7 @@
         <v>0.06914999999999999</v>
       </c>
       <c r="BL19">
-        <v>0.38225</v>
+        <v>0.382</v>
       </c>
       <c r="BM19">
         <v>2.56</v>
@@ -3895,10 +3895,10 @@
         <v>696</v>
       </c>
       <c r="K20">
-        <v>37.01393678160918</v>
+        <v>37.01436781609194</v>
       </c>
       <c r="L20">
-        <v>2.807639837633771</v>
+        <v>2.807604350633565</v>
       </c>
       <c r="M20">
         <v>30</v>
@@ -3919,13 +3919,13 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>2.891464080459773</v>
+        <v>2.892580459770118</v>
       </c>
       <c r="T20">
-        <v>0.8283185925682588</v>
+        <v>0.8282007815283107</v>
       </c>
       <c r="U20">
-        <v>0.43</v>
+        <v>0.437</v>
       </c>
       <c r="V20">
         <v>2.3575</v>
@@ -3943,10 +3943,10 @@
         <v>696</v>
       </c>
       <c r="AA20">
-        <v>36.87830459770117</v>
+        <v>36.8784482758621</v>
       </c>
       <c r="AB20">
-        <v>2.924784293694271</v>
+        <v>2.92468450592389</v>
       </c>
       <c r="AC20">
         <v>30.2</v>
@@ -3967,10 +3967,10 @@
         <v>696</v>
       </c>
       <c r="AI20">
-        <v>100.2122126436782</v>
+        <v>100.2125</v>
       </c>
       <c r="AJ20">
-        <v>27.4087799353274</v>
+        <v>27.40827059050953</v>
       </c>
       <c r="AK20">
         <v>53.5</v>
@@ -3991,10 +3991,10 @@
         <v>696</v>
       </c>
       <c r="AQ20">
-        <v>1.060676867816092</v>
+        <v>1.060651005747127</v>
       </c>
       <c r="AR20">
-        <v>0.6068747796331463</v>
+        <v>0.6067975064555833</v>
       </c>
       <c r="AS20">
         <v>0.0455</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.1288024689655172</v>
+        <v>0.1287286972701148</v>
       </c>
       <c r="AZ20">
-        <v>0.2076172550673419</v>
+        <v>0.2075478089318894</v>
       </c>
       <c r="BA20">
         <v>-0.294</v>
@@ -4027,10 +4027,10 @@
         <v>-0.012175</v>
       </c>
       <c r="BC20">
-        <v>0.07635</v>
+        <v>0.0762</v>
       </c>
       <c r="BD20">
-        <v>0.248</v>
+        <v>0.24725</v>
       </c>
       <c r="BE20">
         <v>1.02</v>
@@ -4039,16 +4039,16 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.1365855340517242</v>
+        <v>0.1364935886494254</v>
       </c>
       <c r="BH20">
-        <v>0.2497191020437156</v>
+        <v>0.2496442965198635</v>
       </c>
       <c r="BI20">
         <v>-0.479</v>
       </c>
       <c r="BJ20">
-        <v>-0.011425</v>
+        <v>-0.01135</v>
       </c>
       <c r="BK20">
         <v>0.04745</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>2.941353448275857</v>
+        <v>2.941123563218386</v>
       </c>
       <c r="T21">
-        <v>0.8260641073348616</v>
+        <v>0.8260409376982039</v>
       </c>
       <c r="U21">
         <v>0.456</v>
@@ -4140,10 +4140,10 @@
         <v>696</v>
       </c>
       <c r="AA21">
-        <v>36.97945402298846</v>
+        <v>36.97931034482755</v>
       </c>
       <c r="AB21">
-        <v>2.876827837482833</v>
+        <v>2.876649247057742</v>
       </c>
       <c r="AC21">
         <v>30.3</v>
@@ -4164,10 +4164,10 @@
         <v>696</v>
       </c>
       <c r="AI21">
-        <v>100.7818965517242</v>
+        <v>100.7803160919541</v>
       </c>
       <c r="AJ21">
-        <v>27.70395322533565</v>
+        <v>27.70478026255296</v>
       </c>
       <c r="AK21">
         <v>54.2</v>
@@ -4212,34 +4212,34 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.07687406557471264</v>
+        <v>0.07677082068965513</v>
       </c>
       <c r="AZ21">
-        <v>0.146197486950456</v>
+        <v>0.146109970829044</v>
       </c>
       <c r="BA21">
-        <v>-0.361</v>
+        <v>-0.362</v>
       </c>
       <c r="BB21">
         <v>-0.011525</v>
       </c>
       <c r="BC21">
-        <v>0.05395</v>
+        <v>0.05375</v>
       </c>
       <c r="BD21">
-        <v>0.1655</v>
+        <v>0.16525</v>
       </c>
       <c r="BE21">
-        <v>0.5600000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="BF21">
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.08198922964080452</v>
+        <v>0.08189487682471261</v>
       </c>
       <c r="BH21">
-        <v>0.1848689881835482</v>
+        <v>0.1847852906678328</v>
       </c>
       <c r="BI21">
         <v>-0.59</v>
@@ -4254,7 +4254,7 @@
         <v>0.188</v>
       </c>
       <c r="BM21">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -4289,10 +4289,10 @@
         <v>696</v>
       </c>
       <c r="K22">
-        <v>37.06551724137933</v>
+        <v>37.06537356321842</v>
       </c>
       <c r="L22">
-        <v>2.78567053105998</v>
+        <v>2.785490541734335</v>
       </c>
       <c r="M22">
         <v>30</v>
@@ -4313,10 +4313,10 @@
         <v>696</v>
       </c>
       <c r="S22">
-        <v>2.942915229885057</v>
+        <v>2.942829022988505</v>
       </c>
       <c r="T22">
-        <v>0.8219449175461502</v>
+        <v>0.8219343657860112</v>
       </c>
       <c r="U22">
         <v>0.468</v>
@@ -4361,10 +4361,10 @@
         <v>696</v>
       </c>
       <c r="AI22">
-        <v>100.8668103448277</v>
+        <v>100.8656609195403</v>
       </c>
       <c r="AJ22">
-        <v>27.81420896956852</v>
+        <v>27.81477350053923</v>
       </c>
       <c r="AK22">
         <v>54.2</v>
@@ -4385,10 +4385,10 @@
         <v>696</v>
       </c>
       <c r="AQ22">
-        <v>1.068001005747128</v>
+        <v>1.068013936781611</v>
       </c>
       <c r="AR22">
-        <v>0.6127897126948186</v>
+        <v>0.612806694432052</v>
       </c>
       <c r="AS22">
         <v>0.0459</v>
@@ -4409,16 +4409,16 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.03895240660919539</v>
+        <v>0.03887435057471264</v>
       </c>
       <c r="AZ22">
-        <v>0.1260812199382692</v>
+        <v>0.1260259054068107</v>
       </c>
       <c r="BA22">
         <v>-0.443</v>
       </c>
       <c r="BB22">
-        <v>-0.029525</v>
+        <v>-0.0296</v>
       </c>
       <c r="BC22">
         <v>0.02585</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.04263419683908048</v>
+        <v>0.04254019540229886</v>
       </c>
       <c r="BH22">
-        <v>0.1631593175354127</v>
+        <v>0.1630904512330083</v>
       </c>
       <c r="BI22">
         <v>-0.724</v>
@@ -4445,7 +4445,7 @@
         <v>-0.0181</v>
       </c>
       <c r="BK22">
-        <v>0.008404999999999999</v>
+        <v>0.008395</v>
       </c>
       <c r="BL22">
         <v>0.112</v>
@@ -4486,10 +4486,10 @@
         <v>696</v>
       </c>
       <c r="K23">
-        <v>37.00057471264364</v>
+        <v>37.00028735632181</v>
       </c>
       <c r="L23">
-        <v>2.804615869032201</v>
+        <v>2.804436347407452</v>
       </c>
       <c r="M23">
         <v>30</v>
@@ -4510,10 +4510,10 @@
         <v>696</v>
       </c>
       <c r="S23">
-        <v>2.878104885057473</v>
+        <v>2.878076149425289</v>
       </c>
       <c r="T23">
-        <v>0.8295353846888766</v>
+        <v>0.8294914338299331</v>
       </c>
       <c r="U23">
         <v>0.426</v>
@@ -4558,10 +4558,10 @@
         <v>696</v>
       </c>
       <c r="AI23">
-        <v>100.1441091954022</v>
+        <v>100.1433908045977</v>
       </c>
       <c r="AJ23">
-        <v>27.32089815580482</v>
+        <v>27.32121766453597</v>
       </c>
       <c r="AK23">
         <v>53.8</v>
@@ -4582,10 +4582,10 @@
         <v>696</v>
       </c>
       <c r="AQ23">
-        <v>1.059886925287358</v>
+        <v>1.059881178160921</v>
       </c>
       <c r="AR23">
-        <v>0.6059244040877489</v>
+        <v>0.6059292495958026</v>
       </c>
       <c r="AS23">
         <v>0.0456</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.1846656839080457</v>
+        <v>0.1845535818965516</v>
       </c>
       <c r="AZ23">
-        <v>0.4730988308842712</v>
+        <v>0.4729667833463578</v>
       </c>
       <c r="BA23">
         <v>-0.509</v>
@@ -4618,7 +4618,7 @@
         <v>-0.03615</v>
       </c>
       <c r="BC23">
-        <v>0.02855</v>
+        <v>0.0285</v>
       </c>
       <c r="BD23">
         <v>0.18825</v>
@@ -4630,25 +4630,25 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.2204602399425286</v>
+        <v>0.2203297140804598</v>
       </c>
       <c r="BH23">
-        <v>0.6048589540602186</v>
+        <v>0.6046764971900386</v>
       </c>
       <c r="BI23">
-        <v>-0.832</v>
+        <v>-0.833</v>
       </c>
       <c r="BJ23">
         <v>-0.02395</v>
       </c>
       <c r="BK23">
-        <v>0.0158</v>
+        <v>0.0157</v>
       </c>
       <c r="BL23">
-        <v>0.1655</v>
+        <v>0.1645</v>
       </c>
       <c r="BM23">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -4707,10 +4707,10 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>2.830464080459775</v>
+        <v>2.830334770114948</v>
       </c>
       <c r="T24">
-        <v>0.8427306687209704</v>
+        <v>0.8427600108982123</v>
       </c>
       <c r="U24">
         <v>0.41</v>
@@ -4755,10 +4755,10 @@
         <v>696</v>
       </c>
       <c r="AI24">
-        <v>99.58979885057458</v>
+        <v>99.58922413793091</v>
       </c>
       <c r="AJ24">
-        <v>26.68985466108773</v>
+        <v>26.6903245256041</v>
       </c>
       <c r="AK24">
         <v>53.7</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>1.053271408045978</v>
+        <v>1.053264224137932</v>
       </c>
       <c r="AR24">
-        <v>0.5982314094506128</v>
+        <v>0.5982374652538521</v>
       </c>
       <c r="AS24">
         <v>0.0455</v>
@@ -4803,16 +4803,16 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.3300931005747128</v>
+        <v>0.3300324137931036</v>
       </c>
       <c r="AZ24">
-        <v>0.6472251652202931</v>
+        <v>0.6472282896549754</v>
       </c>
       <c r="BA24">
         <v>-0.517</v>
       </c>
       <c r="BB24">
-        <v>-0.0237</v>
+        <v>-0.023675</v>
       </c>
       <c r="BC24">
         <v>0.0431</v>
@@ -4827,16 +4827,16 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.3736327672413792</v>
+        <v>0.3735552744252873</v>
       </c>
       <c r="BH24">
-        <v>0.8077045477289601</v>
+        <v>0.8077073700612607</v>
       </c>
       <c r="BI24">
-        <v>-0.845</v>
+        <v>-0.846</v>
       </c>
       <c r="BJ24">
-        <v>-0.017125</v>
+        <v>-0.01715</v>
       </c>
       <c r="BK24">
         <v>0.03265</v>
@@ -4904,10 +4904,10 @@
         <v>696</v>
       </c>
       <c r="S25">
-        <v>2.809912356321846</v>
+        <v>2.809754310344834</v>
       </c>
       <c r="T25">
-        <v>0.8457316611474616</v>
+        <v>0.8457279721394412</v>
       </c>
       <c r="U25">
         <v>0.407</v>
@@ -4952,10 +4952,10 @@
         <v>696</v>
       </c>
       <c r="AI25">
-        <v>99.36982758620687</v>
+        <v>99.36939655172411</v>
       </c>
       <c r="AJ25">
-        <v>26.49882436320718</v>
+        <v>26.49902938758786</v>
       </c>
       <c r="AK25">
         <v>53.5</v>
@@ -4976,10 +4976,10 @@
         <v>696</v>
       </c>
       <c r="AQ25">
-        <v>1.050937931034484</v>
+        <v>1.050935057471265</v>
       </c>
       <c r="AR25">
-        <v>0.5959481805953009</v>
+        <v>0.5959493947235485</v>
       </c>
       <c r="AS25">
         <v>0.0454</v>
@@ -5000,13 +5000,13 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.3601003344827587</v>
+        <v>0.3600381067528736</v>
       </c>
       <c r="AZ25">
-        <v>0.6442902403664469</v>
+        <v>0.6442248434733334</v>
       </c>
       <c r="BA25">
-        <v>-0.514</v>
+        <v>-0.515</v>
       </c>
       <c r="BB25">
         <v>-0.02225</v>
@@ -5018,19 +5018,19 @@
         <v>0.6735</v>
       </c>
       <c r="BE25">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="BF25">
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.3975483696839083</v>
+        <v>0.3974173540229887</v>
       </c>
       <c r="BH25">
-        <v>0.7801634460805521</v>
+        <v>0.780051733752221</v>
       </c>
       <c r="BI25">
-        <v>-0.841</v>
+        <v>-0.842</v>
       </c>
       <c r="BJ25">
         <v>-0.018125</v>
@@ -5101,10 +5101,10 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>2.773547413793103</v>
+        <v>2.773461206896551</v>
       </c>
       <c r="T26">
-        <v>0.844769074431353</v>
+        <v>0.8447387735952649</v>
       </c>
       <c r="U26">
         <v>0.395</v>
@@ -5149,10 +5149,10 @@
         <v>696</v>
       </c>
       <c r="AI26">
-        <v>99.01522988505752</v>
+        <v>99.01350574712649</v>
       </c>
       <c r="AJ26">
-        <v>26.33483888198074</v>
+        <v>26.32445680285607</v>
       </c>
       <c r="AK26">
         <v>52.4</v>
@@ -5173,10 +5173,10 @@
         <v>696</v>
       </c>
       <c r="AQ26">
-        <v>1.046654741379311</v>
+        <v>1.046650431034483</v>
       </c>
       <c r="AR26">
-        <v>0.5927868622078805</v>
+        <v>0.5927896619452516</v>
       </c>
       <c r="AS26">
         <v>0.0452</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.3817097528735635</v>
+        <v>0.3816109181034485</v>
       </c>
       <c r="AZ26">
-        <v>0.6918161012283555</v>
+        <v>0.6917353183769233</v>
       </c>
       <c r="BA26">
         <v>-0.499</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.420776966954023</v>
+        <v>0.4206757715517241</v>
       </c>
       <c r="BH26">
-        <v>0.8429547583600963</v>
+        <v>0.8429123358005272</v>
       </c>
       <c r="BI26">
         <v>-0.8159999999999999</v>
@@ -5233,7 +5233,7 @@
         <v>-0.0211</v>
       </c>
       <c r="BK26">
-        <v>0.0324</v>
+        <v>0.0323</v>
       </c>
       <c r="BL26">
         <v>0.45925</v>
@@ -5274,10 +5274,10 @@
         <v>696</v>
       </c>
       <c r="K27">
-        <v>36.87916666666667</v>
+        <v>36.87887931034483</v>
       </c>
       <c r="L27">
-        <v>2.860625256567727</v>
+        <v>2.86062817618639</v>
       </c>
       <c r="M27">
         <v>29.9</v>
@@ -5298,10 +5298,10 @@
         <v>696</v>
       </c>
       <c r="S27">
-        <v>2.756764367816086</v>
+        <v>2.756678160919535</v>
       </c>
       <c r="T27">
-        <v>0.8498170072647607</v>
+        <v>0.8497486076896917</v>
       </c>
       <c r="U27">
         <v>0.387</v>
@@ -5322,10 +5322,10 @@
         <v>696</v>
       </c>
       <c r="AA27">
-        <v>36.43074712643682</v>
+        <v>36.4306034482759</v>
       </c>
       <c r="AB27">
-        <v>3.285722769385433</v>
+        <v>3.285625581630433</v>
       </c>
       <c r="AC27">
         <v>30.1</v>
@@ -5346,10 +5346,10 @@
         <v>696</v>
       </c>
       <c r="AI27">
-        <v>98.80603448275862</v>
+        <v>98.80431034482758</v>
       </c>
       <c r="AJ27">
-        <v>26.15259412295386</v>
+        <v>26.14221666549269</v>
       </c>
       <c r="AK27">
         <v>52.4</v>
@@ -5370,10 +5370,10 @@
         <v>696</v>
       </c>
       <c r="AQ27">
-        <v>1.043999137931036</v>
+        <v>1.043997701149427</v>
       </c>
       <c r="AR27">
-        <v>0.590125310774349</v>
+        <v>0.5901272942502898</v>
       </c>
       <c r="AS27">
         <v>0.0452</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.4267285316091951</v>
+        <v>0.4266768965517242</v>
       </c>
       <c r="AZ27">
-        <v>0.7682143566997256</v>
+        <v>0.7682216887786307</v>
       </c>
       <c r="BA27">
         <v>-0.475</v>
@@ -5406,7 +5406,7 @@
         <v>-0.020975</v>
       </c>
       <c r="BC27">
-        <v>0.05895</v>
+        <v>0.0589</v>
       </c>
       <c r="BD27">
         <v>0.75275</v>
@@ -5418,22 +5418,22 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.4704980431034483</v>
+        <v>0.4704368002873562</v>
       </c>
       <c r="BH27">
-        <v>0.9586470626521697</v>
+        <v>0.9586593917740797</v>
       </c>
       <c r="BI27">
-        <v>-0.776</v>
+        <v>-0.777</v>
       </c>
       <c r="BJ27">
         <v>-0.0166</v>
       </c>
       <c r="BK27">
-        <v>0.0413</v>
+        <v>0.04125</v>
       </c>
       <c r="BL27">
-        <v>0.48075</v>
+        <v>0.4805</v>
       </c>
       <c r="BM27">
         <v>5.42</v>
@@ -5495,16 +5495,16 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>2.781704022988511</v>
+        <v>2.781474137931039</v>
       </c>
       <c r="T28">
-        <v>0.8567261938708116</v>
+        <v>0.8566824496125014</v>
       </c>
       <c r="U28">
         <v>0.38</v>
       </c>
       <c r="V28">
-        <v>2.2475</v>
+        <v>2.24</v>
       </c>
       <c r="W28">
         <v>2.705</v>
@@ -5519,10 +5519,10 @@
         <v>696</v>
       </c>
       <c r="AA28">
-        <v>36.43821839080462</v>
+        <v>36.43836206896554</v>
       </c>
       <c r="AB28">
-        <v>3.308994368048458</v>
+        <v>3.308594809806727</v>
       </c>
       <c r="AC28">
         <v>30.2</v>
@@ -5543,10 +5543,10 @@
         <v>696</v>
       </c>
       <c r="AI28">
-        <v>99.07241379310335</v>
+        <v>99.0721264367815</v>
       </c>
       <c r="AJ28">
-        <v>26.13085252596182</v>
+        <v>26.13090673311552</v>
       </c>
       <c r="AK28">
         <v>52.8</v>
@@ -5567,10 +5567,10 @@
         <v>696</v>
       </c>
       <c r="AQ28">
-        <v>1.046960344827586</v>
+        <v>1.046943103448276</v>
       </c>
       <c r="AR28">
-        <v>0.5914569816882665</v>
+        <v>0.5914563866951145</v>
       </c>
       <c r="AS28">
         <v>0.0452</v>
@@ -5591,16 +5591,16 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.4571974913793106</v>
+        <v>0.4570827916666668</v>
       </c>
       <c r="AZ28">
-        <v>0.7730430681194503</v>
+        <v>0.7729621641432486</v>
       </c>
       <c r="BA28">
         <v>-0.443</v>
       </c>
       <c r="BB28">
-        <v>-0.006607500000000001</v>
+        <v>-0.0066</v>
       </c>
       <c r="BC28">
         <v>0.0842</v>
@@ -5615,22 +5615,22 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.5010643373563223</v>
+        <v>0.5010003867816095</v>
       </c>
       <c r="BH28">
-        <v>0.9615907952996254</v>
+        <v>0.9615894077188281</v>
       </c>
       <c r="BI28">
         <v>-0.723</v>
       </c>
       <c r="BJ28">
-        <v>-0.0060425</v>
+        <v>-0.006055</v>
       </c>
       <c r="BK28">
-        <v>0.07155</v>
+        <v>0.0713</v>
       </c>
       <c r="BL28">
-        <v>0.54</v>
+        <v>0.53925</v>
       </c>
       <c r="BM28">
         <v>5.16</v>
@@ -5668,10 +5668,10 @@
         <v>696</v>
       </c>
       <c r="K29">
-        <v>36.90933908045977</v>
+        <v>36.90905172413792</v>
       </c>
       <c r="L29">
-        <v>2.862300050124959</v>
+        <v>2.862150163759877</v>
       </c>
       <c r="M29">
         <v>29.9</v>
@@ -5692,10 +5692,10 @@
         <v>696</v>
       </c>
       <c r="S29">
-        <v>2.790287356321844</v>
+        <v>2.790172413793108</v>
       </c>
       <c r="T29">
-        <v>0.8533767160321443</v>
+        <v>0.8532821535342601</v>
       </c>
       <c r="U29">
         <v>0.385</v>
@@ -5740,10 +5740,10 @@
         <v>696</v>
       </c>
       <c r="AI29">
-        <v>99.22500000000007</v>
+        <v>99.22456896551731</v>
       </c>
       <c r="AJ29">
-        <v>26.28290373564111</v>
+        <v>26.28315131371065</v>
       </c>
       <c r="AK29">
         <v>53.6</v>
@@ -5764,10 +5764,10 @@
         <v>696</v>
       </c>
       <c r="AQ29">
-        <v>1.048805747126437</v>
+        <v>1.04880143678161</v>
       </c>
       <c r="AR29">
-        <v>0.5932951699139154</v>
+        <v>0.5932982520961771</v>
       </c>
       <c r="AS29">
         <v>0.0454</v>
@@ -5788,19 +5788,19 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.4363620954022991</v>
+        <v>0.4362559234195404</v>
       </c>
       <c r="AZ29">
-        <v>0.7417090091704254</v>
+        <v>0.7415849980578998</v>
       </c>
       <c r="BA29">
         <v>-0.414</v>
       </c>
       <c r="BB29">
-        <v>-0.0128</v>
+        <v>-0.012725</v>
       </c>
       <c r="BC29">
-        <v>0.0832</v>
+        <v>0.08305000000000001</v>
       </c>
       <c r="BD29">
         <v>0.77725</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.4784666876436783</v>
+        <v>0.478375104310345</v>
       </c>
       <c r="BH29">
-        <v>0.9100170956205655</v>
+        <v>0.9099655963306376</v>
       </c>
       <c r="BI29">
         <v>-0.676</v>
@@ -5865,10 +5865,10 @@
         <v>696</v>
       </c>
       <c r="K30">
-        <v>36.88132183908046</v>
+        <v>36.88117816091954</v>
       </c>
       <c r="L30">
-        <v>2.852185123172421</v>
+        <v>2.85223210178583</v>
       </c>
       <c r="M30">
         <v>29.9</v>
@@ -5889,10 +5889,10 @@
         <v>696</v>
       </c>
       <c r="S30">
-        <v>2.760528735632181</v>
+        <v>2.760456896551722</v>
       </c>
       <c r="T30">
-        <v>0.8482393983250938</v>
+        <v>0.8482451226311156</v>
       </c>
       <c r="U30">
         <v>0.381</v>
@@ -5913,10 +5913,10 @@
         <v>696</v>
       </c>
       <c r="AA30">
-        <v>36.46034482758624</v>
+        <v>36.46020114942532</v>
       </c>
       <c r="AB30">
-        <v>3.256786056911199</v>
+        <v>3.256614204137265</v>
       </c>
       <c r="AC30">
         <v>30.3</v>
@@ -5937,10 +5937,10 @@
         <v>696</v>
       </c>
       <c r="AI30">
-        <v>98.9666666666667</v>
+        <v>98.96609195402303</v>
       </c>
       <c r="AJ30">
-        <v>26.25159417335804</v>
+        <v>26.25186803274768</v>
       </c>
       <c r="AK30">
         <v>52.5</v>
@@ -5961,10 +5961,10 @@
         <v>696</v>
       </c>
       <c r="AQ30">
-        <v>1.045871120689657</v>
+        <v>1.045853879310346</v>
       </c>
       <c r="AR30">
-        <v>0.591760949486739</v>
+        <v>0.5916928579693859</v>
       </c>
       <c r="AS30">
         <v>0.0452</v>
@@ -5979,16 +5979,16 @@
         <v>1.48</v>
       </c>
       <c r="AW30">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="AX30">
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.4192045272988508</v>
+        <v>0.4191417140804598</v>
       </c>
       <c r="AZ30">
-        <v>0.7260602643166129</v>
+        <v>0.7260625940705572</v>
       </c>
       <c r="BA30">
         <v>-0.405</v>
@@ -5997,7 +5997,7 @@
         <v>-0.023075</v>
       </c>
       <c r="BC30">
-        <v>0.07575</v>
+        <v>0.0757</v>
       </c>
       <c r="BD30">
         <v>0.76625</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.4608390948275864</v>
+        <v>0.4607096522988506</v>
       </c>
       <c r="BH30">
-        <v>0.8835513201239347</v>
+        <v>0.8833662830570277</v>
       </c>
       <c r="BI30">
         <v>-0.661</v>
@@ -6062,10 +6062,10 @@
         <v>696</v>
       </c>
       <c r="K31">
-        <v>36.86666666666668</v>
+        <v>36.86652298850576</v>
       </c>
       <c r="L31">
-        <v>2.847289931151789</v>
+        <v>2.847396889103289</v>
       </c>
       <c r="M31">
         <v>29.9</v>
@@ -6086,10 +6086,10 @@
         <v>696</v>
       </c>
       <c r="S31">
-        <v>2.743665229885058</v>
+        <v>2.743535919540231</v>
       </c>
       <c r="T31">
-        <v>0.8452652020924772</v>
+        <v>0.8452117057192896</v>
       </c>
       <c r="U31">
         <v>0.381</v>
@@ -6134,10 +6134,10 @@
         <v>696</v>
       </c>
       <c r="AI31">
-        <v>98.78922413793093</v>
+        <v>98.78864942528726</v>
       </c>
       <c r="AJ31">
-        <v>26.18786992475199</v>
+        <v>26.18814110028488</v>
       </c>
       <c r="AK31">
         <v>52.2</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>1.044033764367818</v>
+        <v>1.044030747126439</v>
       </c>
       <c r="AR31">
-        <v>0.5905417685951175</v>
+        <v>0.5905449127615159</v>
       </c>
       <c r="AS31">
         <v>0.0451</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.3911256882183908</v>
+        <v>0.3910315704022989</v>
       </c>
       <c r="AZ31">
-        <v>0.6385408841484589</v>
+        <v>0.6384576001270474</v>
       </c>
       <c r="BA31">
         <v>-0.414</v>
@@ -6197,7 +6197,7 @@
         <v>0.07855000000000001</v>
       </c>
       <c r="BD31">
-        <v>0.79025</v>
+        <v>0.7895000000000001</v>
       </c>
       <c r="BE31">
         <v>3.27</v>
@@ -6206,13 +6206,13 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.4245566948275867</v>
+        <v>0.4244719778735636</v>
       </c>
       <c r="BH31">
-        <v>0.7692265279741446</v>
+        <v>0.7691969025465467</v>
       </c>
       <c r="BI31">
-        <v>-0.675</v>
+        <v>-0.676</v>
       </c>
       <c r="BJ31">
         <v>-0.0169</v>
@@ -6259,10 +6259,10 @@
         <v>696</v>
       </c>
       <c r="K32">
-        <v>36.8698275862069</v>
+        <v>36.86968390804599</v>
       </c>
       <c r="L32">
-        <v>2.859110486844836</v>
+        <v>2.859197032337276</v>
       </c>
       <c r="M32">
         <v>29.9</v>
@@ -6283,16 +6283,16 @@
         <v>696</v>
       </c>
       <c r="S32">
-        <v>2.748160919540224</v>
+        <v>2.748074712643673</v>
       </c>
       <c r="T32">
-        <v>0.8481383608254102</v>
+        <v>0.8481347762746999</v>
       </c>
       <c r="U32">
         <v>0.38</v>
       </c>
       <c r="V32">
-        <v>2.1975</v>
+        <v>2.19</v>
       </c>
       <c r="W32">
         <v>2.665</v>
@@ -6307,10 +6307,10 @@
         <v>696</v>
       </c>
       <c r="AA32">
-        <v>36.44626436781609</v>
+        <v>36.44612068965517</v>
       </c>
       <c r="AB32">
-        <v>3.244654771485588</v>
+        <v>3.24454817239119</v>
       </c>
       <c r="AC32">
         <v>30.3</v>
@@ -6331,10 +6331,10 @@
         <v>696</v>
       </c>
       <c r="AI32">
-        <v>98.80143678160914</v>
+        <v>98.80100574712637</v>
       </c>
       <c r="AJ32">
-        <v>26.16302455848323</v>
+        <v>26.1633075290094</v>
       </c>
       <c r="AK32">
         <v>52.3</v>
@@ -6355,10 +6355,10 @@
         <v>696</v>
       </c>
       <c r="AQ32">
-        <v>1.043937212643681</v>
+        <v>1.043934339080462</v>
       </c>
       <c r="AR32">
-        <v>0.5900680634636156</v>
+        <v>0.5900701992249532</v>
       </c>
       <c r="AS32">
         <v>0.0451</v>
@@ -6379,13 +6379,13 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.4204500205143679</v>
+        <v>0.4203421274856321</v>
       </c>
       <c r="AZ32">
-        <v>0.7036240847894196</v>
+        <v>0.7035698649031246</v>
       </c>
       <c r="BA32">
-        <v>-0.428</v>
+        <v>-0.429</v>
       </c>
       <c r="BB32">
         <v>-0.0126</v>
@@ -6394,7 +6394,7 @@
         <v>0.0814</v>
       </c>
       <c r="BD32">
-        <v>0.795</v>
+        <v>0.7947500000000001</v>
       </c>
       <c r="BE32">
         <v>3.44</v>
@@ -6403,25 +6403,25 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.4580634534669543</v>
+        <v>0.4579171008620692</v>
       </c>
       <c r="BH32">
-        <v>0.8623342986454641</v>
+        <v>0.8621682457818256</v>
       </c>
       <c r="BI32">
-        <v>-0.699</v>
+        <v>-0.7</v>
       </c>
       <c r="BJ32">
-        <v>-0.011525</v>
+        <v>-0.01155</v>
       </c>
       <c r="BK32">
-        <v>0.07494999999999999</v>
+        <v>0.07485</v>
       </c>
       <c r="BL32">
-        <v>0.50925</v>
+        <v>0.5085</v>
       </c>
       <c r="BM32">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>2.766561781609193</v>
+        <v>2.766461206896549</v>
       </c>
       <c r="T33">
-        <v>0.8536360919458047</v>
+        <v>0.8536945884164256</v>
       </c>
       <c r="U33">
         <v>0.379</v>
@@ -6528,10 +6528,10 @@
         <v>696</v>
       </c>
       <c r="AI33">
-        <v>98.95258620689668</v>
+        <v>98.95229885057482</v>
       </c>
       <c r="AJ33">
-        <v>26.11902846543434</v>
+        <v>26.11950665309757</v>
       </c>
       <c r="AK33">
         <v>52.8</v>
@@ -6552,10 +6552,10 @@
         <v>696</v>
       </c>
       <c r="AQ33">
-        <v>1.045569109195404</v>
+        <v>1.045566091954024</v>
       </c>
       <c r="AR33">
-        <v>0.5906299812178948</v>
+        <v>0.5906320681626722</v>
       </c>
       <c r="AS33">
         <v>0.0452</v>
@@ -6576,16 +6576,16 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.4509137916666668</v>
+        <v>0.4508413692528737</v>
       </c>
       <c r="AZ33">
-        <v>0.7454549485370958</v>
+        <v>0.7454107756946703</v>
       </c>
       <c r="BA33">
         <v>-0.439</v>
       </c>
       <c r="BB33">
-        <v>-0.00839</v>
+        <v>-0.008382499999999999</v>
       </c>
       <c r="BC33">
         <v>0.08599999999999999</v>
@@ -6600,19 +6600,19 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.4911333024425287</v>
+        <v>0.4910272202586207</v>
       </c>
       <c r="BH33">
-        <v>0.917981662477958</v>
+        <v>0.9179470789924449</v>
       </c>
       <c r="BI33">
-        <v>-0.716</v>
+        <v>-0.717</v>
       </c>
       <c r="BJ33">
         <v>-0.0070575</v>
       </c>
       <c r="BK33">
-        <v>0.07145</v>
+        <v>0.07120000000000001</v>
       </c>
       <c r="BL33">
         <v>0.52725</v>
@@ -6653,10 +6653,10 @@
         <v>696</v>
       </c>
       <c r="K34">
-        <v>36.9472701149425</v>
+        <v>36.94712643678159</v>
       </c>
       <c r="L34">
-        <v>2.868668458371454</v>
+        <v>2.868282080002864</v>
       </c>
       <c r="M34">
         <v>29.9</v>
@@ -6665,7 +6665,7 @@
         <v>35.2</v>
       </c>
       <c r="O34">
-        <v>37.4</v>
+        <v>37.34999999999999</v>
       </c>
       <c r="P34">
         <v>39.125</v>
@@ -6677,13 +6677,13 @@
         <v>696</v>
       </c>
       <c r="S34">
-        <v>2.824505747126442</v>
+        <v>2.824751436781615</v>
       </c>
       <c r="T34">
-        <v>0.8536256554715028</v>
+        <v>0.8537043698359926</v>
       </c>
       <c r="U34">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="V34">
         <v>2.28</v>
@@ -6725,16 +6725,16 @@
         <v>696</v>
       </c>
       <c r="AI34">
-        <v>99.48620689655164</v>
+        <v>99.48663793103439</v>
       </c>
       <c r="AJ34">
-        <v>26.34886282302304</v>
+        <v>26.34890918886055</v>
       </c>
       <c r="AK34">
         <v>53.7</v>
       </c>
       <c r="AL34">
-        <v>84.65000000000001</v>
+        <v>84.72499999999999</v>
       </c>
       <c r="AM34">
         <v>106</v>
@@ -6749,10 +6749,10 @@
         <v>696</v>
       </c>
       <c r="AQ34">
-        <v>1.051878160919541</v>
+        <v>1.051852298850576</v>
       </c>
       <c r="AR34">
-        <v>0.5949501113091992</v>
+        <v>0.5949431910928982</v>
       </c>
       <c r="AS34">
         <v>0.0454</v>
@@ -6773,16 +6773,16 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.408855821839081</v>
+        <v>0.4088396939655177</v>
       </c>
       <c r="AZ34">
-        <v>0.6066758338191073</v>
+        <v>0.6067474845634031</v>
       </c>
       <c r="BA34">
-        <v>-0.446</v>
+        <v>-0.447</v>
       </c>
       <c r="BB34">
-        <v>-0.0032225</v>
+        <v>-0.00321</v>
       </c>
       <c r="BC34">
         <v>0.103</v>
@@ -6797,22 +6797,22 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.4415635214080463</v>
+        <v>0.4415027359195403</v>
       </c>
       <c r="BH34">
-        <v>0.7509579732968507</v>
+        <v>0.7509550273373788</v>
       </c>
       <c r="BI34">
-        <v>-0.729</v>
+        <v>-0.73</v>
       </c>
       <c r="BJ34">
-        <v>-0.00217</v>
+        <v>-0.0021625</v>
       </c>
       <c r="BK34">
-        <v>0.0854</v>
+        <v>0.0852</v>
       </c>
       <c r="BL34">
-        <v>0.537</v>
+        <v>0.53625</v>
       </c>
       <c r="BM34">
         <v>3.71</v>
@@ -6850,10 +6850,10 @@
         <v>696</v>
       </c>
       <c r="K35">
-        <v>37.02528735632183</v>
+        <v>37.02011494252873</v>
       </c>
       <c r="L35">
-        <v>2.875526837566732</v>
+        <v>2.874536782403021</v>
       </c>
       <c r="M35">
         <v>29.9</v>
@@ -6874,22 +6874,22 @@
         <v>696</v>
       </c>
       <c r="S35">
-        <v>2.902448275862063</v>
+        <v>2.897110632183902</v>
       </c>
       <c r="T35">
-        <v>0.856562998256775</v>
+        <v>0.8565316362271845</v>
       </c>
       <c r="U35">
-        <v>0.385</v>
+        <v>0.376</v>
       </c>
       <c r="V35">
         <v>2.37</v>
       </c>
       <c r="W35">
-        <v>2.84</v>
+        <v>2.835</v>
       </c>
       <c r="X35">
-        <v>3.5</v>
+        <v>3.495</v>
       </c>
       <c r="Y35">
         <v>4.46</v>
@@ -6922,10 +6922,10 @@
         <v>696</v>
       </c>
       <c r="AI35">
-        <v>100.4044540229885</v>
+        <v>100.3876436781609</v>
       </c>
       <c r="AJ35">
-        <v>26.73847216656551</v>
+        <v>26.73547030223114</v>
       </c>
       <c r="AK35">
         <v>54.4</v>
@@ -6946,10 +6946,10 @@
         <v>696</v>
       </c>
       <c r="AQ35">
-        <v>1.061492385057473</v>
+        <v>1.061292672413795</v>
       </c>
       <c r="AR35">
-        <v>0.6019731486992413</v>
+        <v>0.6017733302709304</v>
       </c>
       <c r="AS35">
         <v>0.0457</v>
@@ -6970,16 +6970,16 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.3814603994252873</v>
+        <v>0.381281327586207</v>
       </c>
       <c r="AZ35">
-        <v>0.5283020750971125</v>
+        <v>0.5280944304231737</v>
       </c>
       <c r="BA35">
-        <v>-0.451</v>
+        <v>-0.452</v>
       </c>
       <c r="BB35">
-        <v>0.009532499999999999</v>
+        <v>0.009505</v>
       </c>
       <c r="BC35">
         <v>0.1255</v>
@@ -6988,28 +6988,28 @@
         <v>0.8067500000000001</v>
       </c>
       <c r="BE35">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="BF35">
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.4140122040229887</v>
+        <v>0.4137497543103449</v>
       </c>
       <c r="BH35">
-        <v>0.6870751867096285</v>
+        <v>0.6867151592579666</v>
       </c>
       <c r="BI35">
         <v>-0.738</v>
       </c>
       <c r="BJ35">
-        <v>0.006115</v>
+        <v>0.0061175</v>
       </c>
       <c r="BK35">
-        <v>0.1055</v>
+        <v>0.105</v>
       </c>
       <c r="BL35">
-        <v>0.49025</v>
+        <v>0.4895</v>
       </c>
       <c r="BM35">
         <v>3.08</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>2.976094827586205</v>
+        <v>2.976008620689653</v>
       </c>
       <c r="T36">
-        <v>0.8572549529189917</v>
+        <v>0.8572978579185666</v>
       </c>
       <c r="U36">
         <v>0.424</v>
@@ -7095,10 +7095,10 @@
         <v>696</v>
       </c>
       <c r="AA36">
-        <v>36.73721264367817</v>
+        <v>36.73750000000001</v>
       </c>
       <c r="AB36">
-        <v>3.149869517116775</v>
+        <v>3.149144282536166</v>
       </c>
       <c r="AC36">
         <v>30.4</v>
@@ -7119,10 +7119,10 @@
         <v>696</v>
       </c>
       <c r="AI36">
-        <v>101.1044540229884</v>
+        <v>101.1037356321838</v>
       </c>
       <c r="AJ36">
-        <v>27.18912436490474</v>
+        <v>27.18959466353664</v>
       </c>
       <c r="AK36">
         <v>54.9</v>
@@ -7143,10 +7143,10 @@
         <v>696</v>
       </c>
       <c r="AQ36">
-        <v>1.068640517241381</v>
+        <v>1.068637500000001</v>
       </c>
       <c r="AR36">
-        <v>0.6080224027695521</v>
+        <v>0.6080240946939665</v>
       </c>
       <c r="AS36">
         <v>0.0462</v>
@@ -7167,16 +7167,16 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.3637966688922415</v>
+        <v>0.3637204481321838</v>
       </c>
       <c r="AZ36">
-        <v>0.5404602356131346</v>
+        <v>0.5404436131730993</v>
       </c>
       <c r="BA36">
         <v>-0.452</v>
       </c>
       <c r="BB36">
-        <v>0.0055225</v>
+        <v>0.005525</v>
       </c>
       <c r="BC36">
         <v>0.119</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.3947533130344827</v>
+        <v>0.3945953791666669</v>
       </c>
       <c r="BH36">
-        <v>0.6707236145168287</v>
+        <v>0.6705965247741407</v>
       </c>
       <c r="BI36">
         <v>-0.739</v>
@@ -7244,10 +7244,10 @@
         <v>696</v>
       </c>
       <c r="K37">
-        <v>37.12859195402302</v>
+        <v>37.12844827586211</v>
       </c>
       <c r="L37">
-        <v>2.871447387796754</v>
+        <v>2.871431278768076</v>
       </c>
       <c r="M37">
         <v>30</v>
@@ -7268,10 +7268,10 @@
         <v>696</v>
       </c>
       <c r="S37">
-        <v>3.006899425287357</v>
+        <v>3.00685632183908</v>
       </c>
       <c r="T37">
-        <v>0.8587435601507527</v>
+        <v>0.8587346066455128</v>
       </c>
       <c r="U37">
         <v>0.437</v>
@@ -7292,10 +7292,10 @@
         <v>696</v>
       </c>
       <c r="AA37">
-        <v>36.75962643678164</v>
+        <v>36.75948275862071</v>
       </c>
       <c r="AB37">
-        <v>3.179565035831832</v>
+        <v>3.179379925471896</v>
       </c>
       <c r="AC37">
         <v>30.4</v>
@@ -7316,16 +7316,16 @@
         <v>696</v>
       </c>
       <c r="AI37">
-        <v>101.4110632183907</v>
+        <v>101.4090517241378</v>
       </c>
       <c r="AJ37">
-        <v>27.31420703967205</v>
+        <v>27.31391173126814</v>
       </c>
       <c r="AK37">
         <v>55.1</v>
       </c>
       <c r="AL37">
-        <v>87.25</v>
+        <v>87.17500000000001</v>
       </c>
       <c r="AM37">
         <v>107</v>
@@ -7340,10 +7340,10 @@
         <v>696</v>
       </c>
       <c r="AQ37">
-        <v>1.072126867816093</v>
+        <v>1.072125431034484</v>
       </c>
       <c r="AR37">
-        <v>0.6106858393637304</v>
+        <v>0.6106874359299455</v>
       </c>
       <c r="AS37">
         <v>0.0465</v>
@@ -7364,16 +7364,16 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.367673962643678</v>
+        <v>0.367590113505747</v>
       </c>
       <c r="AZ37">
-        <v>0.6034672303573995</v>
+        <v>0.6033597029351231</v>
       </c>
       <c r="BA37">
         <v>-0.444</v>
       </c>
       <c r="BB37">
-        <v>0.00359</v>
+        <v>0.0036125</v>
       </c>
       <c r="BC37">
         <v>0.112</v>
@@ -7388,16 +7388,16 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.4094404826149426</v>
+        <v>0.4093832211206898</v>
       </c>
       <c r="BH37">
-        <v>0.7666913019856835</v>
+        <v>0.7666962150905948</v>
       </c>
       <c r="BI37">
         <v>-0.726</v>
       </c>
       <c r="BJ37">
-        <v>0.0027625</v>
+        <v>0.00277</v>
       </c>
       <c r="BK37">
         <v>0.09605</v>
@@ -7465,10 +7465,10 @@
         <v>696</v>
       </c>
       <c r="S38">
-        <v>3.02553160919541</v>
+        <v>3.025416666666672</v>
       </c>
       <c r="T38">
-        <v>0.815853530464925</v>
+        <v>0.8158703514993269</v>
       </c>
       <c r="U38">
         <v>1.57</v>
@@ -7513,10 +7513,10 @@
         <v>696</v>
       </c>
       <c r="AI38">
-        <v>101.444540229885</v>
+        <v>101.4442528735632</v>
       </c>
       <c r="AJ38">
-        <v>27.29228418259298</v>
+        <v>27.29246547967008</v>
       </c>
       <c r="AK38">
         <v>55.1</v>
@@ -7561,16 +7561,16 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.4101727985632187</v>
+        <v>0.410105023994253</v>
       </c>
       <c r="AZ38">
-        <v>0.6597182262980118</v>
+        <v>0.6597044260198722</v>
       </c>
       <c r="BA38">
         <v>-0.139</v>
       </c>
       <c r="BB38">
-        <v>5.6875E-05</v>
+        <v>6.547500000000001E-05</v>
       </c>
       <c r="BC38">
         <v>0.1285</v>
@@ -7585,16 +7585,16 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.4672978455459772</v>
+        <v>0.4671778668103453</v>
       </c>
       <c r="BH38">
-        <v>0.8444616744002248</v>
+        <v>0.8443618715906714</v>
       </c>
       <c r="BI38">
         <v>-0.197</v>
       </c>
       <c r="BJ38">
-        <v>3.1375E-05</v>
+        <v>3.8975E-05</v>
       </c>
       <c r="BK38">
         <v>0.09620000000000001</v>
@@ -7638,10 +7638,10 @@
         <v>696</v>
       </c>
       <c r="K39">
-        <v>37.19540229885057</v>
+        <v>37.19353448275861</v>
       </c>
       <c r="L39">
-        <v>2.671556894546786</v>
+        <v>2.670796207415131</v>
       </c>
       <c r="M39">
         <v>32.3</v>
@@ -7662,10 +7662,10 @@
         <v>696</v>
       </c>
       <c r="S39">
-        <v>3.07318965517241</v>
+        <v>3.071767241379308</v>
       </c>
       <c r="T39">
-        <v>0.7013213827944877</v>
+        <v>0.7011890479729925</v>
       </c>
       <c r="U39">
         <v>1.79</v>
@@ -7686,10 +7686,10 @@
         <v>696</v>
       </c>
       <c r="AA39">
-        <v>36.76609195402303</v>
+        <v>36.7659482758621</v>
       </c>
       <c r="AB39">
-        <v>3.084348926811565</v>
+        <v>3.084261037888777</v>
       </c>
       <c r="AC39">
         <v>31.5</v>
@@ -7710,10 +7710,10 @@
         <v>696</v>
       </c>
       <c r="AI39">
-        <v>101.552011494253</v>
+        <v>101.5479885057472</v>
       </c>
       <c r="AJ39">
-        <v>27.382465564819</v>
+        <v>27.38207882087089</v>
       </c>
       <c r="AK39">
         <v>54.8</v>
@@ -7734,10 +7734,10 @@
         <v>696</v>
       </c>
       <c r="AQ39">
-        <v>1.074371264367816</v>
+        <v>1.074316666666667</v>
       </c>
       <c r="AR39">
-        <v>0.6121608784706108</v>
+        <v>0.6121234020350346</v>
       </c>
       <c r="AS39">
         <v>0.0463</v>
@@ -7758,16 +7758,16 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.4286928146551726</v>
+        <v>0.4286451465517245</v>
       </c>
       <c r="AZ39">
-        <v>0.612740480440363</v>
+        <v>0.6127235733591467</v>
       </c>
       <c r="BA39">
         <v>-0.16</v>
       </c>
       <c r="BB39">
-        <v>-0.0090925</v>
+        <v>-0.009090000000000001</v>
       </c>
       <c r="BC39">
         <v>0.1145</v>
@@ -7782,22 +7782,22 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.4932832658045976</v>
+        <v>0.49321125</v>
       </c>
       <c r="BH39">
-        <v>0.7682102036029987</v>
+        <v>0.7681601835399334</v>
       </c>
       <c r="BI39">
         <v>-0.236</v>
       </c>
       <c r="BJ39">
-        <v>-0.0072225</v>
+        <v>-0.007215</v>
       </c>
       <c r="BK39">
         <v>0.08765000000000001</v>
       </c>
       <c r="BL39">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="BM39">
         <v>3.66</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>3.18702586206896</v>
+        <v>3.186982758620685</v>
       </c>
       <c r="T40">
-        <v>0.6372164552496918</v>
+        <v>0.6372272036368386</v>
       </c>
       <c r="U40">
         <v>2.22</v>
@@ -7883,10 +7883,10 @@
         <v>696</v>
       </c>
       <c r="AA40">
-        <v>36.92500000000005</v>
+        <v>36.92514367816096</v>
       </c>
       <c r="AB40">
-        <v>2.823148148366625</v>
+        <v>2.822940450148087</v>
       </c>
       <c r="AC40">
         <v>32.4</v>
@@ -7907,10 +7907,10 @@
         <v>696</v>
       </c>
       <c r="AI40">
-        <v>102.2349137931033</v>
+        <v>102.2346264367815</v>
       </c>
       <c r="AJ40">
-        <v>27.87860068933584</v>
+        <v>27.87871768937972</v>
       </c>
       <c r="AK40">
         <v>54.7</v>
@@ -7955,16 +7955,16 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.3925580732758617</v>
+        <v>0.3924684497126434</v>
       </c>
       <c r="AZ40">
-        <v>0.4908366541958482</v>
+        <v>0.4907288283691587</v>
       </c>
       <c r="BA40">
         <v>-0.17</v>
       </c>
       <c r="BB40">
-        <v>-0.00987</v>
+        <v>-0.009860000000000001</v>
       </c>
       <c r="BC40">
         <v>0.1095</v>
@@ -7979,22 +7979,22 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.4663382228448274</v>
+        <v>0.4661999507183909</v>
       </c>
       <c r="BH40">
-        <v>0.6587421487020975</v>
+        <v>0.6585784542267631</v>
       </c>
       <c r="BI40">
         <v>-0.255</v>
       </c>
       <c r="BJ40">
-        <v>-0.0085475</v>
+        <v>-0.008545000000000001</v>
       </c>
       <c r="BK40">
         <v>0.08674999999999999</v>
       </c>
       <c r="BL40">
-        <v>0.9675</v>
+        <v>0.96675</v>
       </c>
       <c r="BM40">
         <v>2.69</v>
@@ -8032,10 +8032,10 @@
         <v>696</v>
       </c>
       <c r="K41">
-        <v>37.50603448275854</v>
+        <v>37.50589080459762</v>
       </c>
       <c r="L41">
-        <v>2.175353987623875</v>
+        <v>2.17527831600648</v>
       </c>
       <c r="M41">
         <v>34.4</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>3.386192528735633</v>
+        <v>3.386163793103449</v>
       </c>
       <c r="T41">
-        <v>0.7651879067676943</v>
+        <v>0.7651981050941599</v>
       </c>
       <c r="U41">
         <v>2.25</v>
@@ -8104,10 +8104,10 @@
         <v>696</v>
       </c>
       <c r="AI41">
-        <v>104.1610632183908</v>
+        <v>104.160632183908</v>
       </c>
       <c r="AJ41">
-        <v>29.2467659114305</v>
+        <v>29.24694367164099</v>
       </c>
       <c r="AK41">
         <v>54.6</v>
@@ -8128,10 +8128,10 @@
         <v>696</v>
       </c>
       <c r="AQ41">
-        <v>1.107807040229886</v>
+        <v>1.107804166666668</v>
       </c>
       <c r="AR41">
-        <v>0.6405030332857183</v>
+        <v>0.6405051440584588</v>
       </c>
       <c r="AS41">
         <v>0.0462</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.3793751767241377</v>
+        <v>0.379301811781609</v>
       </c>
       <c r="AZ41">
-        <v>0.4705267818257682</v>
+        <v>0.4704617170195333</v>
       </c>
       <c r="BA41">
         <v>-0.171</v>
@@ -8167,7 +8167,7 @@
         <v>0.113</v>
       </c>
       <c r="BD41">
-        <v>0.75225</v>
+        <v>0.7515000000000001</v>
       </c>
       <c r="BE41">
         <v>1.87</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.4700694956896547</v>
+        <v>0.4699940287356316</v>
       </c>
       <c r="BH41">
-        <v>0.672332199583921</v>
+        <v>0.672242977611166</v>
       </c>
       <c r="BI41">
         <v>-0.255</v>
@@ -8191,7 +8191,7 @@
         <v>0.0922</v>
       </c>
       <c r="BL41">
-        <v>0.9057500000000001</v>
+        <v>0.9055</v>
       </c>
       <c r="BM41">
         <v>2.72</v>
@@ -8253,13 +8253,13 @@
         <v>696</v>
       </c>
       <c r="S42">
-        <v>3.736321839080458</v>
+        <v>3.73626436781609</v>
       </c>
       <c r="T42">
-        <v>1.020373456747381</v>
+        <v>1.020437406112334</v>
       </c>
       <c r="U42">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="V42">
         <v>2.8975</v>
@@ -8301,10 +8301,10 @@
         <v>696</v>
       </c>
       <c r="AI42">
-        <v>108.7813218390804</v>
+        <v>108.7808908045976</v>
       </c>
       <c r="AJ42">
-        <v>34.03544316784368</v>
+        <v>34.03570017072953</v>
       </c>
       <c r="AK42">
         <v>54.7</v>
@@ -8325,10 +8325,10 @@
         <v>696</v>
       </c>
       <c r="AQ42">
-        <v>1.161768247126438</v>
+        <v>1.16176537356322</v>
       </c>
       <c r="AR42">
-        <v>0.6968644744930311</v>
+        <v>0.6968661253258203</v>
       </c>
       <c r="AS42">
         <v>0.0465</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.4363295000000005</v>
+        <v>0.4362714022988511</v>
       </c>
       <c r="AZ42">
-        <v>0.5229416298573581</v>
+        <v>0.5228973698183643</v>
       </c>
       <c r="BA42">
         <v>-0.167</v>
@@ -8373,16 +8373,16 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.5733882097701145</v>
+        <v>0.5733305890804592</v>
       </c>
       <c r="BH42">
-        <v>0.7832482183894309</v>
+        <v>0.7832173894377441</v>
       </c>
       <c r="BI42">
         <v>-0.246</v>
       </c>
       <c r="BJ42">
-        <v>-0.0047575</v>
+        <v>-0.00477</v>
       </c>
       <c r="BK42">
         <v>0.105</v>
@@ -8426,10 +8426,10 @@
         <v>696</v>
       </c>
       <c r="K43">
-        <v>38.32040229885067</v>
+        <v>38.31982758620699</v>
       </c>
       <c r="L43">
-        <v>1.430032593760621</v>
+        <v>1.429799190665031</v>
       </c>
       <c r="M43">
         <v>36.4</v>
@@ -8450,10 +8450,10 @@
         <v>696</v>
       </c>
       <c r="S43">
-        <v>4.19942528735632</v>
+        <v>4.199094827586205</v>
       </c>
       <c r="T43">
-        <v>1.346024132099481</v>
+        <v>1.346114114130364</v>
       </c>
       <c r="U43">
         <v>2.31</v>
@@ -8498,10 +8498,10 @@
         <v>696</v>
       </c>
       <c r="AI43">
-        <v>116.022988505747</v>
+        <v>116.0209770114942</v>
       </c>
       <c r="AJ43">
-        <v>42.43660650296673</v>
+        <v>42.43733482053243</v>
       </c>
       <c r="AK43">
         <v>54.6</v>
@@ -8522,10 +8522,10 @@
         <v>696</v>
       </c>
       <c r="AQ43">
-        <v>1.242031321839081</v>
+        <v>1.242009626436782</v>
       </c>
       <c r="AR43">
-        <v>0.7922022272677817</v>
+        <v>0.7922039488017762</v>
       </c>
       <c r="AS43">
         <v>0.0479</v>
@@ -8546,16 +8546,16 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.524953130747126</v>
+        <v>0.5248745071839076</v>
       </c>
       <c r="AZ43">
-        <v>0.6173323513061699</v>
+        <v>0.6172471882142448</v>
       </c>
       <c r="BA43">
         <v>-0.163</v>
       </c>
       <c r="BB43">
-        <v>-0.0007935</v>
+        <v>-0.000792</v>
       </c>
       <c r="BC43">
         <v>0.158</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.7462978376436782</v>
+        <v>0.7462534841954023</v>
       </c>
       <c r="BH43">
-        <v>0.9825477342146018</v>
+        <v>0.9824999735040871</v>
       </c>
       <c r="BI43">
         <v>-0.258</v>
@@ -8623,10 +8623,10 @@
         <v>696</v>
       </c>
       <c r="K44">
-        <v>38.90833333333347</v>
+        <v>38.90718390804611</v>
       </c>
       <c r="L44">
-        <v>1.03413096777593</v>
+        <v>1.034793331091587</v>
       </c>
       <c r="M44">
         <v>37.5</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>4.783448275862066</v>
+        <v>4.781767241379306</v>
       </c>
       <c r="T44">
-        <v>1.699932848499345</v>
+        <v>1.699681953445342</v>
       </c>
       <c r="U44">
         <v>2.38</v>
@@ -8659,7 +8659,7 @@
         <v>3.3175</v>
       </c>
       <c r="W44">
-        <v>4.505</v>
+        <v>4.5</v>
       </c>
       <c r="X44">
         <v>5.95</v>
@@ -8671,10 +8671,10 @@
         <v>696</v>
       </c>
       <c r="AA44">
-        <v>38.32772988505747</v>
+        <v>38.32801724137931</v>
       </c>
       <c r="AB44">
-        <v>1.542312014462221</v>
+        <v>1.542054904728984</v>
       </c>
       <c r="AC44">
         <v>35.2</v>
@@ -8695,10 +8695,10 @@
         <v>696</v>
       </c>
       <c r="AI44">
-        <v>125.8487068965517</v>
+        <v>125.8422413793103</v>
       </c>
       <c r="AJ44">
-        <v>52.45826678152036</v>
+        <v>52.45645481680407</v>
       </c>
       <c r="AK44">
         <v>54.7</v>
@@ -8719,10 +8719,10 @@
         <v>696</v>
       </c>
       <c r="AQ44">
-        <v>1.341555459770115</v>
+        <v>1.341509482758621</v>
       </c>
       <c r="AR44">
-        <v>0.8882567775735806</v>
+        <v>0.8882142586138273</v>
       </c>
       <c r="AS44">
         <v>0.0514</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.5908745968390806</v>
+        <v>0.5907738558908048</v>
       </c>
       <c r="AZ44">
-        <v>0.6560319454935039</v>
+        <v>0.6559129479497602</v>
       </c>
       <c r="BA44">
         <v>-0.161</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.9058472068965505</v>
+        <v>0.9057348620689645</v>
       </c>
       <c r="BH44">
-        <v>1.145536514322282</v>
+        <v>1.145396933909776</v>
       </c>
       <c r="BI44">
         <v>-0.254</v>
@@ -8820,10 +8820,10 @@
         <v>696</v>
       </c>
       <c r="K45">
-        <v>39.07140804597725</v>
+        <v>39.07155172413817</v>
       </c>
       <c r="L45">
-        <v>0.8607350214460905</v>
+        <v>0.8609988545501074</v>
       </c>
       <c r="M45">
         <v>38.4</v>
@@ -8844,10 +8844,10 @@
         <v>696</v>
       </c>
       <c r="S45">
-        <v>4.939224137931033</v>
+        <v>4.940043103448274</v>
       </c>
       <c r="T45">
-        <v>1.801351363643809</v>
+        <v>1.801305161794969</v>
       </c>
       <c r="U45">
         <v>2.43</v>
@@ -8859,10 +8859,10 @@
         <v>4.67</v>
       </c>
       <c r="X45">
-        <v>6.2525</v>
+        <v>6.26</v>
       </c>
       <c r="Y45">
-        <v>8.81</v>
+        <v>8.82</v>
       </c>
       <c r="Z45">
         <v>696</v>
@@ -8892,10 +8892,10 @@
         <v>696</v>
       </c>
       <c r="AI45">
-        <v>128.7987068965517</v>
+        <v>128.8</v>
       </c>
       <c r="AJ45">
-        <v>54.992122769273</v>
+        <v>54.9917406486496</v>
       </c>
       <c r="AK45">
         <v>54.5</v>
@@ -8916,10 +8916,10 @@
         <v>696</v>
       </c>
       <c r="AQ45">
-        <v>1.374170114942528</v>
+        <v>1.374177442528735</v>
       </c>
       <c r="AR45">
-        <v>0.9174755960829455</v>
+        <v>0.9174972784668225</v>
       </c>
       <c r="AS45">
         <v>0.0562</v>
@@ -8940,22 +8940,22 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.4957445100574711</v>
+        <v>0.4957255014367815</v>
       </c>
       <c r="AZ45">
-        <v>0.59509866414048</v>
+        <v>0.5950880856103536</v>
       </c>
       <c r="BA45">
         <v>-0.184</v>
       </c>
       <c r="BB45">
-        <v>0.0006612499999999999</v>
+        <v>0.0006705</v>
       </c>
       <c r="BC45">
         <v>0.171</v>
       </c>
       <c r="BD45">
-        <v>0.94375</v>
+        <v>0.9435</v>
       </c>
       <c r="BE45">
         <v>2.31</v>
@@ -8964,16 +8964,16 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.7947294985632183</v>
+        <v>0.7946270070402296</v>
       </c>
       <c r="BH45">
-        <v>1.071311130457349</v>
+        <v>1.071162606015647</v>
       </c>
       <c r="BI45">
         <v>-0.291</v>
       </c>
       <c r="BJ45">
-        <v>0.0002235</v>
+        <v>0.0002255</v>
       </c>
       <c r="BK45">
         <v>0.18</v>
@@ -9017,10 +9017,10 @@
         <v>696</v>
       </c>
       <c r="K46">
-        <v>39.04439655172433</v>
+        <v>39.04382183908065</v>
       </c>
       <c r="L46">
-        <v>0.841545466399092</v>
+        <v>0.8412849318502871</v>
       </c>
       <c r="M46">
         <v>38.3</v>
@@ -9041,10 +9041,10 @@
         <v>696</v>
       </c>
       <c r="S46">
-        <v>4.914339080459766</v>
+        <v>4.913433908045974</v>
       </c>
       <c r="T46">
-        <v>1.821536032965414</v>
+        <v>1.821578449428992</v>
       </c>
       <c r="U46">
         <v>2.37</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>128.590948275862</v>
+        <v>128.5870689655172</v>
       </c>
       <c r="AJ46">
-        <v>55.08727298176147</v>
+        <v>55.08744132976218</v>
       </c>
       <c r="AK46">
         <v>54.1</v>
@@ -9113,10 +9113,10 @@
         <v>696</v>
       </c>
       <c r="AQ46">
-        <v>1.372090373563218</v>
+        <v>1.372087499999999</v>
       </c>
       <c r="AR46">
-        <v>0.9174813832667185</v>
+        <v>0.9174844212593459</v>
       </c>
       <c r="AS46">
         <v>0.0562</v>
@@ -9137,16 +9137,16 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.4474011178160922</v>
+        <v>0.4473377658045981</v>
       </c>
       <c r="AZ46">
-        <v>0.5747242544726796</v>
+        <v>0.5746770885236172</v>
       </c>
       <c r="BA46">
         <v>-0.209</v>
       </c>
       <c r="BB46">
-        <v>-0.00573</v>
+        <v>-0.0057225</v>
       </c>
       <c r="BC46">
         <v>0.113</v>
@@ -9161,16 +9161,16 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.7337948218390802</v>
+        <v>0.7337345761494251</v>
       </c>
       <c r="BH46">
-        <v>1.050094153487843</v>
+        <v>1.050030839244027</v>
       </c>
       <c r="BI46">
         <v>-0.33</v>
       </c>
       <c r="BJ46">
-        <v>-0.0053175</v>
+        <v>-0.005305</v>
       </c>
       <c r="BK46">
         <v>0.129</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>4.921235632183909</v>
+        <v>4.921192528735634</v>
       </c>
       <c r="T47">
-        <v>1.822658954730942</v>
+        <v>1.822701098714063</v>
       </c>
       <c r="U47">
         <v>2.38</v>
@@ -9262,10 +9262,10 @@
         <v>696</v>
       </c>
       <c r="AA47">
-        <v>38.65057471264366</v>
+        <v>38.65071839080458</v>
       </c>
       <c r="AB47">
-        <v>1.237367692289069</v>
+        <v>1.237286216287006</v>
       </c>
       <c r="AC47">
         <v>36.1</v>
@@ -9286,10 +9286,10 @@
         <v>696</v>
       </c>
       <c r="AI47">
-        <v>128.6514367816092</v>
+        <v>128.6512931034483</v>
       </c>
       <c r="AJ47">
-        <v>55.15893450282235</v>
+        <v>55.15909362776249</v>
       </c>
       <c r="AK47">
         <v>54.2</v>
@@ -9334,16 +9334,16 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.3986160336206894</v>
+        <v>0.3985601067528734</v>
       </c>
       <c r="AZ47">
-        <v>0.5092864308032168</v>
+        <v>0.5092507948205542</v>
       </c>
       <c r="BA47">
         <v>-0.195</v>
       </c>
       <c r="BB47">
-        <v>5.384999999999999E-05</v>
+        <v>6.34E-05</v>
       </c>
       <c r="BC47">
         <v>0.102</v>
@@ -9358,16 +9358,16 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.6590368048850567</v>
+        <v>0.6589018420977004</v>
       </c>
       <c r="BH47">
-        <v>0.9509871396216798</v>
+        <v>0.9508615883693209</v>
       </c>
       <c r="BI47">
         <v>-0.308</v>
       </c>
       <c r="BJ47">
-        <v>7.96E-05</v>
+        <v>8.3125E-05</v>
       </c>
       <c r="BK47">
         <v>0.1145</v>
@@ -9435,13 +9435,13 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>4.967787356321841</v>
+        <v>4.967772988505749</v>
       </c>
       <c r="T48">
-        <v>1.828365387238005</v>
+        <v>1.828407589641668</v>
       </c>
       <c r="U48">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="V48">
         <v>3.25</v>
@@ -9483,10 +9483,10 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>129.2043103448276</v>
+        <v>129.2041666666667</v>
       </c>
       <c r="AJ48">
-        <v>55.46605737712515</v>
+        <v>55.46614156683113</v>
       </c>
       <c r="AK48">
         <v>54.4</v>
@@ -9531,16 +9531,16 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.257982197557471</v>
+        <v>0.2579483612068963</v>
       </c>
       <c r="AZ48">
-        <v>0.3278590664893009</v>
+        <v>0.3278278053930956</v>
       </c>
       <c r="BA48">
         <v>-0.184</v>
       </c>
       <c r="BB48">
-        <v>0.00329</v>
+        <v>0.0032975</v>
       </c>
       <c r="BC48">
         <v>0.0963</v>
@@ -9555,22 +9555,22 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.4217113685344831</v>
+        <v>0.4216325530172417</v>
       </c>
       <c r="BH48">
-        <v>0.622002505995399</v>
+        <v>0.6219297176425688</v>
       </c>
       <c r="BI48">
         <v>-0.29</v>
       </c>
       <c r="BJ48">
-        <v>0.00227</v>
+        <v>0.002285</v>
       </c>
       <c r="BK48">
         <v>0.108</v>
       </c>
       <c r="BL48">
-        <v>0.7857500000000001</v>
+        <v>0.7855000000000001</v>
       </c>
       <c r="BM48">
         <v>3.4</v>
@@ -9704,10 +9704,10 @@
         <v>696</v>
       </c>
       <c r="AQ49">
-        <v>1.384308477011496</v>
+        <v>1.384292672413795</v>
       </c>
       <c r="AR49">
-        <v>0.9250431260100229</v>
+        <v>0.9250359768796942</v>
       </c>
       <c r="AS49">
         <v>0.0568</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.174315113505747</v>
+        <v>0.1742795086206897</v>
       </c>
       <c r="AZ49">
-        <v>0.2394052168440265</v>
+        <v>0.2393788214582114</v>
       </c>
       <c r="BA49">
         <v>-0.146</v>
@@ -9752,16 +9752,16 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.286180167816092</v>
+        <v>0.2860965517241378</v>
       </c>
       <c r="BH49">
-        <v>0.4963685816491346</v>
+        <v>0.4962877532193473</v>
       </c>
       <c r="BI49">
         <v>-0.23</v>
       </c>
       <c r="BJ49">
-        <v>0.0080225</v>
+        <v>0.008025000000000001</v>
       </c>
       <c r="BK49">
         <v>0.09725</v>
@@ -9829,10 +9829,10 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>5.009798850574708</v>
+        <v>5.009770114942524</v>
       </c>
       <c r="T50">
-        <v>1.811123730757726</v>
+        <v>1.811136597392629</v>
       </c>
       <c r="U50">
         <v>2.48</v>
@@ -9853,10 +9853,10 @@
         <v>696</v>
       </c>
       <c r="AA50">
-        <v>38.89367816091953</v>
+        <v>38.8935344827586</v>
       </c>
       <c r="AB50">
-        <v>1.092980996568785</v>
+        <v>1.092934078308775</v>
       </c>
       <c r="AC50">
         <v>36.9</v>
@@ -9877,10 +9877,10 @@
         <v>696</v>
       </c>
       <c r="AI50">
-        <v>129.7593390804598</v>
+        <v>129.7591954022989</v>
       </c>
       <c r="AJ50">
-        <v>55.53287987479532</v>
+        <v>55.53302525290849</v>
       </c>
       <c r="AK50">
         <v>54.8</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.2290205562212642</v>
+        <v>0.2289871197557471</v>
       </c>
       <c r="AZ50">
-        <v>0.3216600058543773</v>
+        <v>0.3216388456752938</v>
       </c>
       <c r="BA50">
         <v>-0.156</v>
@@ -9949,16 +9949,16 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.381863032183908</v>
+        <v>0.3817343067816093</v>
       </c>
       <c r="BH50">
-        <v>0.5969194159732151</v>
+        <v>0.5967258047643843</v>
       </c>
       <c r="BI50">
         <v>-0.246</v>
       </c>
       <c r="BJ50">
-        <v>0.00039025</v>
+        <v>0.000392</v>
       </c>
       <c r="BK50">
         <v>0.06985</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>4.978218390804595</v>
+        <v>4.978189655172412</v>
       </c>
       <c r="T51">
-        <v>1.81912216587977</v>
+        <v>1.819154408262658</v>
       </c>
       <c r="U51">
         <v>2.43</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.2795268162356321</v>
+        <v>0.2794772984195402</v>
       </c>
       <c r="AZ51">
-        <v>0.3894892159146107</v>
+        <v>0.3894574803968184</v>
       </c>
       <c r="BA51">
         <v>-0.179</v>
@@ -10134,10 +10134,10 @@
         <v>-0.0048075</v>
       </c>
       <c r="BC51">
-        <v>0.06279999999999999</v>
+        <v>0.06275</v>
       </c>
       <c r="BD51">
-        <v>0.50925</v>
+        <v>0.5085</v>
       </c>
       <c r="BE51">
         <v>1.67</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.4481562329597696</v>
+        <v>0.4480323778735629</v>
       </c>
       <c r="BH51">
-        <v>0.6623654419674264</v>
+        <v>0.6622508686090538</v>
       </c>
       <c r="BI51">
         <v>-0.282</v>
@@ -10161,7 +10161,7 @@
         <v>0.05905</v>
       </c>
       <c r="BL51">
-        <v>0.8254999999999999</v>
+        <v>0.82475</v>
       </c>
       <c r="BM51">
         <v>2.96</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>39.07557471264388</v>
+        <v>39.07586206896572</v>
       </c>
       <c r="L52">
-        <v>0.8360275804501285</v>
+        <v>0.8358121736255989</v>
       </c>
       <c r="M52">
         <v>38.4</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>4.957528735632176</v>
+        <v>4.957945402298843</v>
       </c>
       <c r="T52">
-        <v>1.831971674180694</v>
+        <v>1.831875385289794</v>
       </c>
       <c r="U52">
         <v>2.39</v>
@@ -10247,10 +10247,10 @@
         <v>696</v>
       </c>
       <c r="AA52">
-        <v>38.80244252873566</v>
+        <v>38.80258620689658</v>
       </c>
       <c r="AB52">
-        <v>1.124063701631447</v>
+        <v>1.12394176916393</v>
       </c>
       <c r="AC52">
         <v>36.7</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>129.2104885057472</v>
+        <v>129.210775862069</v>
       </c>
       <c r="AJ52">
-        <v>55.45935388190547</v>
+        <v>55.45899371998322</v>
       </c>
       <c r="AK52">
         <v>54.3</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>1.377994827586207</v>
+        <v>1.378010632183908</v>
       </c>
       <c r="AR52">
-        <v>0.9220371517830356</v>
+        <v>0.9220578618224918</v>
       </c>
       <c r="AS52">
         <v>0.0565</v>
@@ -10319,19 +10319,19 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.2735260643678163</v>
+        <v>0.2734853474137934</v>
       </c>
       <c r="AZ52">
-        <v>0.4064774288459441</v>
+        <v>0.4064642784218677</v>
       </c>
       <c r="BA52">
         <v>-0.197</v>
       </c>
       <c r="BB52">
-        <v>-0.00702</v>
+        <v>-0.0070125</v>
       </c>
       <c r="BC52">
-        <v>0.05605</v>
+        <v>0.056</v>
       </c>
       <c r="BD52">
         <v>0.44725</v>
@@ -10343,16 +10343,16 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.4233782448275863</v>
+        <v>0.4232527448275861</v>
       </c>
       <c r="BH52">
-        <v>0.6633377796915534</v>
+        <v>0.6631666070123452</v>
       </c>
       <c r="BI52">
         <v>-0.31</v>
       </c>
       <c r="BJ52">
-        <v>-0.0073225</v>
+        <v>-0.007315</v>
       </c>
       <c r="BK52">
         <v>0.05705</v>
@@ -10396,10 +10396,10 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>39.0969827586209</v>
+        <v>39.09827586206918</v>
       </c>
       <c r="L53">
-        <v>0.8473434269264971</v>
+        <v>0.8466420604168484</v>
       </c>
       <c r="M53">
         <v>38.4</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>4.978132183908043</v>
+        <v>4.978979885057469</v>
       </c>
       <c r="T53">
-        <v>1.82179284445674</v>
+        <v>1.821788660052796</v>
       </c>
       <c r="U53">
         <v>2.43</v>
@@ -10435,10 +10435,10 @@
         <v>4.7</v>
       </c>
       <c r="X53">
-        <v>6.3325</v>
+        <v>6.34</v>
       </c>
       <c r="Y53">
-        <v>8.9</v>
+        <v>8.91</v>
       </c>
       <c r="Z53">
         <v>696</v>
@@ -10468,10 +10468,10 @@
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>129.2883620689656</v>
+        <v>129.2902298850575</v>
       </c>
       <c r="AJ53">
-        <v>55.42832815632644</v>
+        <v>55.42757973297214</v>
       </c>
       <c r="AK53">
         <v>54.4</v>
@@ -10492,10 +10492,10 @@
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>1.378826580459772</v>
+        <v>1.378862500000001</v>
       </c>
       <c r="AR53">
-        <v>0.922120226246109</v>
+        <v>0.9221154240172061</v>
       </c>
       <c r="AS53">
         <v>0.0565</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.3046346436781606</v>
+        <v>0.3045579468390802</v>
       </c>
       <c r="AZ53">
-        <v>0.417821085190792</v>
+        <v>0.4177083643903333</v>
       </c>
       <c r="BA53">
         <v>-0.176</v>
@@ -10540,22 +10540,22 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.4733722169540232</v>
+        <v>0.473283852011494</v>
       </c>
       <c r="BH53">
-        <v>0.6921654357205792</v>
+        <v>0.692083767585723</v>
       </c>
       <c r="BI53">
         <v>-0.278</v>
       </c>
       <c r="BJ53">
-        <v>-0.000727</v>
+        <v>-0.0007247499999999999</v>
       </c>
       <c r="BK53">
         <v>0.0615</v>
       </c>
       <c r="BL53">
-        <v>0.85025</v>
+        <v>0.85</v>
       </c>
       <c r="BM53">
         <v>2.97</v>
@@ -10617,10 +10617,10 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>4.963419540229887</v>
+        <v>4.96336206896552</v>
       </c>
       <c r="T54">
-        <v>1.820453047214905</v>
+        <v>1.820514961046379</v>
       </c>
       <c r="U54">
         <v>2.42</v>
@@ -10665,10 +10665,10 @@
         <v>696</v>
       </c>
       <c r="AI54">
-        <v>129.1829022988506</v>
+        <v>129.1827586206898</v>
       </c>
       <c r="AJ54">
-        <v>55.35310804785347</v>
+        <v>55.35322770548282</v>
       </c>
       <c r="AK54">
         <v>54.4</v>
@@ -10713,16 +10713,16 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.3182290860632185</v>
+        <v>0.3181657850574713</v>
       </c>
       <c r="AZ54">
-        <v>0.4313931715840126</v>
+        <v>0.4313381766002451</v>
       </c>
       <c r="BA54">
         <v>-0.179</v>
       </c>
       <c r="BB54">
-        <v>-0.00301</v>
+        <v>-0.003</v>
       </c>
       <c r="BC54">
         <v>0.0598</v>
@@ -10737,22 +10737,22 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.5248807806034483</v>
+        <v>0.5247632090517245</v>
       </c>
       <c r="BH54">
-        <v>0.7846014201858919</v>
+        <v>0.784502274724199</v>
       </c>
       <c r="BI54">
         <v>-0.282</v>
       </c>
       <c r="BJ54">
-        <v>-0.0029375</v>
+        <v>-0.00293</v>
       </c>
       <c r="BK54">
         <v>0.05805</v>
       </c>
       <c r="BL54">
-        <v>0.99425</v>
+        <v>0.9935</v>
       </c>
       <c r="BM54">
         <v>3.41</v>
@@ -10790,10 +10790,10 @@
         <v>696</v>
       </c>
       <c r="K55">
-        <v>39.07816091954044</v>
+        <v>39.07801724137953</v>
       </c>
       <c r="L55">
-        <v>0.8448983983675459</v>
+        <v>0.8448861519602783</v>
       </c>
       <c r="M55">
         <v>38.4</v>
@@ -10838,10 +10838,10 @@
         <v>696</v>
       </c>
       <c r="AA55">
-        <v>38.7890804597701</v>
+        <v>38.78922413793101</v>
       </c>
       <c r="AB55">
-        <v>1.138936151022892</v>
+        <v>1.138830133703404</v>
       </c>
       <c r="AC55">
         <v>36.4</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.2882925590517242</v>
+        <v>0.2882589363505749</v>
       </c>
       <c r="AZ55">
-        <v>0.408612432473212</v>
+        <v>0.4085934782455332</v>
       </c>
       <c r="BA55">
         <v>-0.184</v>
@@ -10934,22 +10934,22 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.4964451596264369</v>
+        <v>0.496331745402299</v>
       </c>
       <c r="BH55">
-        <v>0.7851754614343363</v>
+        <v>0.7849969327127055</v>
       </c>
       <c r="BI55">
         <v>-0.291</v>
       </c>
       <c r="BJ55">
-        <v>-0.0043</v>
+        <v>-0.0042975</v>
       </c>
       <c r="BK55">
-        <v>0.05265</v>
+        <v>0.0526</v>
       </c>
       <c r="BL55">
-        <v>0.87675</v>
+        <v>0.876</v>
       </c>
       <c r="BM55">
         <v>3.4</v>
@@ -11011,10 +11011,10 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>5.12047413793104</v>
+        <v>5.120459770114947</v>
       </c>
       <c r="T56">
-        <v>1.749834994701704</v>
+        <v>1.749840713356573</v>
       </c>
       <c r="U56">
         <v>2.56</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>1.39147801724138</v>
+        <v>1.391478017241379</v>
       </c>
       <c r="AR56">
-        <v>0.9243756076662977</v>
+        <v>0.9243753165889604</v>
       </c>
       <c r="AS56">
         <v>0.0566</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.2905591954022988</v>
+        <v>0.2905217025862071</v>
       </c>
       <c r="AZ56">
-        <v>0.3284122286451275</v>
+        <v>0.3283819756011017</v>
       </c>
       <c r="BA56">
         <v>-0.09320000000000001</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.4712956235632187</v>
+        <v>0.4712210474137933</v>
       </c>
       <c r="BH56">
-        <v>0.6527022500535273</v>
+        <v>0.6526289231744465</v>
       </c>
       <c r="BI56">
         <v>-0.121</v>
@@ -11146,7 +11146,7 @@
         <v>0.125</v>
       </c>
       <c r="BL56">
-        <v>0.832</v>
+        <v>0.8312499999999999</v>
       </c>
       <c r="BM56">
         <v>3.18</v>
@@ -11232,10 +11232,10 @@
         <v>696</v>
       </c>
       <c r="AA57">
-        <v>39.03045977011496</v>
+        <v>39.03060344827588</v>
       </c>
       <c r="AB57">
-        <v>1.136860660946625</v>
+        <v>1.136761869960147</v>
       </c>
       <c r="AC57">
         <v>36.9</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>131.2689655172414</v>
+        <v>131.2688218390805</v>
       </c>
       <c r="AJ57">
-        <v>55.49440246132769</v>
+        <v>55.49452125960688</v>
       </c>
       <c r="AK57">
         <v>56.3</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.2457337964080458</v>
+        <v>0.2456783294540228</v>
       </c>
       <c r="AZ57">
-        <v>0.3036910877483388</v>
+        <v>0.3036051763555745</v>
       </c>
       <c r="BA57">
         <v>-0.0543</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.4117036790229886</v>
+        <v>0.4116122744252874</v>
       </c>
       <c r="BH57">
-        <v>0.6086603640412164</v>
+        <v>0.6085465292418131</v>
       </c>
       <c r="BI57">
         <v>-0.0864</v>
@@ -11340,7 +11340,7 @@
         <v>0.01265</v>
       </c>
       <c r="BK57">
-        <v>0.0941</v>
+        <v>0.09404999999999999</v>
       </c>
       <c r="BL57">
         <v>0.7232499999999999</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>5.135359195402295</v>
+        <v>5.135344827586203</v>
       </c>
       <c r="T58">
-        <v>1.743050295093253</v>
+        <v>1.743063175401521</v>
       </c>
       <c r="U58">
         <v>2.71</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>131.0772988505747</v>
+        <v>131.0771551724138</v>
       </c>
       <c r="AJ58">
-        <v>55.49735286086886</v>
+        <v>55.49747141517394</v>
       </c>
       <c r="AK58">
         <v>56.1</v>
@@ -11501,22 +11501,22 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.2653425593390805</v>
+        <v>0.2652910626436782</v>
       </c>
       <c r="AZ58">
-        <v>0.3550388519933089</v>
+        <v>0.3549666097679687</v>
       </c>
       <c r="BA58">
         <v>-0.07870000000000001</v>
       </c>
       <c r="BB58">
-        <v>0.005712500000000001</v>
+        <v>0.0057</v>
       </c>
       <c r="BC58">
         <v>0.0654</v>
       </c>
       <c r="BD58">
-        <v>0.4175</v>
+        <v>0.41725</v>
       </c>
       <c r="BE58">
         <v>1.6</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.4449886173850574</v>
+        <v>0.4448476886494251</v>
       </c>
       <c r="BH58">
-        <v>0.6621261381395718</v>
+        <v>0.6619384036951935</v>
       </c>
       <c r="BI58">
         <v>-0.125</v>
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>39.24928160919537</v>
+        <v>39.24985632183905</v>
       </c>
       <c r="L59">
-        <v>0.9210875967408989</v>
+        <v>0.9211034871300556</v>
       </c>
       <c r="M59">
         <v>38.5</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>5.122068965517244</v>
+        <v>5.122500000000001</v>
       </c>
       <c r="T59">
-        <v>1.744970829336959</v>
+        <v>1.745031363738673</v>
       </c>
       <c r="U59">
         <v>2.7</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>130.857183908046</v>
+        <v>130.8632183908046</v>
       </c>
       <c r="AJ59">
-        <v>55.42083632891469</v>
+        <v>55.42865786569725</v>
       </c>
       <c r="AK59">
         <v>56.1</v>
@@ -11674,10 +11674,10 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>1.3935625</v>
+        <v>1.393595545977012</v>
       </c>
       <c r="AR59">
-        <v>0.924579808782105</v>
+        <v>0.9246214136523387</v>
       </c>
       <c r="AS59">
         <v>0.0572</v>
@@ -11698,16 +11698,16 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.2938478132183907</v>
+        <v>0.2938006882183907</v>
       </c>
       <c r="AZ59">
-        <v>0.383223745119421</v>
+        <v>0.3831922161994168</v>
       </c>
       <c r="BA59">
-        <v>-0.0858</v>
+        <v>-0.0857</v>
       </c>
       <c r="BB59">
-        <v>0.0042425</v>
+        <v>0.0042375</v>
       </c>
       <c r="BC59">
         <v>0.0622</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.4722195301724139</v>
+        <v>0.4721509152298853</v>
       </c>
       <c r="BH59">
-        <v>0.6691826238053601</v>
+        <v>0.6691138000262823</v>
       </c>
       <c r="BI59">
         <v>-0.136</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>38.96451149425288</v>
+        <v>38.96436781609196</v>
       </c>
       <c r="AB60">
-        <v>1.202475524456965</v>
+        <v>1.202237914327342</v>
       </c>
       <c r="AC60">
         <v>37</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>131.0471264367817</v>
+        <v>131.0469827586207</v>
       </c>
       <c r="AJ60">
-        <v>55.43787986661146</v>
+        <v>55.43799042398688</v>
       </c>
       <c r="AK60">
         <v>56.2</v>
@@ -11895,16 +11895,16 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.2957637140804598</v>
+        <v>0.2957227054597702</v>
       </c>
       <c r="AZ60">
-        <v>0.3751214515296625</v>
+        <v>0.375094567286207</v>
       </c>
       <c r="BA60">
         <v>-0.0769</v>
       </c>
       <c r="BB60">
-        <v>0.009675</v>
+        <v>0.00966</v>
       </c>
       <c r="BC60">
         <v>0.0728</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.4634860735632182</v>
+        <v>0.4634112528735632</v>
       </c>
       <c r="BH60">
-        <v>0.6442110533656463</v>
+        <v>0.6441618810266434</v>
       </c>
       <c r="BI60">
         <v>-0.115</v>
@@ -11934,7 +11934,7 @@
         <v>0.06795000000000001</v>
       </c>
       <c r="BL60">
-        <v>0.85225</v>
+        <v>0.852</v>
       </c>
       <c r="BM60">
         <v>2.92</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>5.170646551724144</v>
+        <v>5.17076149425288</v>
       </c>
       <c r="T61">
-        <v>1.71679868093664</v>
+        <v>1.716802991847735</v>
       </c>
       <c r="U61">
         <v>2.79</v>
@@ -12044,10 +12044,10 @@
         <v>696</v>
       </c>
       <c r="AI61">
-        <v>131.2237068965517</v>
+        <v>131.2254310344827</v>
       </c>
       <c r="AJ61">
-        <v>55.33507712938881</v>
+        <v>55.33442421685677</v>
       </c>
       <c r="AK61">
         <v>56.5</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.3524774362643678</v>
+        <v>0.3524354600718391</v>
       </c>
       <c r="AZ61">
-        <v>0.4496627439328161</v>
+        <v>0.4496318068670437</v>
       </c>
       <c r="BA61">
         <v>-0.0677</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.5750866391522994</v>
+        <v>0.5750081871695408</v>
       </c>
       <c r="BH61">
-        <v>0.8415015642360747</v>
+        <v>0.8414109742122118</v>
       </c>
       <c r="BI61">
         <v>-0.0815</v>
@@ -12131,7 +12131,7 @@
         <v>0.07655000000000001</v>
       </c>
       <c r="BL61">
-        <v>0.965</v>
+        <v>0.96475</v>
       </c>
       <c r="BM61">
         <v>4.14</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>5.15189655172414</v>
+        <v>5.151853448275864</v>
       </c>
       <c r="T62">
-        <v>1.724680471522596</v>
+        <v>1.724713847207901</v>
       </c>
       <c r="U62">
         <v>2.76</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>1.396485488505748</v>
+        <v>1.396484051724138</v>
       </c>
       <c r="AR62">
-        <v>0.9248264379291447</v>
+        <v>0.9248274273964366</v>
       </c>
       <c r="AS62">
         <v>0.0573</v>
@@ -12289,16 +12289,16 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.3321297772988505</v>
+        <v>0.3320762255747125</v>
       </c>
       <c r="AZ62">
-        <v>0.424282380279588</v>
+        <v>0.4242211715661577</v>
       </c>
       <c r="BA62">
         <v>-0.0819</v>
       </c>
       <c r="BB62">
-        <v>0.00279</v>
+        <v>0.0027775</v>
       </c>
       <c r="BC62">
         <v>0.06325</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.5319351451149418</v>
+        <v>0.5318413045977004</v>
       </c>
       <c r="BH62">
-        <v>0.7370160668765029</v>
+        <v>0.7369300315041245</v>
       </c>
       <c r="BI62">
         <v>-0.111</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>39.29238505747122</v>
+        <v>39.2922413793103</v>
       </c>
       <c r="L63">
-        <v>0.9474916835341235</v>
+        <v>0.9472702951934002</v>
       </c>
       <c r="M63">
         <v>38.5</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>5.169971264367812</v>
+        <v>5.16995689655172</v>
       </c>
       <c r="T63">
-        <v>1.720266668061966</v>
+        <v>1.720268131479098</v>
       </c>
       <c r="U63">
         <v>2.79</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>131.337643678161</v>
+        <v>131.3375000000001</v>
       </c>
       <c r="AJ63">
-        <v>55.40858845377457</v>
+        <v>55.40868320453417</v>
       </c>
       <c r="AK63">
         <v>56.6</v>
@@ -12486,22 +12486,22 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.3145211581896554</v>
+        <v>0.3144693406609198</v>
       </c>
       <c r="AZ63">
-        <v>0.3980421160975865</v>
+        <v>0.397982340027627</v>
       </c>
       <c r="BA63">
         <v>-0.0786</v>
       </c>
       <c r="BB63">
-        <v>0.0078525</v>
+        <v>0.007837500000000001</v>
       </c>
       <c r="BC63">
-        <v>0.07125000000000001</v>
+        <v>0.0712</v>
       </c>
       <c r="BD63">
-        <v>0.552</v>
+        <v>0.5517500000000001</v>
       </c>
       <c r="BE63">
         <v>1.65</v>
@@ -12510,16 +12510,16 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.492182689224138</v>
+        <v>0.4920668814655175</v>
       </c>
       <c r="BH63">
-        <v>0.6761549032121584</v>
+        <v>0.6760518705339926</v>
       </c>
       <c r="BI63">
         <v>-0.09279999999999999</v>
       </c>
       <c r="BJ63">
-        <v>0.005355</v>
+        <v>0.0053625</v>
       </c>
       <c r="BK63">
         <v>0.06495000000000001</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>39.31307471264363</v>
+        <v>39.30876436781605</v>
       </c>
       <c r="L64">
-        <v>0.9581689823442058</v>
+        <v>0.957872746055027</v>
       </c>
       <c r="M64">
         <v>38.5</v>
@@ -12575,7 +12575,7 @@
         <v>38.5</v>
       </c>
       <c r="O64">
-        <v>38.9</v>
+        <v>38.84999999999999</v>
       </c>
       <c r="P64">
         <v>39.8</v>
@@ -12587,25 +12587,25 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>5.190316091954029</v>
+        <v>5.186192528735638</v>
       </c>
       <c r="T64">
-        <v>1.711754508410718</v>
+        <v>1.711819012403087</v>
       </c>
       <c r="U64">
         <v>2.82</v>
       </c>
       <c r="V64">
-        <v>3.635</v>
+        <v>3.63</v>
       </c>
       <c r="W64">
-        <v>4.94</v>
+        <v>4.93</v>
       </c>
       <c r="X64">
-        <v>6.43</v>
+        <v>6.415</v>
       </c>
       <c r="Y64">
-        <v>8.98</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Z64">
         <v>696</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>131.5275862068964</v>
+        <v>131.5113505747125</v>
       </c>
       <c r="AJ64">
-        <v>55.39762832033283</v>
+        <v>55.37312986699273</v>
       </c>
       <c r="AK64">
         <v>56.7</v>
@@ -12653,16 +12653,16 @@
         <v>140.75</v>
       </c>
       <c r="AO64">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP64">
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>1.400222988505747</v>
+        <v>1.400123706896552</v>
       </c>
       <c r="AR64">
-        <v>0.9256898513282205</v>
+        <v>0.9256372068335325</v>
       </c>
       <c r="AS64">
         <v>0.0574</v>
@@ -12683,19 +12683,19 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.318613844827586</v>
+        <v>0.318497182327586</v>
       </c>
       <c r="AZ64">
-        <v>0.4023200170900055</v>
+        <v>0.4021927281928697</v>
       </c>
       <c r="BA64">
         <v>-0.07389999999999999</v>
       </c>
       <c r="BB64">
-        <v>0.009107499999999999</v>
+        <v>0.009102499999999999</v>
       </c>
       <c r="BC64">
-        <v>0.07164999999999999</v>
+        <v>0.07155</v>
       </c>
       <c r="BD64">
         <v>0.542</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.5017795497126437</v>
+        <v>0.5015980182471261</v>
       </c>
       <c r="BH64">
-        <v>0.6915601630979229</v>
+        <v>0.6913723541006908</v>
       </c>
       <c r="BI64">
         <v>-0.0774</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>5.168692528735629</v>
+        <v>5.168678160919537</v>
       </c>
       <c r="T65">
-        <v>1.719038676560955</v>
+        <v>1.719046910065105</v>
       </c>
       <c r="U65">
         <v>2.79</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>1.398690517241379</v>
+        <v>1.39868908045977</v>
       </c>
       <c r="AR65">
-        <v>0.9254419659034655</v>
+        <v>0.9254429876815409</v>
       </c>
       <c r="AS65">
         <v>0.0574</v>
@@ -12880,16 +12880,16 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.3167514887931033</v>
+        <v>0.3166885150862068</v>
       </c>
       <c r="AZ65">
-        <v>0.4142109383263678</v>
+        <v>0.4141340442031252</v>
       </c>
       <c r="BA65">
-        <v>-0.0891</v>
+        <v>-0.089</v>
       </c>
       <c r="BB65">
-        <v>-0.00025025</v>
+        <v>-0.00024125</v>
       </c>
       <c r="BC65">
         <v>0.05995</v>
@@ -12904,22 +12904,22 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.5057721589080461</v>
+        <v>0.5057014780172417</v>
       </c>
       <c r="BH65">
-        <v>0.7111622354641817</v>
+        <v>0.7111122633364402</v>
       </c>
       <c r="BI65">
         <v>-0.106</v>
       </c>
       <c r="BJ65">
-        <v>-0.00041225</v>
+        <v>-0.000412</v>
       </c>
       <c r="BK65">
         <v>0.05385</v>
       </c>
       <c r="BL65">
-        <v>0.9422499999999999</v>
+        <v>0.9415</v>
       </c>
       <c r="BM65">
         <v>2.86</v>
@@ -12981,10 +12981,10 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>5.163405172413792</v>
+        <v>5.163362068965516</v>
       </c>
       <c r="T66">
-        <v>1.719268302514405</v>
+        <v>1.719306758722231</v>
       </c>
       <c r="U66">
         <v>2.79</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>1.397800287356322</v>
+        <v>1.397798850574713</v>
       </c>
       <c r="AR66">
-        <v>0.9251038782503691</v>
+        <v>0.9251054791573893</v>
       </c>
       <c r="AS66">
         <v>0.0574</v>
@@ -13077,19 +13077,19 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.3246393599080461</v>
+        <v>0.3246053068103448</v>
       </c>
       <c r="AZ66">
-        <v>0.4253738098160498</v>
+        <v>0.4253566248920941</v>
       </c>
       <c r="BA66">
-        <v>-0.0914</v>
+        <v>-0.09130000000000001</v>
       </c>
       <c r="BB66">
-        <v>0.0004967999999999999</v>
+        <v>0.0004856250000000001</v>
       </c>
       <c r="BC66">
-        <v>0.0606</v>
+        <v>0.06055000000000001</v>
       </c>
       <c r="BD66">
         <v>0.5862499999999999</v>
@@ -13101,19 +13101,19 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.5189247538074718</v>
+        <v>0.5188743158764372</v>
       </c>
       <c r="BH66">
-        <v>0.7309452796624331</v>
+        <v>0.7309050306631835</v>
       </c>
       <c r="BI66">
         <v>-0.105</v>
       </c>
       <c r="BJ66">
-        <v>0.0002026</v>
+        <v>0.00020425</v>
       </c>
       <c r="BK66">
-        <v>0.054</v>
+        <v>0.05395</v>
       </c>
       <c r="BL66">
         <v>0.97</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>39.28333333333331</v>
+        <v>39.28290229885054</v>
       </c>
       <c r="L67">
-        <v>0.9422509912202985</v>
+        <v>0.942128721868859</v>
       </c>
       <c r="M67">
         <v>38.5</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>5.160071839080466</v>
+        <v>5.159612068965523</v>
       </c>
       <c r="T67">
-        <v>1.723677971730044</v>
+        <v>1.723649380652132</v>
       </c>
       <c r="U67">
         <v>2.77</v>
@@ -13196,7 +13196,7 @@
         <v>6.405</v>
       </c>
       <c r="Y67">
-        <v>8.949999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="Z67">
         <v>696</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>131.2477011494253</v>
+        <v>131.2461206896552</v>
       </c>
       <c r="AJ67">
-        <v>55.37162814421093</v>
+        <v>55.37041426877904</v>
       </c>
       <c r="AK67">
         <v>56.5</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>1.397279022988507</v>
+        <v>1.397277586206898</v>
       </c>
       <c r="AR67">
-        <v>0.9250369528483021</v>
+        <v>0.9250379775445852</v>
       </c>
       <c r="AS67">
         <v>0.0573</v>
@@ -13274,16 +13274,16 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.3207544553160915</v>
+        <v>0.3207211285919538</v>
       </c>
       <c r="AZ67">
-        <v>0.4228585362076543</v>
+        <v>0.4228286178362277</v>
       </c>
       <c r="BA67">
         <v>-0.0982</v>
       </c>
       <c r="BB67">
-        <v>-0.0018125</v>
+        <v>-0.00181</v>
       </c>
       <c r="BC67">
         <v>0.05715</v>
@@ -13298,19 +13298,19 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.5149383693965524</v>
+        <v>0.514807709195403</v>
       </c>
       <c r="BH67">
-        <v>0.7272601849371286</v>
+        <v>0.7270828748264417</v>
       </c>
       <c r="BI67">
         <v>-0.118</v>
       </c>
       <c r="BJ67">
-        <v>-0.00146</v>
+        <v>-0.0014575</v>
       </c>
       <c r="BK67">
-        <v>0.0503</v>
+        <v>0.05025</v>
       </c>
       <c r="BL67">
         <v>0.98725</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>5.157456896551719</v>
+        <v>5.157428160919535</v>
       </c>
       <c r="T68">
-        <v>1.7257217856864</v>
+        <v>1.725739418798303</v>
       </c>
       <c r="U68">
         <v>2.77</v>
@@ -13471,16 +13471,16 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.3019629583333336</v>
+        <v>0.3019038893678163</v>
       </c>
       <c r="AZ68">
-        <v>0.3972292992922618</v>
+        <v>0.3971745824746087</v>
       </c>
       <c r="BA68">
         <v>-0.0985</v>
       </c>
       <c r="BB68">
-        <v>-0.00071</v>
+        <v>-0.0007132499999999999</v>
       </c>
       <c r="BC68">
         <v>0.05835</v>
@@ -13495,16 +13495,16 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.4774979439655171</v>
+        <v>0.4773974137931039</v>
       </c>
       <c r="BH68">
-        <v>0.6711950301180883</v>
+        <v>0.6710928395975527</v>
       </c>
       <c r="BI68">
         <v>-0.117</v>
       </c>
       <c r="BJ68">
-        <v>-0.0008947499999999999</v>
+        <v>-0.0009</v>
       </c>
       <c r="BK68">
         <v>0.0507</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>39.29396551724134</v>
+        <v>39.29683908045973</v>
       </c>
       <c r="L69">
-        <v>0.9469182541825862</v>
+        <v>0.9468410530934097</v>
       </c>
       <c r="M69">
         <v>38.5</v>
@@ -13572,25 +13572,25 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>5.171580459770116</v>
+        <v>5.174152298850576</v>
       </c>
       <c r="T69">
-        <v>1.719875125755697</v>
+        <v>1.719861337833955</v>
       </c>
       <c r="U69">
         <v>2.79</v>
       </c>
       <c r="V69">
-        <v>3.6075</v>
+        <v>3.6125</v>
       </c>
       <c r="W69">
-        <v>4.91</v>
+        <v>4.92</v>
       </c>
       <c r="X69">
-        <v>6.407500000000001</v>
+        <v>6.422499999999999</v>
       </c>
       <c r="Y69">
-        <v>8.949999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Z69">
         <v>696</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>131.3816091954024</v>
+        <v>131.3847701149426</v>
       </c>
       <c r="AJ69">
-        <v>55.41335143633487</v>
+        <v>55.4113426115901</v>
       </c>
       <c r="AK69">
         <v>56.6</v>
@@ -13644,10 +13644,10 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>1.398632758620689</v>
+        <v>1.398716235632183</v>
       </c>
       <c r="AR69">
-        <v>0.925550096723043</v>
+        <v>0.925617523856284</v>
       </c>
       <c r="AS69">
         <v>0.0574</v>
@@ -13662,25 +13662,25 @@
         <v>1.9</v>
       </c>
       <c r="AW69">
-        <v>5.45</v>
+        <v>5.46</v>
       </c>
       <c r="AX69">
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.3080054038074717</v>
+        <v>0.3079539729885061</v>
       </c>
       <c r="AZ69">
-        <v>0.4025017439652769</v>
+        <v>0.4024801839094006</v>
       </c>
       <c r="BA69">
         <v>-0.096</v>
       </c>
       <c r="BB69">
-        <v>0.001275</v>
+        <v>0.0012625</v>
       </c>
       <c r="BC69">
-        <v>0.06290000000000001</v>
+        <v>0.06285</v>
       </c>
       <c r="BD69">
         <v>0.52825</v>
@@ -13692,22 +13692,22 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4868083219971258</v>
+        <v>0.48667355933908</v>
       </c>
       <c r="BH69">
-        <v>0.6840045349675583</v>
+        <v>0.6838695559117802</v>
       </c>
       <c r="BI69">
         <v>-0.102</v>
       </c>
       <c r="BJ69">
-        <v>0.000916</v>
+        <v>0.00091675</v>
       </c>
       <c r="BK69">
         <v>0.0549</v>
       </c>
       <c r="BL69">
-        <v>0.8905000000000001</v>
+        <v>0.89025</v>
       </c>
       <c r="BM69">
         <v>2.83</v>
@@ -13745,10 +13745,10 @@
         <v>696</v>
       </c>
       <c r="K70">
-        <v>39.32040229885052</v>
+        <v>39.32068965517236</v>
       </c>
       <c r="L70">
-        <v>0.9652749914639781</v>
+        <v>0.9651496092812299</v>
       </c>
       <c r="M70">
         <v>38.5</v>
@@ -13769,22 +13769,22 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>5.19727011494253</v>
+        <v>5.197715517241381</v>
       </c>
       <c r="T70">
-        <v>1.706760325993716</v>
+        <v>1.706693916948013</v>
       </c>
       <c r="U70">
         <v>2.83</v>
       </c>
       <c r="V70">
-        <v>3.65</v>
+        <v>3.6525</v>
       </c>
       <c r="W70">
         <v>4.945</v>
       </c>
       <c r="X70">
-        <v>6.422499999999999</v>
+        <v>6.43</v>
       </c>
       <c r="Y70">
         <v>8.970000000000001</v>
@@ -13793,10 +13793,10 @@
         <v>696</v>
       </c>
       <c r="AA70">
-        <v>38.99324712643676</v>
+        <v>38.99367816091952</v>
       </c>
       <c r="AB70">
-        <v>1.259015409242936</v>
+        <v>1.258600446829642</v>
       </c>
       <c r="AC70">
         <v>36.9</v>
@@ -13817,10 +13817,10 @@
         <v>696</v>
       </c>
       <c r="AI70">
-        <v>131.6021551724138</v>
+        <v>131.6041666666667</v>
       </c>
       <c r="AJ70">
-        <v>55.37621579635142</v>
+        <v>55.37832313515268</v>
       </c>
       <c r="AK70">
         <v>56.8</v>
@@ -13841,16 +13841,16 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>1.40092356321839</v>
+        <v>1.4009408045977</v>
       </c>
       <c r="AR70">
-        <v>0.9256547404374572</v>
+        <v>0.9256469851536038</v>
       </c>
       <c r="AS70">
         <v>0.0575</v>
       </c>
       <c r="AT70">
-        <v>0.681</v>
+        <v>0.6817500000000001</v>
       </c>
       <c r="AU70">
         <v>1.315</v>
@@ -13865,16 +13865,16 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.3169326183908045</v>
+        <v>0.3168286048850573</v>
       </c>
       <c r="AZ70">
-        <v>0.4047467085308119</v>
+        <v>0.4046581702907949</v>
       </c>
       <c r="BA70">
-        <v>-0.0883</v>
+        <v>-0.0882</v>
       </c>
       <c r="BB70">
-        <v>0.0057025</v>
+        <v>0.00571</v>
       </c>
       <c r="BC70">
         <v>0.06715</v>
@@ -13889,16 +13889,16 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.5003483553160923</v>
+        <v>0.5002112464080462</v>
       </c>
       <c r="BH70">
-        <v>0.6927487753501549</v>
+        <v>0.6925772068668941</v>
       </c>
       <c r="BI70">
         <v>-0.08840000000000001</v>
       </c>
       <c r="BJ70">
-        <v>0.004155</v>
+        <v>0.0041475</v>
       </c>
       <c r="BK70">
         <v>0.061</v>
@@ -13907,7 +13907,7 @@
         <v>0.923</v>
       </c>
       <c r="BM70">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="71" spans="1:65">
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>5.187629310344832</v>
+        <v>5.187571839080464</v>
       </c>
       <c r="T71">
-        <v>1.712177287079661</v>
+        <v>1.712151743261684</v>
       </c>
       <c r="U71">
         <v>2.82</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>39.00905172413792</v>
+        <v>39.00919540229884</v>
       </c>
       <c r="AB71">
-        <v>1.244390564275321</v>
+        <v>1.244244967336184</v>
       </c>
       <c r="AC71">
         <v>36.9</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>1.400766522988505</v>
+        <v>1.400752155172413</v>
       </c>
       <c r="AR71">
-        <v>0.9254944357034055</v>
+        <v>0.9254867518042241</v>
       </c>
       <c r="AS71">
         <v>0.0575</v>
@@ -14062,16 +14062,16 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.3004236668103447</v>
+        <v>0.300365009051724</v>
       </c>
       <c r="AZ71">
-        <v>0.3980298227977433</v>
+        <v>0.3979625211307429</v>
       </c>
       <c r="BA71">
         <v>-0.09470000000000001</v>
       </c>
       <c r="BB71">
-        <v>-0.0010765</v>
+        <v>-0.001074</v>
       </c>
       <c r="BC71">
         <v>0.0586</v>
@@ -14086,16 +14086,16 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.4715193405172417</v>
+        <v>0.4713712198275863</v>
       </c>
       <c r="BH71">
-        <v>0.6665097607958969</v>
+        <v>0.6663020599663231</v>
       </c>
       <c r="BI71">
         <v>-0.095</v>
       </c>
       <c r="BJ71">
-        <v>-0.00101025</v>
+        <v>-0.0010095</v>
       </c>
       <c r="BK71">
         <v>0.0518</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>5.166925287356318</v>
+        <v>5.166896551724133</v>
       </c>
       <c r="T72">
-        <v>1.727097711121902</v>
+        <v>1.727134982228377</v>
       </c>
       <c r="U72">
         <v>2.76</v>
@@ -14259,19 +14259,19 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.2818404064655171</v>
+        <v>0.2818073352011494</v>
       </c>
       <c r="AZ72">
-        <v>0.3940378842776706</v>
+        <v>0.3940178591613983</v>
       </c>
       <c r="BA72">
         <v>-0.112</v>
       </c>
       <c r="BB72">
-        <v>-0.00844</v>
+        <v>-0.008445000000000001</v>
       </c>
       <c r="BC72">
-        <v>0.0445</v>
+        <v>0.04445</v>
       </c>
       <c r="BD72">
         <v>0.50225</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.4405423438218388</v>
+        <v>0.4404559067528734</v>
       </c>
       <c r="BH72">
-        <v>0.6485676370264114</v>
+        <v>0.6485001261985982</v>
       </c>
       <c r="BI72">
         <v>-0.133</v>
@@ -14298,7 +14298,7 @@
         <v>0.04305</v>
       </c>
       <c r="BL72">
-        <v>0.76175</v>
+        <v>0.7615000000000001</v>
       </c>
       <c r="BM72">
         <v>2.8</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>5.159885057471258</v>
+        <v>5.15989942528735</v>
       </c>
       <c r="T73">
-        <v>1.726458591262688</v>
+        <v>1.726489969785358</v>
       </c>
       <c r="U73">
         <v>2.77</v>
@@ -14456,19 +14456,19 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.2943933591954021</v>
+        <v>0.294346304597701</v>
       </c>
       <c r="AZ73">
-        <v>0.4017908301363008</v>
+        <v>0.4017465187368581</v>
       </c>
       <c r="BA73">
         <v>-0.11</v>
       </c>
       <c r="BB73">
-        <v>-0.0049625</v>
+        <v>-0.0049525</v>
       </c>
       <c r="BC73">
-        <v>0.0479</v>
+        <v>0.04785</v>
       </c>
       <c r="BD73">
         <v>0.518</v>
@@ -14480,22 +14480,22 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.4626306053160917</v>
+        <v>0.4624976364942526</v>
       </c>
       <c r="BH73">
-        <v>0.6689910515762623</v>
+        <v>0.6687849930050607</v>
       </c>
       <c r="BI73">
         <v>-0.123</v>
       </c>
       <c r="BJ73">
-        <v>-0.0049025</v>
+        <v>-0.004895</v>
       </c>
       <c r="BK73">
         <v>0.045</v>
       </c>
       <c r="BL73">
-        <v>0.81575</v>
+        <v>0.81475</v>
       </c>
       <c r="BM73">
         <v>2.8</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>5.141364942528738</v>
+        <v>5.141350574712646</v>
       </c>
       <c r="T74">
-        <v>1.733790044504776</v>
+        <v>1.733807607782774</v>
       </c>
       <c r="U74">
         <v>2.73</v>
@@ -14629,16 +14629,16 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>1.396120689655173</v>
+        <v>1.396122126436782</v>
       </c>
       <c r="AR74">
-        <v>0.9251106352985824</v>
+        <v>0.9251094973878493</v>
       </c>
       <c r="AS74">
         <v>0.0573</v>
       </c>
       <c r="AT74">
-        <v>0.6647500000000001</v>
+        <v>0.665</v>
       </c>
       <c r="AU74">
         <v>1.305</v>
@@ -14653,19 +14653,19 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.3059433204022987</v>
+        <v>0.3059007754310343</v>
       </c>
       <c r="AZ74">
-        <v>0.4219250578291228</v>
+        <v>0.421905482837327</v>
       </c>
       <c r="BA74">
         <v>-0.121</v>
       </c>
       <c r="BB74">
-        <v>-0.0095275</v>
+        <v>-0.009535</v>
       </c>
       <c r="BC74">
-        <v>0.04215</v>
+        <v>0.0421</v>
       </c>
       <c r="BD74">
         <v>0.5645</v>
@@ -14677,22 +14677,22 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.4908123640804601</v>
+        <v>0.4907279209770117</v>
       </c>
       <c r="BH74">
-        <v>0.7124669477063884</v>
+        <v>0.7123907977655645</v>
       </c>
       <c r="BI74">
         <v>-0.147</v>
       </c>
       <c r="BJ74">
-        <v>-0.008177500000000001</v>
+        <v>-0.008167500000000001</v>
       </c>
       <c r="BK74">
         <v>0.0405</v>
       </c>
       <c r="BL74">
-        <v>0.9015</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="BM74">
         <v>2.79</v>
@@ -14730,10 +14730,10 @@
         <v>696</v>
       </c>
       <c r="K75">
-        <v>39.24295977011496</v>
+        <v>39.24281609195403</v>
       </c>
       <c r="L75">
-        <v>0.9217011976013729</v>
+        <v>0.9216688651920579</v>
       </c>
       <c r="M75">
         <v>38.4</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>5.117428160919533</v>
+        <v>5.11741379310344</v>
       </c>
       <c r="T75">
-        <v>1.744654527203638</v>
+        <v>1.744709142681864</v>
       </c>
       <c r="U75">
         <v>2.69</v>
@@ -14778,10 +14778,10 @@
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>38.92959770114949</v>
+        <v>38.92974137931041</v>
       </c>
       <c r="AB75">
-        <v>1.237176111153579</v>
+        <v>1.237062169301504</v>
       </c>
       <c r="AC75">
         <v>36.9</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>1.393367385057473</v>
+        <v>1.393365948275863</v>
       </c>
       <c r="AR75">
-        <v>0.9241653033251068</v>
+        <v>0.9241663462515001</v>
       </c>
       <c r="AS75">
         <v>0.0572</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.3072849770114942</v>
+        <v>0.3072434870689654</v>
       </c>
       <c r="AZ75">
-        <v>0.4285998073009492</v>
+        <v>0.4285865388862229</v>
       </c>
       <c r="BA75">
         <v>-0.132</v>
@@ -14862,7 +14862,7 @@
         <v>-0.012475</v>
       </c>
       <c r="BC75">
-        <v>0.03855</v>
+        <v>0.0385</v>
       </c>
       <c r="BD75">
         <v>0.576</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.4982007479885061</v>
+        <v>0.4981185415229888</v>
       </c>
       <c r="BH75">
-        <v>0.7272080491617612</v>
+        <v>0.727132358071967</v>
       </c>
       <c r="BI75">
         <v>-0.174</v>
@@ -14886,7 +14886,7 @@
         <v>-0.010625</v>
       </c>
       <c r="BK75">
-        <v>0.03775000000000001</v>
+        <v>0.0377</v>
       </c>
       <c r="BL75">
         <v>0.9562499999999999</v>
@@ -14975,10 +14975,10 @@
         <v>696</v>
       </c>
       <c r="AA76">
-        <v>38.94583333333334</v>
+        <v>38.94597701149426</v>
       </c>
       <c r="AB76">
-        <v>1.226076339160185</v>
+        <v>1.225982932992444</v>
       </c>
       <c r="AC76">
         <v>36.9</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>130.898132183908</v>
+        <v>130.8978448275862</v>
       </c>
       <c r="AJ76">
-        <v>55.37640210572831</v>
+        <v>55.37673935449436</v>
       </c>
       <c r="AK76">
         <v>56.1</v>
@@ -15047,19 +15047,19 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.3008241379310347</v>
+        <v>0.3007860704022988</v>
       </c>
       <c r="AZ76">
-        <v>0.4066919534835145</v>
+        <v>0.4066683026243458</v>
       </c>
       <c r="BA76">
         <v>-0.126</v>
       </c>
       <c r="BB76">
-        <v>-0.00557</v>
+        <v>-0.005585</v>
       </c>
       <c r="BC76">
-        <v>0.04815</v>
+        <v>0.0481</v>
       </c>
       <c r="BD76">
         <v>0.5547500000000001</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.4793815840517245</v>
+        <v>0.4793087048850578</v>
       </c>
       <c r="BH76">
-        <v>0.684519899357287</v>
+        <v>0.6844465437692971</v>
       </c>
       <c r="BI76">
         <v>-0.152</v>
@@ -15083,10 +15083,10 @@
         <v>-0.0053675</v>
       </c>
       <c r="BK76">
-        <v>0.0436</v>
+        <v>0.04355000000000001</v>
       </c>
       <c r="BL76">
-        <v>0.91</v>
+        <v>0.90925</v>
       </c>
       <c r="BM76">
         <v>2.8</v>
@@ -15124,10 +15124,10 @@
         <v>696</v>
       </c>
       <c r="K77">
-        <v>39.26738505747122</v>
+        <v>39.2672413793103</v>
       </c>
       <c r="L77">
-        <v>0.9309619383487712</v>
+        <v>0.9309646141906868</v>
       </c>
       <c r="M77">
         <v>38.5</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>1.396180316091955</v>
+        <v>1.396181752873564</v>
       </c>
       <c r="AR77">
-        <v>0.9254954034845221</v>
+        <v>0.9254942737275763</v>
       </c>
       <c r="AS77">
         <v>0.0573</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.2786123566091956</v>
+        <v>0.2785751126436784</v>
       </c>
       <c r="AZ77">
-        <v>0.3841399127145414</v>
+        <v>0.3841193510564698</v>
       </c>
       <c r="BA77">
         <v>-0.117</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.4333423211206899</v>
+        <v>0.4332470357758622</v>
       </c>
       <c r="BH77">
-        <v>0.6359063759127812</v>
+        <v>0.635800311766212</v>
       </c>
       <c r="BI77">
         <v>-0.133</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.2796626025862071</v>
+        <v>0.2796233890804599</v>
       </c>
       <c r="AZ78">
-        <v>0.3820199313280807</v>
+        <v>0.3819964474890966</v>
       </c>
       <c r="BA78">
         <v>-0.116</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.4424077258620688</v>
+        <v>0.4423563971264368</v>
       </c>
       <c r="BH78">
-        <v>0.6435361644588103</v>
+        <v>0.6434763292705225</v>
       </c>
       <c r="BI78">
         <v>-0.138</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>5.140158045977016</v>
+        <v>5.140143678160925</v>
       </c>
       <c r="T79">
-        <v>1.733202999321209</v>
+        <v>1.733222467893773</v>
       </c>
       <c r="U79">
         <v>2.74</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>131.0817528735633</v>
+        <v>131.0816091954023</v>
       </c>
       <c r="AJ79">
-        <v>55.38799337806162</v>
+        <v>55.38809789034427</v>
       </c>
       <c r="AK79">
         <v>56.3</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>1.395735057471266</v>
+        <v>1.395732183908048</v>
       </c>
       <c r="AR79">
-        <v>0.924906052568885</v>
+        <v>0.9249080009929821</v>
       </c>
       <c r="AS79">
         <v>0.0573</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.3069361709770116</v>
+        <v>0.3068964497126437</v>
       </c>
       <c r="AZ79">
-        <v>0.41411368398693</v>
+        <v>0.4140985692809255</v>
       </c>
       <c r="BA79">
         <v>-0.116</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.5004509459770113</v>
+        <v>0.5003727137931034</v>
       </c>
       <c r="BH79">
-        <v>0.7294945414080913</v>
+        <v>0.7293992535031669</v>
       </c>
       <c r="BI79">
         <v>-0.134</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.3095756551724136</v>
+        <v>0.3095496249999999</v>
       </c>
       <c r="AZ80">
-        <v>0.4117860734509679</v>
+        <v>0.411775493143469</v>
       </c>
       <c r="BA80">
         <v>-0.117</v>
@@ -15847,7 +15847,7 @@
         <v>-0.0062025</v>
       </c>
       <c r="BC80">
-        <v>0.0451</v>
+        <v>0.04505</v>
       </c>
       <c r="BD80">
         <v>0.60225</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.5055582313218396</v>
+        <v>0.5054858678160923</v>
       </c>
       <c r="BH80">
-        <v>0.728907596926186</v>
+        <v>0.728823966437357</v>
       </c>
       <c r="BI80">
         <v>-0.135</v>
@@ -15871,7 +15871,7 @@
         <v>-0.006285</v>
       </c>
       <c r="BK80">
-        <v>0.04195</v>
+        <v>0.0419</v>
       </c>
       <c r="BL80">
         <v>0.9602499999999999</v>
@@ -15963,7 +15963,7 @@
         <v>38.958908045977</v>
       </c>
       <c r="AB81">
-        <v>1.235170899610465</v>
+        <v>1.23482138056158</v>
       </c>
       <c r="AC81">
         <v>36.9</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.3028210833333336</v>
+        <v>0.3027726221264371</v>
       </c>
       <c r="AZ81">
-        <v>0.4083884835602112</v>
+        <v>0.4083487721988452</v>
       </c>
       <c r="BA81">
         <v>-0.119</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.4899972844827585</v>
+        <v>0.4899557931034483</v>
       </c>
       <c r="BH81">
-        <v>0.7154886999834754</v>
+        <v>0.715479464593595</v>
       </c>
       <c r="BI81">
         <v>-0.139</v>
@@ -16071,7 +16071,7 @@
         <v>0.04145</v>
       </c>
       <c r="BL81">
-        <v>0.89925</v>
+        <v>0.8985000000000001</v>
       </c>
       <c r="BM81">
         <v>2.84</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>5.148204022988504</v>
+        <v>5.148218390804596</v>
       </c>
       <c r="T82">
-        <v>1.724404205327365</v>
+        <v>1.724423369707169</v>
       </c>
       <c r="U82">
         <v>2.76</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.3457742086206897</v>
+        <v>0.3457451977011495</v>
       </c>
       <c r="AZ82">
-        <v>0.468267044263169</v>
+        <v>0.4682562031200567</v>
       </c>
       <c r="BA82">
         <v>-0.115</v>
@@ -16244,7 +16244,7 @@
         <v>0.04935</v>
       </c>
       <c r="BD82">
-        <v>0.64425</v>
+        <v>0.644</v>
       </c>
       <c r="BE82">
         <v>2.08</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.5706243716954026</v>
+        <v>0.5705032685344831</v>
       </c>
       <c r="BH82">
-        <v>0.8587492347618696</v>
+        <v>0.8586066074870158</v>
       </c>
       <c r="BI82">
         <v>-0.12</v>
@@ -16354,10 +16354,10 @@
         <v>696</v>
       </c>
       <c r="AA83">
-        <v>38.91882183908047</v>
+        <v>38.9189655172414</v>
       </c>
       <c r="AB83">
-        <v>1.287585121252964</v>
+        <v>1.287432141215097</v>
       </c>
       <c r="AC83">
         <v>36.6</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>131.0593390804596</v>
+        <v>131.0591954022987</v>
       </c>
       <c r="AJ83">
-        <v>55.26620989195423</v>
+        <v>55.26629478971201</v>
       </c>
       <c r="AK83">
         <v>56.4</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.3450998060344835</v>
+        <v>0.3450766666666673</v>
       </c>
       <c r="AZ83">
-        <v>0.4594985392872107</v>
+        <v>0.4594846528159809</v>
       </c>
       <c r="BA83">
         <v>-0.114</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.5661228045977008</v>
+        <v>0.5660388821839079</v>
       </c>
       <c r="BH83">
-        <v>0.8173523922323231</v>
+        <v>0.8172919512867608</v>
       </c>
       <c r="BI83">
         <v>-0.122</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>5.160517241379313</v>
+        <v>5.160502873563222</v>
       </c>
       <c r="T84">
-        <v>1.718911741132461</v>
+        <v>1.718931039750051</v>
       </c>
       <c r="U84">
         <v>2.78</v>
@@ -16551,10 +16551,10 @@
         <v>696</v>
       </c>
       <c r="AA84">
-        <v>38.95201149425289</v>
+        <v>38.95186781609197</v>
       </c>
       <c r="AB84">
-        <v>1.261788831771309</v>
+        <v>1.261538156629347</v>
       </c>
       <c r="AC84">
         <v>36.9</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.3272409362068965</v>
+        <v>0.3272096836206897</v>
       </c>
       <c r="AZ84">
-        <v>0.4240972941528312</v>
+        <v>0.4240854577409705</v>
       </c>
       <c r="BA84">
         <v>-0.111</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.5296651012931034</v>
+        <v>0.5295804620689655</v>
       </c>
       <c r="BH84">
-        <v>0.7467775358889701</v>
+        <v>0.746684811786028</v>
       </c>
       <c r="BI84">
         <v>-0.111</v>
@@ -16659,7 +16659,7 @@
         <v>-0.00138</v>
       </c>
       <c r="BK84">
-        <v>0.04729999999999999</v>
+        <v>0.04725</v>
       </c>
       <c r="BL84">
         <v>1.0225</v>
@@ -16724,10 +16724,10 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>5.169209770114946</v>
+        <v>5.169181034482762</v>
       </c>
       <c r="T85">
-        <v>1.712319670859899</v>
+        <v>1.712349319397124</v>
       </c>
       <c r="U85">
         <v>2.8</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.3486771867816095</v>
+        <v>0.3486295048850578</v>
       </c>
       <c r="AZ85">
-        <v>0.4636506062590786</v>
+        <v>0.4636062199725775</v>
       </c>
       <c r="BA85">
         <v>-0.106</v>
@@ -16835,7 +16835,7 @@
         <v>0.05215</v>
       </c>
       <c r="BD85">
-        <v>0.654</v>
+        <v>0.65325</v>
       </c>
       <c r="BE85">
         <v>1.92</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.5759148975574713</v>
+        <v>0.5758406627873565</v>
       </c>
       <c r="BH85">
-        <v>0.8567287668508262</v>
+        <v>0.8565598462834525</v>
       </c>
       <c r="BI85">
         <v>-0.107</v>
@@ -16897,10 +16897,10 @@
         <v>696</v>
       </c>
       <c r="K86">
-        <v>39.28735632183906</v>
+        <v>39.28749999999997</v>
       </c>
       <c r="L86">
-        <v>0.9493115533743669</v>
+        <v>0.9495635119934573</v>
       </c>
       <c r="M86">
         <v>38.5</v>
@@ -16921,10 +16921,10 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>5.16114942528736</v>
+        <v>5.161408045977015</v>
       </c>
       <c r="T86">
-        <v>1.714929149053409</v>
+        <v>1.714889689644029</v>
       </c>
       <c r="U86">
         <v>2.79</v>
@@ -16969,10 +16969,10 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>131.2235632183908</v>
+        <v>131.225</v>
       </c>
       <c r="AJ86">
-        <v>55.27417929931906</v>
+        <v>55.27363982037748</v>
       </c>
       <c r="AK86">
         <v>56.6</v>
@@ -17017,16 +17017,16 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.3553457241379314</v>
+        <v>0.3552999339080463</v>
       </c>
       <c r="AZ86">
-        <v>0.4776710582660564</v>
+        <v>0.4776312417956877</v>
       </c>
       <c r="BA86">
         <v>-0.114</v>
       </c>
       <c r="BB86">
-        <v>-0.0070075</v>
+        <v>-0.007015</v>
       </c>
       <c r="BC86">
         <v>0.04455</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.5889535977011486</v>
+        <v>0.5889209798850567</v>
       </c>
       <c r="BH86">
-        <v>0.8703867468352163</v>
+        <v>0.8703672817377893</v>
       </c>
       <c r="BI86">
         <v>-0.114</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>5.169540229885054</v>
+        <v>5.169525862068962</v>
       </c>
       <c r="T87">
-        <v>1.737176594972497</v>
+        <v>1.737177295133076</v>
       </c>
       <c r="U87">
         <v>2.74</v>
@@ -17142,10 +17142,10 @@
         <v>696</v>
       </c>
       <c r="AA87">
-        <v>39.06221264367817</v>
+        <v>39.06235632183909</v>
       </c>
       <c r="AB87">
-        <v>1.141963595111213</v>
+        <v>1.141873845311933</v>
       </c>
       <c r="AC87">
         <v>37.2</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.2212654022988505</v>
+        <v>0.2212347499999999</v>
       </c>
       <c r="AZ87">
-        <v>0.3062872477724029</v>
+        <v>0.3062671273915723</v>
       </c>
       <c r="BA87">
         <v>-0.128</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.3636782372126434</v>
+        <v>0.3635966143678157</v>
       </c>
       <c r="BH87">
-        <v>0.544733570358737</v>
+        <v>0.5446284194024581</v>
       </c>
       <c r="BI87">
         <v>-0.153</v>
@@ -17250,7 +17250,7 @@
         <v>-0.009565000000000001</v>
       </c>
       <c r="BK87">
-        <v>0.0421</v>
+        <v>0.04205</v>
       </c>
       <c r="BL87">
         <v>0.678</v>
@@ -17339,10 +17339,10 @@
         <v>696</v>
       </c>
       <c r="AA88">
-        <v>39.02887931034488</v>
+        <v>39.0290229885058</v>
       </c>
       <c r="AB88">
-        <v>1.192186508187849</v>
+        <v>1.192044212178102</v>
       </c>
       <c r="AC88">
         <v>36.4</v>
@@ -17411,16 +17411,16 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.2423401073275862</v>
+        <v>0.2423100874999999</v>
       </c>
       <c r="AZ88">
-        <v>0.3652702957104585</v>
+        <v>0.3652496489046471</v>
       </c>
       <c r="BA88">
         <v>-0.119</v>
       </c>
       <c r="BB88">
-        <v>-0.0061275</v>
+        <v>-0.00613</v>
       </c>
       <c r="BC88">
         <v>0.04015000000000001</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.4303030814655168</v>
+        <v>0.4301960731321832</v>
       </c>
       <c r="BH88">
-        <v>0.7342648801953383</v>
+        <v>0.7341032907079176</v>
       </c>
       <c r="BI88">
         <v>-0.13</v>
@@ -17447,7 +17447,7 @@
         <v>-0.005014999999999999</v>
       </c>
       <c r="BK88">
-        <v>0.03525</v>
+        <v>0.0352</v>
       </c>
       <c r="BL88">
         <v>0.679</v>
@@ -17488,10 +17488,10 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>39.28261494252871</v>
+        <v>39.28290229885055</v>
       </c>
       <c r="L89">
-        <v>0.9388647980787046</v>
+        <v>0.9390080004840872</v>
       </c>
       <c r="M89">
         <v>38.5</v>
@@ -17512,10 +17512,10 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>5.159396551724132</v>
+        <v>5.159425287356316</v>
       </c>
       <c r="T89">
-        <v>1.725057457723805</v>
+        <v>1.725104092413494</v>
       </c>
       <c r="U89">
         <v>2.77</v>
@@ -17536,10 +17536,10 @@
         <v>696</v>
       </c>
       <c r="AA89">
-        <v>38.99568965517245</v>
+        <v>38.99583333333337</v>
       </c>
       <c r="AB89">
-        <v>1.221301975965464</v>
+        <v>1.221166983241536</v>
       </c>
       <c r="AC89">
         <v>36.6</v>
@@ -17560,10 +17560,10 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>131.2795977011495</v>
+        <v>131.2810344827587</v>
       </c>
       <c r="AJ89">
-        <v>55.38827902770467</v>
+        <v>55.38812886934996</v>
       </c>
       <c r="AK89">
         <v>56.5</v>
@@ -17608,16 +17608,16 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.2783389110603446</v>
+        <v>0.2783166296249998</v>
       </c>
       <c r="AZ89">
-        <v>0.3903538394556086</v>
+        <v>0.3903434163604713</v>
       </c>
       <c r="BA89">
         <v>-0.118</v>
       </c>
       <c r="BB89">
-        <v>-0.006255</v>
+        <v>-0.0062625</v>
       </c>
       <c r="BC89">
         <v>0.0378</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.4844440848275857</v>
+        <v>0.4843857936350568</v>
       </c>
       <c r="BH89">
-        <v>0.7596950533230096</v>
+        <v>0.7596310894833045</v>
       </c>
       <c r="BI89">
         <v>-0.121</v>
@@ -17805,16 +17805,16 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.2787581780172414</v>
+        <v>0.2787395942528737</v>
       </c>
       <c r="AZ90">
-        <v>0.3657953999581614</v>
+        <v>0.3657797483250124</v>
       </c>
       <c r="BA90">
         <v>-0.112</v>
       </c>
       <c r="BB90">
-        <v>-0.0013275</v>
+        <v>-0.001335</v>
       </c>
       <c r="BC90">
         <v>0.04595</v>
@@ -17829,22 +17829,22 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.4707116183908044</v>
+        <v>0.4706605406609195</v>
       </c>
       <c r="BH90">
-        <v>0.690839557949575</v>
+        <v>0.6907976427060044</v>
       </c>
       <c r="BI90">
         <v>-0.112</v>
       </c>
       <c r="BJ90">
-        <v>-0.0009995</v>
+        <v>-0.001001</v>
       </c>
       <c r="BK90">
         <v>0.0398</v>
       </c>
       <c r="BL90">
-        <v>0.89025</v>
+        <v>0.8895</v>
       </c>
       <c r="BM90">
         <v>3.07</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.2847367864942527</v>
+        <v>0.2847120749999998</v>
       </c>
       <c r="AZ91">
-        <v>0.3926513210863434</v>
+        <v>0.3926443218161934</v>
       </c>
       <c r="BA91">
         <v>-0.113</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.4890402392241378</v>
+        <v>0.4889319747701147</v>
       </c>
       <c r="BH91">
-        <v>0.7552563032638528</v>
+        <v>0.7551257068822892</v>
       </c>
       <c r="BI91">
         <v>-0.114</v>
@@ -18038,7 +18038,7 @@
         <v>-0.00632</v>
       </c>
       <c r="BK91">
-        <v>0.03285</v>
+        <v>0.0328</v>
       </c>
       <c r="BL91">
         <v>0.8895</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>5.17334770114943</v>
+        <v>5.173362068965521</v>
       </c>
       <c r="T92">
-        <v>1.721339991605303</v>
+        <v>1.721352042114017</v>
       </c>
       <c r="U92">
         <v>2.79</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>131.4561781609195</v>
+        <v>131.4563218390804</v>
       </c>
       <c r="AJ92">
-        <v>55.4103747581638</v>
+        <v>55.41023374018841</v>
       </c>
       <c r="AK92">
         <v>56.6</v>
@@ -18199,16 +18199,16 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.2679209088505746</v>
+        <v>0.2678899079310343</v>
       </c>
       <c r="AZ92">
-        <v>0.3594994679622238</v>
+        <v>0.3594825402806673</v>
       </c>
       <c r="BA92">
         <v>-0.115</v>
       </c>
       <c r="BB92">
-        <v>-0.00696</v>
+        <v>-0.0069625</v>
       </c>
       <c r="BC92">
         <v>0.03805</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.4450940547126433</v>
+        <v>0.4450346313505741</v>
       </c>
       <c r="BH92">
-        <v>0.6494026520669435</v>
+        <v>0.6493466026443089</v>
       </c>
       <c r="BI92">
         <v>-0.115</v>
@@ -18396,16 +18396,16 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.2700608275862067</v>
+        <v>0.2700330258620687</v>
       </c>
       <c r="AZ93">
-        <v>0.3693892010418492</v>
+        <v>0.369367965086346</v>
       </c>
       <c r="BA93">
         <v>-0.116</v>
       </c>
       <c r="BB93">
-        <v>-0.006922500000000001</v>
+        <v>-0.006925000000000001</v>
       </c>
       <c r="BC93">
         <v>0.03809999999999999</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.4554729497126436</v>
+        <v>0.4554239267241378</v>
       </c>
       <c r="BH93">
-        <v>0.6834633335256872</v>
+        <v>0.683409994846185</v>
       </c>
       <c r="BI93">
         <v>-0.116</v>
@@ -18432,10 +18432,10 @@
         <v>-0.0062875</v>
       </c>
       <c r="BK93">
-        <v>0.0341</v>
+        <v>0.03405</v>
       </c>
       <c r="BL93">
-        <v>0.86225</v>
+        <v>0.862</v>
       </c>
       <c r="BM93">
         <v>3.13</v>
@@ -18545,10 +18545,10 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>131.4869252873562</v>
+        <v>131.4866379310344</v>
       </c>
       <c r="AJ94">
-        <v>55.42199899580325</v>
+        <v>55.4222489377084</v>
       </c>
       <c r="AK94">
         <v>56.6</v>
@@ -18593,22 +18593,22 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.2506222499999997</v>
+        <v>0.2505885704022986</v>
       </c>
       <c r="AZ94">
-        <v>0.3702126412657991</v>
+        <v>0.3701947511008101</v>
       </c>
       <c r="BA94">
         <v>-0.116</v>
       </c>
       <c r="BB94">
-        <v>-0.00672</v>
+        <v>-0.0067225</v>
       </c>
       <c r="BC94">
         <v>0.03759999999999999</v>
       </c>
       <c r="BD94">
-        <v>0.436</v>
+        <v>0.43525</v>
       </c>
       <c r="BE94">
         <v>2.01</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.4461846609195402</v>
+        <v>0.4461163017241381</v>
       </c>
       <c r="BH94">
-        <v>0.7369422038192115</v>
+        <v>0.7368443013853808</v>
       </c>
       <c r="BI94">
         <v>-0.116</v>
@@ -18629,7 +18629,7 @@
         <v>-0.0062325</v>
       </c>
       <c r="BK94">
-        <v>0.0315</v>
+        <v>0.03145</v>
       </c>
       <c r="BL94">
         <v>0.73325</v>
@@ -18718,10 +18718,10 @@
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>39.06235632183906</v>
+        <v>39.06249999999998</v>
       </c>
       <c r="AB95">
-        <v>1.202942277589319</v>
+        <v>1.20274939829871</v>
       </c>
       <c r="AC95">
         <v>36.3</v>
@@ -18790,16 +18790,16 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.2359163060344828</v>
+        <v>0.2358874985632185</v>
       </c>
       <c r="AZ95">
-        <v>0.3903051768199599</v>
+        <v>0.390291301604003</v>
       </c>
       <c r="BA95">
         <v>-0.116</v>
       </c>
       <c r="BB95">
-        <v>-0.0068525</v>
+        <v>-0.006855</v>
       </c>
       <c r="BC95">
         <v>0.03535</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.441381629310345</v>
+        <v>0.4413202787356325</v>
       </c>
       <c r="BH95">
-        <v>0.814209681846177</v>
+        <v>0.8141827284250052</v>
       </c>
       <c r="BI95">
         <v>-0.116</v>
@@ -18826,7 +18826,7 @@
         <v>-0.0062625</v>
       </c>
       <c r="BK95">
-        <v>0.02795</v>
+        <v>0.0279</v>
       </c>
       <c r="BL95">
         <v>0.61625</v>
@@ -18915,10 +18915,10 @@
         <v>696</v>
       </c>
       <c r="AA96">
-        <v>39.03534482758618</v>
+        <v>39.0354885057471</v>
       </c>
       <c r="AB96">
-        <v>1.213005374759828</v>
+        <v>1.212912206225816</v>
       </c>
       <c r="AC96">
         <v>36.7</v>
@@ -18987,22 +18987,22 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.255988684913793</v>
+        <v>0.2559583425287355</v>
       </c>
       <c r="AZ96">
-        <v>0.373902392824617</v>
+        <v>0.3738887436614525</v>
       </c>
       <c r="BA96">
         <v>-0.118</v>
       </c>
       <c r="BB96">
-        <v>-0.008144999999999999</v>
+        <v>-0.0081425</v>
       </c>
       <c r="BC96">
         <v>0.0324</v>
       </c>
       <c r="BD96">
-        <v>0.43125</v>
+        <v>0.431</v>
       </c>
       <c r="BE96">
         <v>1.9</v>
@@ -19011,19 +19011,19 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.456764218678161</v>
+        <v>0.4566971994252872</v>
       </c>
       <c r="BH96">
-        <v>0.7315297973521383</v>
+        <v>0.7314532811586677</v>
       </c>
       <c r="BI96">
-        <v>-0.119</v>
+        <v>-0.118</v>
       </c>
       <c r="BJ96">
         <v>-0.006484999999999999</v>
       </c>
       <c r="BK96">
-        <v>0.02295</v>
+        <v>0.0229</v>
       </c>
       <c r="BL96">
         <v>0.7504999999999999</v>
@@ -19088,10 +19088,10 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>5.161264367816087</v>
+        <v>5.161235632183904</v>
       </c>
       <c r="T97">
-        <v>1.724061077953069</v>
+        <v>1.724090308504633</v>
       </c>
       <c r="U97">
         <v>2.77</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.2833636781609197</v>
+        <v>0.2833323548850577</v>
       </c>
       <c r="AZ97">
-        <v>0.3973410808981491</v>
+        <v>0.3973180534219701</v>
       </c>
       <c r="BA97">
         <v>-0.124</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.4882208692528736</v>
+        <v>0.4881478668103447</v>
       </c>
       <c r="BH97">
-        <v>0.7443009121827425</v>
+        <v>0.7442272121029256</v>
       </c>
       <c r="BI97">
         <v>-0.128</v>
@@ -19223,7 +19223,7 @@
         <v>0.023</v>
       </c>
       <c r="BL97">
-        <v>0.92525</v>
+        <v>0.925</v>
       </c>
       <c r="BM97">
         <v>2.97</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>131.4091954022988</v>
+        <v>131.4104885057471</v>
       </c>
       <c r="AJ98">
-        <v>55.40561903235877</v>
+        <v>55.4072386179984</v>
       </c>
       <c r="AK98">
         <v>56.6</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.2755813635057467</v>
+        <v>0.275545793103448</v>
       </c>
       <c r="AZ98">
-        <v>0.3752316142950405</v>
+        <v>0.3752128896041316</v>
       </c>
       <c r="BA98">
         <v>-0.121</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.4642507076149425</v>
+        <v>0.4642012216954026</v>
       </c>
       <c r="BH98">
-        <v>0.6821134888323572</v>
+        <v>0.6820711763746757</v>
       </c>
       <c r="BI98">
         <v>-0.122</v>
@@ -19417,7 +19417,7 @@
         <v>-0.005057499999999999</v>
       </c>
       <c r="BK98">
-        <v>0.02955</v>
+        <v>0.0295</v>
       </c>
       <c r="BL98">
         <v>0.9157500000000001</v>
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>39.307040229885</v>
+        <v>39.30531609195397</v>
       </c>
       <c r="L99">
-        <v>0.9522978668232956</v>
+        <v>0.9522788498416751</v>
       </c>
       <c r="M99">
         <v>38.5</v>
@@ -19473,7 +19473,7 @@
         <v>38.84999999999999</v>
       </c>
       <c r="P99">
-        <v>39.8</v>
+        <v>39.725</v>
       </c>
       <c r="Q99">
         <v>41.3</v>
@@ -19482,34 +19482,34 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>5.18484195402299</v>
+        <v>5.18344827586207</v>
       </c>
       <c r="T99">
-        <v>1.716706057313175</v>
+        <v>1.716742994612466</v>
       </c>
       <c r="U99">
         <v>2.8</v>
       </c>
       <c r="V99">
-        <v>3.62</v>
+        <v>3.6175</v>
       </c>
       <c r="W99">
         <v>4.925</v>
       </c>
       <c r="X99">
-        <v>6.425</v>
+        <v>6.4175</v>
       </c>
       <c r="Y99">
-        <v>8.960000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Z99">
         <v>696</v>
       </c>
       <c r="AA99">
-        <v>39.0352011494253</v>
+        <v>39.03548850574715</v>
       </c>
       <c r="AB99">
-        <v>1.215136888306177</v>
+        <v>1.21482060961146</v>
       </c>
       <c r="AC99">
         <v>36.8</v>
@@ -19530,10 +19530,10 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>131.5441091954021</v>
+        <v>131.5392241379309</v>
       </c>
       <c r="AJ99">
-        <v>55.4317657656327</v>
+        <v>55.42372396977446</v>
       </c>
       <c r="AK99">
         <v>56.7</v>
@@ -19548,16 +19548,16 @@
         <v>140.75</v>
       </c>
       <c r="AO99">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP99">
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>1.400239655172413</v>
+        <v>1.400179310344827</v>
       </c>
       <c r="AR99">
-        <v>0.9257056420794479</v>
+        <v>0.9256689527133155</v>
       </c>
       <c r="AS99">
         <v>0.0575</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.2676848908045977</v>
+        <v>0.2676221925287355</v>
       </c>
       <c r="AZ99">
-        <v>0.3628172173875155</v>
+        <v>0.36274667909831</v>
       </c>
       <c r="BA99">
         <v>-0.115</v>
@@ -19593,7 +19593,7 @@
         <v>0.0383</v>
       </c>
       <c r="BD99">
-        <v>0.497</v>
+        <v>0.49625</v>
       </c>
       <c r="BE99">
         <v>1.7</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.4560288204022993</v>
+        <v>0.4559268433908049</v>
       </c>
       <c r="BH99">
-        <v>0.6791985973955257</v>
+        <v>0.6790769066725737</v>
       </c>
       <c r="BI99">
         <v>-0.116</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.2643946336206897</v>
+        <v>0.2643633965517241</v>
       </c>
       <c r="AZ100">
-        <v>0.3722736471601678</v>
+        <v>0.3722485431883958</v>
       </c>
       <c r="BA100">
         <v>-0.12</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.459125093390805</v>
+        <v>0.4590627140804601</v>
       </c>
       <c r="BH100">
-        <v>0.7071725086501368</v>
+        <v>0.7070928176566209</v>
       </c>
       <c r="BI100">
         <v>-0.12</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>39.21508620689664</v>
+        <v>39.21594827586215</v>
       </c>
       <c r="L101">
-        <v>0.9267965985067725</v>
+        <v>0.9267510931677773</v>
       </c>
       <c r="M101">
         <v>38.4</v>
@@ -19876,16 +19876,16 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>5.094727011494256</v>
+        <v>5.095086206896554</v>
       </c>
       <c r="T101">
-        <v>1.739185515206845</v>
+        <v>1.739185120866669</v>
       </c>
       <c r="U101">
         <v>2.67</v>
       </c>
       <c r="V101">
-        <v>3.4975</v>
+        <v>3.5</v>
       </c>
       <c r="W101">
         <v>4.83</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>131.0587643678161</v>
+        <v>131.0593390804598</v>
       </c>
       <c r="AJ101">
-        <v>55.38559959501924</v>
+        <v>55.38512123001328</v>
       </c>
       <c r="AK101">
         <v>56.2</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>1.395098850574714</v>
+        <v>1.39510459770115</v>
       </c>
       <c r="AR101">
-        <v>0.9241342438523469</v>
+        <v>0.9241294041446418</v>
       </c>
       <c r="AS101">
         <v>0.0572</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.2462670376436779</v>
+        <v>0.2462288941091951</v>
       </c>
       <c r="AZ101">
-        <v>0.3596111766006077</v>
+        <v>0.3595543472854952</v>
       </c>
       <c r="BA101">
         <v>-0.14</v>
@@ -19984,7 +19984,7 @@
         <v>-0.020025</v>
       </c>
       <c r="BC101">
-        <v>0.0233</v>
+        <v>0.02325</v>
       </c>
       <c r="BD101">
         <v>0.45725</v>
@@ -19996,22 +19996,22 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.4278396854885059</v>
+        <v>0.427759416810345</v>
       </c>
       <c r="BH101">
-        <v>0.6596434434057583</v>
+        <v>0.6595123710354277</v>
       </c>
       <c r="BI101">
         <v>-0.165</v>
       </c>
       <c r="BJ101">
-        <v>-0.014625</v>
+        <v>-0.0146</v>
       </c>
       <c r="BK101">
-        <v>0.02185</v>
+        <v>0.02175</v>
       </c>
       <c r="BL101">
-        <v>0.8115</v>
+        <v>0.81125</v>
       </c>
       <c r="BM101">
         <v>2.97</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>39.22428160919549</v>
+        <v>39.22528735632193</v>
       </c>
       <c r="L102">
-        <v>0.9302429796336538</v>
+        <v>0.9302702806203014</v>
       </c>
       <c r="M102">
         <v>38.4</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>5.103477011494255</v>
+        <v>5.104425287356325</v>
       </c>
       <c r="T102">
-        <v>1.735448684807552</v>
+        <v>1.73555620844828</v>
       </c>
       <c r="U102">
         <v>2.69</v>
@@ -20091,7 +20091,7 @@
         <v>6.37</v>
       </c>
       <c r="Y102">
-        <v>8.92</v>
+        <v>8.93</v>
       </c>
       <c r="Z102">
         <v>696</v>
@@ -20121,16 +20121,16 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>131.103591954023</v>
+        <v>131.1057471264368</v>
       </c>
       <c r="AJ102">
-        <v>55.40874098016808</v>
+        <v>55.40892945478998</v>
       </c>
       <c r="AK102">
         <v>56.3</v>
       </c>
       <c r="AL102">
-        <v>101.075</v>
+        <v>101.1</v>
       </c>
       <c r="AM102">
         <v>115</v>
@@ -20145,16 +20145,16 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>1.395421839080462</v>
+        <v>1.395470689655175</v>
       </c>
       <c r="AR102">
-        <v>0.9243831296755919</v>
+        <v>0.9244010638059469</v>
       </c>
       <c r="AS102">
         <v>0.0573</v>
       </c>
       <c r="AT102">
-        <v>0.6737500000000001</v>
+        <v>0.6745000000000001</v>
       </c>
       <c r="AU102">
         <v>1.305</v>
@@ -20169,10 +20169,10 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.2478809133620689</v>
+        <v>0.2478517297413793</v>
       </c>
       <c r="AZ102">
-        <v>0.3503086664003275</v>
+        <v>0.3502979438186832</v>
       </c>
       <c r="BA102">
         <v>-0.133</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.4246511429597699</v>
+        <v>0.4245485239942526</v>
       </c>
       <c r="BH102">
-        <v>0.6444406949062902</v>
+        <v>0.6443339529783563</v>
       </c>
       <c r="BI102">
         <v>-0.142</v>
@@ -20205,10 +20205,10 @@
         <v>-0.00692</v>
       </c>
       <c r="BK102">
-        <v>0.02575</v>
+        <v>0.0257</v>
       </c>
       <c r="BL102">
-        <v>0.803</v>
+        <v>0.8027500000000001</v>
       </c>
       <c r="BM102">
         <v>2.83</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.2330008045977008</v>
+        <v>0.2329684037356319</v>
       </c>
       <c r="AZ103">
-        <v>0.3250845699680359</v>
+        <v>0.3250647338664183</v>
       </c>
       <c r="BA103">
         <v>-0.127</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.3987635387931034</v>
+        <v>0.3986986824712643</v>
       </c>
       <c r="BH103">
-        <v>0.6001871057158458</v>
+        <v>0.6000954091702906</v>
       </c>
       <c r="BI103">
         <v>-0.138</v>
@@ -20402,10 +20402,10 @@
         <v>-0.008185</v>
       </c>
       <c r="BK103">
-        <v>0.02645</v>
+        <v>0.0264</v>
       </c>
       <c r="BL103">
-        <v>0.76975</v>
+        <v>0.769</v>
       </c>
       <c r="BM103">
         <v>2.81</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>39.22557471264375</v>
+        <v>39.22859195402306</v>
       </c>
       <c r="L104">
-        <v>0.9357832637486877</v>
+        <v>0.9373474130903975</v>
       </c>
       <c r="M104">
         <v>38.4</v>
@@ -20467,25 +20467,25 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>5.103922413793106</v>
+        <v>5.106997126436783</v>
       </c>
       <c r="T104">
-        <v>1.733433234821356</v>
+        <v>1.733377550438979</v>
       </c>
       <c r="U104">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="V104">
-        <v>3.5075</v>
+        <v>3.5175</v>
       </c>
       <c r="W104">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="X104">
-        <v>6.3425</v>
+        <v>6.35</v>
       </c>
       <c r="Y104">
-        <v>8.880000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="Z104">
         <v>696</v>
@@ -20515,10 +20515,10 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>131.2077586206897</v>
+        <v>131.2188218390805</v>
       </c>
       <c r="AJ104">
-        <v>55.45958614263976</v>
+        <v>55.45863535245602</v>
       </c>
       <c r="AK104">
         <v>56.3</v>
@@ -20530,7 +20530,7 @@
         <v>115</v>
       </c>
       <c r="AN104">
-        <v>139.75</v>
+        <v>140.5</v>
       </c>
       <c r="AO104">
         <v>412</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>1.396515804597703</v>
+        <v>1.396649425287358</v>
       </c>
       <c r="AR104">
-        <v>0.9248787627226972</v>
+        <v>0.9250184093208108</v>
       </c>
       <c r="AS104">
         <v>0.0573</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.2337526067528738</v>
+        <v>0.2337403712643681</v>
       </c>
       <c r="AZ104">
-        <v>0.3293484245693267</v>
+        <v>0.3293457453831558</v>
       </c>
       <c r="BA104">
         <v>-0.125</v>
@@ -20578,7 +20578,7 @@
         <v>0.0321</v>
       </c>
       <c r="BD104">
-        <v>0.4007500000000001</v>
+        <v>0.4</v>
       </c>
       <c r="BE104">
         <v>1.53</v>
@@ -20587,10 +20587,10 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.4004049965517244</v>
+        <v>0.4003846215517243</v>
       </c>
       <c r="BH104">
-        <v>0.6090789891352308</v>
+        <v>0.6090867920927514</v>
       </c>
       <c r="BI104">
         <v>-0.13</v>
@@ -20599,7 +20599,7 @@
         <v>-0.0063525</v>
       </c>
       <c r="BK104">
-        <v>0.0259</v>
+        <v>0.0258</v>
       </c>
       <c r="BL104">
         <v>0.74</v>
@@ -20760,16 +20760,16 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.2395325143678162</v>
+        <v>0.2394878002873565</v>
       </c>
       <c r="AZ105">
-        <v>0.3307139345363872</v>
+        <v>0.330674800651914</v>
       </c>
       <c r="BA105">
         <v>-0.119</v>
       </c>
       <c r="BB105">
-        <v>-0.0053125</v>
+        <v>-0.00531</v>
       </c>
       <c r="BC105">
         <v>0.03645</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.40829679454023</v>
+        <v>0.4082103146551727</v>
       </c>
       <c r="BH105">
-        <v>0.6138334829951188</v>
+        <v>0.613681938761733</v>
       </c>
       <c r="BI105">
         <v>-0.12</v>
@@ -20885,10 +20885,10 @@
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>39.0633620689655</v>
+        <v>39.06350574712643</v>
       </c>
       <c r="AB106">
-        <v>1.182483505753596</v>
+        <v>1.182335845589349</v>
       </c>
       <c r="AC106">
         <v>37</v>
@@ -20957,10 +20957,10 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.2385600416666666</v>
+        <v>0.2385193879310343</v>
       </c>
       <c r="AZ106">
-        <v>0.3309171109039911</v>
+        <v>0.3308620668026523</v>
       </c>
       <c r="BA106">
         <v>-0.115</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.4074114211206898</v>
+        <v>0.4073411443965517</v>
       </c>
       <c r="BH106">
-        <v>0.613515150479491</v>
+        <v>0.613449999331775</v>
       </c>
       <c r="BI106">
         <v>-0.116</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>5.125775862068969</v>
+        <v>5.125761494252878</v>
       </c>
       <c r="T107">
-        <v>1.722354662728406</v>
+        <v>1.72237354900548</v>
       </c>
       <c r="U107">
         <v>2.74</v>
@@ -21154,16 +21154,16 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.2381679308908044</v>
+        <v>0.2381395821839079</v>
       </c>
       <c r="AZ107">
-        <v>0.3324187376852707</v>
+        <v>0.3324021665715842</v>
       </c>
       <c r="BA107">
         <v>-0.117</v>
       </c>
       <c r="BB107">
-        <v>-0.007465</v>
+        <v>-0.0074625</v>
       </c>
       <c r="BC107">
         <v>0.033</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.4073313196839086</v>
+        <v>0.407256298706897</v>
       </c>
       <c r="BH107">
-        <v>0.6149244012507387</v>
+        <v>0.6148534440819478</v>
       </c>
       <c r="BI107">
         <v>-0.117</v>
@@ -21255,10 +21255,10 @@
         <v>696</v>
       </c>
       <c r="S108">
-        <v>5.121048850574718</v>
+        <v>5.12106321839081</v>
       </c>
       <c r="T108">
-        <v>1.726859391717018</v>
+        <v>1.72687850514657</v>
       </c>
       <c r="U108">
         <v>2.72</v>
@@ -21279,10 +21279,10 @@
         <v>696</v>
       </c>
       <c r="AA108">
-        <v>39.0563218390805</v>
+        <v>39.05617816091958</v>
       </c>
       <c r="AB108">
-        <v>1.180898440986881</v>
+        <v>1.180631116378533</v>
       </c>
       <c r="AC108">
         <v>37</v>
@@ -21351,10 +21351,10 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.2366753347701152</v>
+        <v>0.236646857758621</v>
       </c>
       <c r="AZ108">
-        <v>0.3353451667109042</v>
+        <v>0.3353297983753889</v>
       </c>
       <c r="BA108">
         <v>-0.123</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.4061806511494255</v>
+        <v>0.4061101583333336</v>
       </c>
       <c r="BH108">
-        <v>0.6173338719674076</v>
+        <v>0.6172229401366855</v>
       </c>
       <c r="BI108">
         <v>-0.124</v>
@@ -21452,10 +21452,10 @@
         <v>696</v>
       </c>
       <c r="S109">
-        <v>5.102873563218386</v>
+        <v>5.102887931034479</v>
       </c>
       <c r="T109">
-        <v>1.734801152900772</v>
+        <v>1.734820329576433</v>
       </c>
       <c r="U109">
         <v>2.69</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.2360244066091953</v>
+        <v>0.2359812270114942</v>
       </c>
       <c r="AZ109">
-        <v>0.3409916008018655</v>
+        <v>0.3409276175062562</v>
       </c>
       <c r="BA109">
         <v>-0.132</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.4064279554597707</v>
+        <v>0.4063552356321845</v>
       </c>
       <c r="BH109">
-        <v>0.6236101400850371</v>
+        <v>0.6235002442540382</v>
       </c>
       <c r="BI109">
         <v>-0.145</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.2405719160919539</v>
+        <v>0.2405415313218389</v>
       </c>
       <c r="AZ110">
-        <v>0.343377381783475</v>
+        <v>0.343352665826467</v>
       </c>
       <c r="BA110">
         <v>-0.13</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.4120145399568968</v>
+        <v>0.411954152054598</v>
       </c>
       <c r="BH110">
-        <v>0.6272189858960628</v>
+        <v>0.6271447863125825</v>
       </c>
       <c r="BI110">
         <v>-0.141</v>
@@ -21787,7 +21787,7 @@
         <v>0.7777500000000001</v>
       </c>
       <c r="BM110">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="111" spans="1:65">
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.2423309252873565</v>
+        <v>0.2422987571839081</v>
       </c>
       <c r="AZ111">
-        <v>0.3469957240673252</v>
+        <v>0.3469684752203612</v>
       </c>
       <c r="BA111">
         <v>-0.132</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.41450680158046</v>
+        <v>0.4144501535919542</v>
       </c>
       <c r="BH111">
-        <v>0.6308391035044617</v>
+        <v>0.6307688057883698</v>
       </c>
       <c r="BI111">
         <v>-0.148</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>39.22428160919551</v>
+        <v>39.23606321839093</v>
       </c>
       <c r="L112">
-        <v>0.915525277385501</v>
+        <v>0.9153250106570757</v>
       </c>
       <c r="M112">
         <v>38.4</v>
@@ -22043,34 +22043,34 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>5.104252873563226</v>
+        <v>5.114339080459779</v>
       </c>
       <c r="T112">
-        <v>1.751592579140788</v>
+        <v>1.751657918041484</v>
       </c>
       <c r="U112">
         <v>2.59</v>
       </c>
       <c r="V112">
-        <v>3.46</v>
+        <v>3.4875</v>
       </c>
       <c r="W112">
-        <v>4.845</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="X112">
-        <v>6.3725</v>
+        <v>6.3825</v>
       </c>
       <c r="Y112">
-        <v>8.960000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="Z112">
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>39.02485632183907</v>
+        <v>39.02471264367814</v>
       </c>
       <c r="AB112">
-        <v>1.152863176837019</v>
+        <v>1.152797624629189</v>
       </c>
       <c r="AC112">
         <v>37</v>
@@ -22091,16 +22091,16 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>130.9525862068965</v>
+        <v>130.9887931034482</v>
       </c>
       <c r="AJ112">
-        <v>55.46656955884018</v>
+        <v>55.47353445836937</v>
       </c>
       <c r="AK112">
         <v>55.9</v>
       </c>
       <c r="AL112">
-        <v>100.3</v>
+        <v>100.325</v>
       </c>
       <c r="AM112">
         <v>115</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>1.394300862068967</v>
+        <v>1.394768103448277</v>
       </c>
       <c r="AR112">
-        <v>0.924830679396619</v>
+        <v>0.9251285014471127</v>
       </c>
       <c r="AS112">
         <v>0.0572</v>
@@ -22139,16 +22139,16 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.2217073048850574</v>
+        <v>0.2217439609195401</v>
       </c>
       <c r="AZ112">
-        <v>0.3256831362412979</v>
+        <v>0.3257472305392207</v>
       </c>
       <c r="BA112">
         <v>-0.194</v>
       </c>
       <c r="BB112">
-        <v>-0.015825</v>
+        <v>-0.015925</v>
       </c>
       <c r="BC112">
         <v>0.02965</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3851218778735634</v>
+        <v>0.385177337212644</v>
       </c>
       <c r="BH112">
-        <v>0.598162891023615</v>
+        <v>0.5982551356980973</v>
       </c>
       <c r="BI112">
         <v>-0.307</v>
@@ -22175,7 +22175,7 @@
         <v>-0.010525</v>
       </c>
       <c r="BK112">
-        <v>0.02345</v>
+        <v>0.0234</v>
       </c>
       <c r="BL112">
         <v>0.73975</v>
